--- a/ChatData.xlsx
+++ b/ChatData.xlsx
@@ -1,52 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Chat Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Chat Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,13 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,74 +444,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>User Prompt</v>
-      </c>
-      <c r="B1" t="str">
-        <v>AI Response</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>What monitor should I be buying?</v>
-      </c>
-      <c r="B2" t="str">
-        <v>"For gaming and esports, a high refresh rate monitor is essential for smooth gameplay and aiming precision. Aim for at least a 144Hz monitor, but ideally go for a 240Hz monitor for the best performance. Brands like ASUS, BenQ, and Alienware offer great options in terms of refresh rate, response time, and color accuracy. Make sure to also consider factors like panel type (TN, IPS, or VA) based on your preferences for color reproduction and viewing angles. Ultimately, prioritize a high refresh rate for a competitive edge in aiming and gameplay."</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>What aimers have played on 60hz?</v>
-      </c>
-      <c r="B3" t="str">
-        <v>"Players like eloevv and Mana have achieved impressive results in esports while using 60hz monitors. It goes to show that while having higher refresh rate monitors and top-notch equipment can be beneficial, it's not a strict requirement to excel in aiming and competitive gaming. Consistent practice, dedication, and skill are vital elements for success regardless of the hardware limitations."</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>What is the Bardoz Method or Bardpill meaning in static clicking in aim trainers?</v>
-      </c>
-      <c r="B4" t="str">
-        <v>"The Bardoz Method or Bardpill is a technique popularized in aim training communities, particularly in the context of static clicking scenarios. It involves utilizing a specific method of aiming that emphasizes consistency and precision. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players' flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator or popularizer in the community."</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>What static clicking scenarios are available in Kovaak's?</v>
-      </c>
-      <c r="B5" t="str">
-        <v>"In Kovaak's FPS Aim Trainer, some popular static clicking scenarios that focus on improving flicking techniques and high accuracy thresholds include 1wall6targets_small, 1wall4targets, 1wall3targets, ww3targets, Wide Wall 4 targets, Fourshot, and Threeshot. These scenarios help players familiarize themselves with basic flicking techniques by requiring them to quickly and accurately target stationary objects. By practicing these scenarios, players can develop the initial flick to each target to be fast, rigid, and explosive, while also honing their micro-correction skills to be smooth, narrow, and succinct."</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>What mouse should we be using in aim training?</v>
-      </c>
-      <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">"When it comes to choosing a mouse for aim training and esports, it's important to consider factors like sensor quality, DPI settings, weight, and shape. Popular options among professional players include models like the Logitech G Pro Wireless, Zowie EC2, and Finalmouse Ultralight 2. These mice are known for their precise sensors, lightweight design, and ergonomic shapes that cater to different grip styles.
-Ultimately, the best mouse for aim training is one that feels comfortable in your hand, offers customizable settings to suit your preferences, and provides accurate tracking for precise aiming. It's also beneficial to pair your mouse with a quality mousepad that complements your playstyle, whether you prefer a speed or control surface.
-Experimenting with different mice and"</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v>Hello</v>
-      </c>
-      <c r="B7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Internal Server Error - Issue processing the request. Generated Chunk: 
-            No matching chunk found.</v>
-      </c>
-    </row>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>User Prompt</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AI Response</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Generated Chunk</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ground Truth</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>What monitor should I be buying?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>"For gaming and esports, a high refresh rate monitor is essential for smooth gameplay and aiming precision. Aim for at least a 144Hz monitor, but ideally go for a 240Hz monitor for the best performance. Brands like ASUS, BenQ, and Alienware offer great options in terms of refresh rate, response time, and color accuracy. Make sure to also consider factors like panel type (TN, IPS, or VA) based on your preferences for color reproduction and viewing angles. Ultimately, prioritize a high refresh rate for a competitive edge in aiming and gameplay."</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>For competitive gaming and esports, a high refresh rate monitor is preferred for smooth gameplay and strong aiming performance. Try to get at least 144hz if you take things seriously, although 240hz is the ideal. More serious aimers may even go to 360hz monitors. Also, you may want to consider looking into different panels, like TN, IPS, or OLED, based on your desired motion clarity and color vibrance. Such factors can be a competitive advantage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>What aimers have played on 60hz?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>"Players like eloevv and Mana have achieved impressive results in esports while using 60hz monitors. It goes to show that while having higher refresh rate monitors and top-notch equipment can be beneficial, it's not a strict requirement to excel in aiming and competitive gaming. Consistent practice, dedication, and skill are vital elements for success regardless of the hardware limitations."</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Many aimers have likely played or started by playing on 60hz, but upgraded in the future. Famously, eloevv and Mana are two aimers that have consistently performed on 60hz, achieving tracking and dynamic scores in the Nova ranks. This simply goes to show how far dedication and focused practice can take you, even without the ideal gear.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>What is the Bardoz Method or Bardpill meaning in static clicking in aim trainers?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>"The Bardoz Method or Bardpill is a technique popularized in aim training communities, particularly in the context of static clicking scenarios. It involves utilizing a specific method of aiming that emphasizes consistency and precision. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players' flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator or popularizer in the community."</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>This baseline process of initial flick into micro correction into shot confirmation is known as the Bardoz Method, coined after the former best static clicking player, Bardoz. The Bardoz Method, when performed correctly, is the current best way to maximize static clicking scenario scores and is a foundational technique for all forms of flicking-oriented aiming. The initial flick is usually expected to land at some offset difference before the target, the micro correction corrects this offset, and the shot confirmation is a brief visual check to ensure that you will land your shot. The method encourages high accuracy.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Bardoz and Bardpill methods are used in static clicking aim training scenarios. It emphasizes consistency and accuracy over raw speed. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players' flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator, Bardoz, one of the greatest players in static clicking history.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>What static clicking scenarios are available in Kovaak's?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>"In Kovaak's FPS Aim Trainer, some popular static clicking scenarios that focus on improving flicking techniques and high accuracy thresholds include 1wall6targets_small, 1wall4targets, 1wall3targets, ww3targets, Wide Wall 4 targets, Fourshot, and Threeshot. These scenarios help players familiarize themselves with basic flicking techniques by requiring them to quickly and accurately target stationary objects. By practicing these scenarios, players can develop the initial flick to each target to be fast, rigid, and explosive, while also honing their micro-correction skills to be smooth, narrow, and succinct."</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>What mouse should we be using in aim training?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>"When it comes to choosing a mouse for aim training and esports, it's important to consider factors like sensor quality, DPI settings, weight, and shape. Popular options among professional players include models like the Logitech G Pro Wireless, Zowie EC2, and Finalmouse Ultralight 2. These mice are known for their precise sensors, lightweight design, and ergonomic shapes that cater to different grip styles._x000D_
+_x000D_
+Ultimately, the best mouse for aim training is one that feels comfortable in your hand, offers customizable settings to suit your preferences, and provides accurate tracking for precise aiming. It's also beneficial to pair your mouse with a quality mousepad that complements your playstyle, whether you prefer a speed or control surface._x000D_
+_x000D_
+Experimenting with different mice and"</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>What monitors are available that are best for FPS?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>"For FPS gaming, it's recommended to look for monitors with high refresh rates like 144Hz or ideally 240Hz for the smoothest gameplay experience. Some popular options among professional FPS players include monitors from brands like ASUS, BenQ, Alienware, and Zowie. Models such as the ASUS ROG Swift PG258Q, BenQ Zowie XL2540, Alienware AW2518H, and Zowie XL2546 are commonly praised for their fast response times and smooth performance in FPS games. Be sure to also consider factors like panel type (TN for faster response or IPS for better colors), resolution, and input lag when choosing the best monitor for your FPS gaming needs."</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>What aim training software is the best?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>"There are several popular aim training software options that many gamers and esports professionals use to improve their aiming skills. Some of the most well-known programs include Aim Lab, Kovaak's FPS Aim Trainer, and Aimtastic. These platforms offer various exercises and scenarios to help players enhance their aiming abilities through consistent practice and feedback. Ultimately, the best aim training software for you may depend on your personal preferences, the games you play, and the specific skills you want to focus on improving. It's recommended to try out different programs to see which one aligns best with your training goals and playstyle."</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Muscle memory is a misnomer in aiming. The term “muscle memory” when used improperly suggests that you should stick to a specific sensitivity across all situations to preserve consistency, and changing your sensitivity would ruin your muscle memory. This is a very simplified and inaccurate understanding of motor memory, an important idea in neuroscience. Because aiming has little to no formal research, it is best not to worry about muscle/motor memory, even when discussed as a proper neuroscience concept, as its role in aiming is not well understood.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Why is muscle memory considered a misnomer in aiming?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>"Muscle memory is often associated with repetitive movements that become automatic over time. While aim training can help improve muscle memory for precise aiming, it is a bit of a misnomer when it comes to aiming in esports. Aiming in gaming involves dynamic situations with constantly changing variables such as movement, positioning, and decision-making, rather than just repeating the same physical motion. Therefore, while muscle memory can contribute to more consistent aiming, it is not the only factor in mastering aiming skills in esports, where game sense, positioning, and decision-making play crucial roles."</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The aim trainer will not help you have better positioning in game or stronger game sense that would influence decision-making skills. Essentially, aim training will NOT help you to improve at anything that can be considered a part of game-specific knowledge or mechanics that are not aim-related.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>What aim training should I be doing for Overwatch?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>"For Overwatch, aim training should focus on a combination of tracking and flick shots, as the game requires a mix of both skills depending on the hero you are playing. Here are some aim training routines that can benefit Overwatch players:
+1. **Tracking Aim**: Use aim training scenarios that involve tracking moving targets smoothly. This will help improve your aim with heroes like Soldier: 76, Zarya, and Tracer.
+2. **Flick Aim**: Practice scenarios that require quick and precise flick shots to improve your aim with heroes like Widowmaker, McCree, and Ana.
+3. **Vertical Aim**: Since Overwatch has a lot of verticality, practice aiming both horizontally and vertically to be able to track and hit targets in all dimensions.
+4."</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>“What sensitivity should I use? ” is probably the most frequently asked question by beginners. By and large, most people will say that sensitivity is up to preference, but most people use somewhere between 20cm/360° to 50cm/360°. This is not a hard rule, but most people’s ideal sensitivity lands within that range. Typically, you should prefer slower sensitivities for games that are more “flick” reliant, like CSGO or Valorant, and higher sensitivities for games that require more tracking or verticality, such as Overwatch or Fortnite. Feel free to experiment with different sensitivities often and find what works for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>What is the optimal sensitivity for aiming?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>"The optimal sensitivity for aiming varies from player to player based on personal preference, playstyle, and the game being played. As mentioned in the text, most players tend to use sensitivities ranging from 20cm/360� to 50cm/360�. However, the key is to find a sensitivity that allows you to be accurate and consistent in your aiming. 
+For games that require precise flick shots like CSGO or Valorant, lower sensitivities are generally preferred as they offer more control. On the other hand, games that require quick tracking and vertical aiming like Overwatch or Fortnite might benefit from slightly higher sensitivities to allow for faster movements.
+It's essential to experiment with different sensitivities to find what feels comfortable and effective for you"</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>“What sensitivity should I use? ” is probably the most frequently asked question by beginners. By and large, most people will say that sensitivity is up to preference, but most people use somewhere between 20cm/360° to 50cm/360°. This is not a hard rule, but most people’s ideal sensitivity lands within that range. Typically, you should prefer slower sensitivities for games that are more “flick” reliant, like CSGO or Valorant, and higher sensitivities for games that require more tracking or verticality, such as Overwatch or Fortnite. Feel free to experiment with different sensitivities often and find what works for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>What is static clicking meant to train for?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>"Static clicking scenarios are designed to train players in developing their basic flicking techniques and improving their accuracy. These scenarios help players familiarize themselves with the initial flick to each stationary target, emphasizing speed, precision, and explosiveness. By hitting high accuracy thresholds, players can enhance their ability to quickly and accurately flick to targets in a controlled and efficient manner. Static clicking also helps in honing the balance between fast initial movements and smooth micro corrections, which are crucial skills for various esports games that require precise aim and quick reactions."</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ChatData.xlsx
+++ b/ChatData.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -561,8 +561,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Bardoz and Bardpill methods are used in static clicking aim training scenarios. It emphasizes consistency and accuracy over raw speed. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players' flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator, Bardoz, one of the greatest players in static clicking history.
-</t>
+          <t>The Bardoz and Bardpill methods are used in static clicking aim training scenarios. It emphasizes consistency and accuracy over raw speed. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players' flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator, Bardoz, one of the greatest players in static clicking history.</t>
         </is>
       </c>
     </row>
@@ -580,6 +579,11 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Some popular static clicking scenarios in Kovaak's include 1wall6targets_small, 1wall4targets, ww3t, Wide Wall 4 Targets, Fourshot, Threeshot, and 1w2ts. These basic static clicking scenarios place a focus on improving foundational flicking technique.</t>
         </is>
       </c>
     </row>
@@ -603,6 +607,11 @@
           <t>Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>There is no such thing as a "best" mouse to be used for aiming. It will vary greatly across different shapes, weights, and internal specs. Some popular options from top aimers include Gwolves mice, Pulsar mice, and the ever-notable Logitech G Pro Superlight. If you do not know what shape you prefer for your grip style, you should look to experiment.</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="inlineStr">
@@ -620,6 +629,11 @@
           <t>Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For FPS, you most likely want a monitor that supports a high refresh rate, ideally at or above 144hz. The most popular brands at the time of writing are ASUS and Zowie monitors, which are used in FPS esports events. These all run at 240hz or more. </t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="inlineStr">
@@ -637,6 +651,11 @@
           <t>Muscle memory is a misnomer in aiming. The term “muscle memory” when used improperly suggests that you should stick to a specific sensitivity across all situations to preserve consistency, and changing your sensitivity would ruin your muscle memory. This is a very simplified and inaccurate understanding of motor memory, an important idea in neuroscience. Because aiming has little to no formal research, it is best not to worry about muscle/motor memory, even when discussed as a proper neuroscience concept, as its role in aiming is not well understood.</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Of the three major aim trainers we have to choose from- Aimlabs, Kovaak's, and Aimbeast, the best one is up to what your goals are within aim training and your perceived experience level. Aimlabs is very beginner-friendly and supports all of the different aiming subcategories, but lacks some of the technical depth offered by its alternatives. Aimbeast has the most technical depth and is the most well-optimized trainer of the three. However, it is not beginner-friendly in the slightest. Kovaak's is the middle ground that most top aimers prefer, and it has the most scenario variety.</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="inlineStr">
@@ -652,6 +671,11 @@
       <c r="C9" t="inlineStr">
         <is>
           <t>The aim trainer will not help you have better positioning in game or stronger game sense that would influence decision-making skills. Essentially, aim training will NOT help you to improve at anything that can be considered a part of game-specific knowledge or mechanics that are not aim-related.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Muscle memory is considered is misnomer in aiming because it used frequently to suggest that changing sensitivity or other mechanical factors will ruin the consistency in your aim. This is untrue, and muscle memory is a very simplified and innacurate understanding of motor memory, which is an important idea in neuroscience. Instead, you should feel free to make changes to your setup or settings, as it should not have a significant impact on your performance long-term.</t>
         </is>
       </c>
     </row>
@@ -675,6 +699,11 @@
           <t>“What sensitivity should I use? ” is probably the most frequently asked question by beginners. By and large, most people will say that sensitivity is up to preference, but most people use somewhere between 20cm/360° to 50cm/360°. This is not a hard rule, but most people’s ideal sensitivity lands within that range. Typically, you should prefer slower sensitivities for games that are more “flick” reliant, like CSGO or Valorant, and higher sensitivities for games that require more tracking or verticality, such as Overwatch or Fortnite. Feel free to experiment with different sensitivities often and find what works for you.</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Aim training for Overwatch should involve diverse dynamic clicking scenarios, such as Angleshot or Strafeshot, as well as reactive tracking scenarios like Axitrack that feature instant acceleration. Cover the most evasive and fast-paced scenarios, as they are optimal for training aiming for heroes such as Cassidy, Ashe, Widowmaker, Soldier 76, and Tracer.</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="inlineStr">
@@ -694,6 +723,11 @@
           <t>“What sensitivity should I use? ” is probably the most frequently asked question by beginners. By and large, most people will say that sensitivity is up to preference, but most people use somewhere between 20cm/360° to 50cm/360°. This is not a hard rule, but most people’s ideal sensitivity lands within that range. Typically, you should prefer slower sensitivities for games that are more “flick” reliant, like CSGO or Valorant, and higher sensitivities for games that require more tracking or verticality, such as Overwatch or Fortnite. Feel free to experiment with different sensitivities often and find what works for you.</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There is no optimal sensitivity for aim training, and sensitivity is completely up to preference and what suits you best depending on the scenario. The usable range of sensitivities is between 20cm/360 and 90cm/360. Experiment and find something that falls within that range. </t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="inlineStr">
@@ -709,6 +743,11 @@
       <c r="C12" t="inlineStr">
         <is>
           <t>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Static clicking scenarios are designed to train flicking technique by enforcing what is known as the Bardoz Method. This method is foundational within aim training. It involves a direct initial flick that is rigid, explosive, and fast into a micro correction that is a degree smoother and more controlled. Static clicking primes players for high accuracy in flick-oriented, low TTK games like VALORANT or CS. </t>
         </is>
       </c>
     </row>

--- a/ChatData.xlsx
+++ b/ChatData.xlsx
@@ -1,41 +1,215 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokni\Desktop\Online Learning\AimJourney\aimjourney\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38CDFF1-448F-41AC-9DAB-77F92FDC5008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Chat Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+  <si>
+    <t>User Prompt</t>
+  </si>
+  <si>
+    <t>AI Response</t>
+  </si>
+  <si>
+    <t>Generated Chunk</t>
+  </si>
+  <si>
+    <t>Ground Truth</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>What monitor should I be buying?</t>
+  </si>
+  <si>
+    <t>"For gaming and esports, a high refresh rate monitor is essential for smooth gameplay and aiming precision. Aim for at least a 144Hz monitor, but ideally go for a 240Hz monitor for the best performance. Brands like ASUS, BenQ, and Alienware offer great options in terms of refresh rate, response time, and color accuracy. Make sure to also consider factors like panel type (TN, IPS, or VA) based on your preferences for color reproduction and viewing angles. Ultimately, prioritize a high refresh rate for a competitive edge in aiming and gameplay."</t>
+  </si>
+  <si>
+    <t>Do not hesitate to start aim training out of fear that your setup is not good enough. However, there are ways to upgrade your setup, such that your experience with the aim trainer and improvement progress might be elevated. Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</t>
+  </si>
+  <si>
+    <t>For competitive gaming and esports, a high refresh rate monitor is preferred for smooth gameplay and strong aiming performance. Try to get at least 144hz if you take things seriously, although 240hz is the ideal. More serious aimers may even go to 360hz monitors. Also, you may want to consider looking into different panels, like TN, IPS, or OLED, based on your desired motion clarity and color vibrance. Such factors can be a competitive advantage.</t>
+  </si>
+  <si>
+    <t>What aimers have played on 60hz?</t>
+  </si>
+  <si>
+    <t>"Players like eloevv and Mana have achieved impressive results in esports while using 60hz monitors. It goes to show that while having higher refresh rate monitors and top-notch equipment can be beneficial, it's not a strict requirement to excel in aiming and competitive gaming. Consistent practice, dedication, and skill are vital elements for success regardless of the hardware limitations."</t>
+  </si>
+  <si>
+    <t>Many aimers have likely played or started by playing on 60hz, but upgraded in the future. Famously, eloevv and Mana are two aimers that have consistently performed on 60hz, achieving tracking and dynamic scores in the Nova ranks. This simply goes to show how far dedication and focused practice can take you, even without the ideal gear.</t>
+  </si>
+  <si>
+    <t>What is the Bardoz Method or Bardpill meaning in static clicking in aim trainers?</t>
+  </si>
+  <si>
+    <t>"The Bardoz Method or Bardpill is a technique popularized in aim training communities, particularly in the context of static clicking scenarios. It involves utilizing a specific method of aiming that emphasizes consistency and precision. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players' flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator or popularizer in the community."</t>
+  </si>
+  <si>
+    <t>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct. This baseline process of initial flick into micro correction into shot confirmation is known as the Bardoz Method, coined after the former best static clicking player, Bardoz. The Bardoz Method, when performed correctly, is the current best way to maximize static clicking scenario scores and is a foundational technique for all forms of flicking-oriented aiming. The initial flick is usually expected to land at some offset difference before the target, the micro correction corrects this offset, and the shot confirmation is a brief visual check to ensure that you will land your shot. The method encourages high accuracy. Advanced levels of static clicking force the player to maintain dynamic pacing, which means that players must vary their frequency of shots depending on the spawns or the positioning of the targets on screen. Increasing pacing to eliminate nearby targets faster can be referred to as cluster farming. It often requires the player to suspend the tension in their arm and focus on being extra smooth with their wrist and fingertips. Static clicking also pushes players to develop what is known as fluidity. Fluidity holds that the time it takes to complete a micro correction and target confirmation on each target should be at a minimum. Players need to be fluid in order to reach much higher pacing on clicking scenarios and get through more targets.</t>
+  </si>
+  <si>
+    <t>The Bardoz and Bardpill methods are used in static clicking aim training scenarios. It emphasizes consistency and accuracy over raw speed. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players' flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator, Bardoz, one of the greatest players in static clicking history.</t>
+  </si>
+  <si>
+    <t>What static clicking scenarios are available in Kovaak's?</t>
+  </si>
+  <si>
+    <t>"In Kovaak's FPS Aim Trainer, some popular static clicking scenarios that focus on improving flicking techniques and high accuracy thresholds include 1wall6targets_small, 1wall4targets, 1wall3targets, ww3targets, Wide Wall 4 targets, Fourshot, and Threeshot. These scenarios help players familiarize themselves with basic flicking techniques by requiring them to quickly and accurately target stationary objects. By practicing these scenarios, players can develop the initial flick to each target to be fast, rigid, and explosive, while also honing their micro-correction skills to be smooth, narrow, and succinct."</t>
+  </si>
+  <si>
+    <t>Some popular static clicking scenarios in Kovaak's include 1wall6targets_small, 1wall4targets, ww3t, Wide Wall 4 Targets, Fourshot, Threeshot, and 1w2ts. These basic static clicking scenarios place a focus on improving foundational flicking technique.</t>
+  </si>
+  <si>
+    <t>What mouse should we be using in aim training?</t>
+  </si>
+  <si>
+    <t>"When it comes to choosing a mouse for aim training and esports, it's important to consider factors like sensor quality, DPI settings, weight, and shape. Popular options among professional players include models like the Logitech G Pro Wireless, Zowie EC2, and Finalmouse Ultralight 2. These mice are known for their precise sensors, lightweight design, and ergonomic shapes that cater to different grip styles._x000D__x000D_
+_x000D__x000D_
+Ultimately, the best mouse for aim training is one that feels comfortable in your hand, offers customizable settings to suit your preferences, and provides accurate tracking for precise aiming. It's also beneficial to pair your mouse with a quality mousepad that complements your playstyle, whether you prefer a speed or control surface._x000D__x000D_
+_x000D__x000D_
+Experimenting with different mice and"</t>
+  </si>
+  <si>
+    <t>The Precise Tracking scenarios are useful in Overwatch because they improve reading skills, as well as reactivity and reacquisition on blinking or dashing targets. They are useful for Soldier 76 and Tracer as most targets will be moving erratically and constantly changing directions which you need to react to in order to track them again. They also help building important tracking fundamentals, which includes underaiming (tracking to the closer edge of the target), tracking in one smooth motion instead of multiple micro-jitters and smooth reacquisitions when a target changes directions, blinks or dashes. In Precise Tracking scenarios, you should hold down fire during the entire duration of the scenario. Move your mouse in one steady motion while matching the target’s speed, and try to avoid any inefficiencies and jitter.</t>
+  </si>
+  <si>
+    <t>There is no such thing as a "best" mouse to be used for aiming. It will vary greatly across different shapes, weights, and internal specs. Some popular options from top aimers include Gwolves mice, Pulsar mice, and the ever-notable Logitech G Pro Superlight. If you do not know what shape you prefer for your grip style, you should look to experiment.</t>
+  </si>
+  <si>
+    <t>What monitors are available that are best for FPS?</t>
+  </si>
+  <si>
+    <t>"For FPS gaming, it's recommended to look for monitors with high refresh rates like 144Hz or ideally 240Hz for the smoothest gameplay experience. Some popular options among professional FPS players include monitors from brands like ASUS, BenQ, Alienware, and Zowie. Models such as the ASUS ROG Swift PG258Q, BenQ Zowie XL2540, Alienware AW2518H, and Zowie XL2546 are commonly praised for their fast response times and smooth performance in FPS games. Be sure to also consider factors like panel type (TN for faster response or IPS for better colors), resolution, and input lag when choosing the best monitor for your FPS gaming needs."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For FPS, you most likely want a monitor that supports a high refresh rate, ideally at or above 144hz. The most popular brands at the time of writing are ASUS and Zowie monitors, which are used in FPS esports events. These all run at 240hz or more. </t>
+  </si>
+  <si>
+    <t>What aim training software is the best?</t>
+  </si>
+  <si>
+    <t>"There are several popular aim training software options that many gamers and esports professionals use to improve their aiming skills. Some of the most well-known programs include Aim Lab, Kovaak's FPS Aim Trainer, and Aimtastic. These platforms offer various exercises and scenarios to help players enhance their aiming abilities through consistent practice and feedback. Ultimately, the best aim training software for you may depend on your personal preferences, the games you play, and the specific skills you want to focus on improving. It's recommended to try out different programs to see which one aligns best with your training goals and playstyle."</t>
+  </si>
+  <si>
+    <t>Of the three major aim trainers we have to choose from- Aimlabs, Kovaak's, and Aimbeast, the best one is up to what your goals are within aim training and your perceived experience level. Aimlabs is very beginner-friendly and supports all of the different aiming subcategories, but lacks some of the technical depth offered by its alternatives. Aimbeast has the most technical depth and is the most well-optimized trainer of the three. However, it is not beginner-friendly in the slightest. Kovaak's is the middle ground that most top aimers prefer, and it has the most scenario variety.</t>
+  </si>
+  <si>
+    <t>Why is muscle memory considered a misnomer in aiming?</t>
+  </si>
+  <si>
+    <t>"Muscle memory is often associated with repetitive movements that become automatic over time. While aim training can help improve muscle memory for precise aiming, it is a bit of a misnomer when it comes to aiming in esports. Aiming in gaming involves dynamic situations with constantly changing variables such as movement, positioning, and decision-making, rather than just repeating the same physical motion. Therefore, while muscle memory can contribute to more consistent aiming, it is not the only factor in mastering aiming skills in esports, where game sense, positioning, and decision-making play crucial roles."</t>
+  </si>
+  <si>
+    <t>Muscle memory is a misnomer in aiming. The term “muscle memory” when used improperly suggests that you should stick to a specific sensitivity across all situations to preserve consistency, and changing your sensitivity would ruin your muscle memory. This is a very simplified and inaccurate understanding of motor memory, an important idea in neuroscience. Because aiming has little to no formal research, it is best not to worry about muscle/motor memory, even when discussed as a proper neuroscience concept, as its role in aiming is not well understood. Enough skilled players have shown over time and through experience that it is okay to change your sensitivity, and it is okay to use different sensitivities for different games. You can further enrich your aim training experience by using a sensitivity randomizer or RawAccel. If you would like to read more information about the matter, please view the Voltaic article on Why ‘Muscle memory’ is seen as a meme in aiming, and see VT Viscose’s video on RawAccel.</t>
+  </si>
+  <si>
+    <t>Muscle memory is considered is misnomer in aiming because it used frequently to suggest that changing sensitivity or other mechanical factors will ruin the consistency in your aim. This is untrue, and muscle memory is a very simplified and innacurate understanding of motor memory, which is an important idea in neuroscience. Instead, you should feel free to make changes to your setup or settings, as it should not have a significant impact on your performance long-term.</t>
+  </si>
+  <si>
+    <t>What aim training should I be doing for Overwatch?</t>
+  </si>
+  <si>
+    <t>"For Overwatch, aim training should focus on a combination of tracking and flick shots, as the game requires a mix of both skills depending on the hero you are playing. Here are some aim training routines that can benefit Overwatch players:_x000D_
+_x000D_
+1. **Tracking Aim**: Use aim training scenarios that involve tracking moving targets smoothly. This will help improve your aim with heroes like Soldier: 76, Zarya, and Tracer._x000D_
+_x000D_
+2. **Flick Aim**: Practice scenarios that require quick and precise flick shots to improve your aim with heroes like Widowmaker, McCree, and Ana._x000D_
+_x000D_
+3. **Vertical Aim**: Since Overwatch has a lot of verticality, practice aiming both horizontally and vertically to be able to track and hit targets in all dimensions._x000D_
+_x000D_
+4."</t>
+  </si>
+  <si>
+    <t>The Static Clicking scenarios are useful in Overwatch because they improve timing of clicks, speed, efficiency of motion, micro-corrections, precision and target acquisition with a high emphasis on efficiency. They are useful for Widowmaker, Ashe and Cassidy (click-type weapons) because they help you make more consistent and efficient flicks and micro-corrections. Do your best to keep clean lines on your initial flicks and follow them up with micro-corrections that land directly on the bot. If either your accuracy or speed is holding you back, adjust your practice to account for this.</t>
+  </si>
+  <si>
+    <t>Aim training for Overwatch should involve diverse dynamic clicking scenarios, such as Angleshot or Strafeshot, as well as reactive tracking scenarios like Axitrack that feature instant acceleration. Cover the most evasive and fast-paced scenarios, as they are optimal for training aiming for heroes such as Cassidy, Ashe, Widowmaker, Soldier 76, and Tracer.</t>
+  </si>
+  <si>
+    <t>What is the optimal sensitivity for aiming?</t>
+  </si>
+  <si>
+    <t>"The optimal sensitivity for aiming varies from player to player based on personal preference, playstyle, and the game being played. As mentioned in the text, most players tend to use sensitivities ranging from 20cm/360� to 50cm/360�. However, the key is to find a sensitivity that allows you to be accurate and consistent in your aiming. _x000D_
+_x000D_
+For games that require precise flick shots like CSGO or Valorant, lower sensitivities are generally preferred as they offer more control. On the other hand, games that require quick tracking and vertical aiming like Overwatch or Fortnite might benefit from slightly higher sensitivities to allow for faster movements._x000D_
+_x000D_
+It's essential to experiment with different sensitivities to find what feels comfortable and effective for you"</t>
+  </si>
+  <si>
+    <t>An advanced Kovaaks routine to help your aim in CS/Counter Strike or Valorant involves playing voxTS Voltaic, Pokeball Frenzy Auto 1w2ts, Pokeball auto ww6t, 1w2ts reload, 5 sphere hipfire extra small, 6wall18targets small reload, Floating Heads Timing 400%, Smoothbot Invincible Goated, Centering I, Pistol Strafe Gallery Small, and Reflex Micro++ Flick Reload Small. Most scenarios will be played on two different sensitivities because learning to control your mouse at higher sensitivities is always beneficial, but if you only practice at a higher sensitivity you might not perform at your best in game. Switching between the two sensitivities (your valorant sens, and twice your valorant sens) is a useful middle ground to leverage in your training. If your VALORANT sens is already high (under 35cm/360°), go 1. 5x or 1. 2x your VALORANT sens. Don’t get to the point where you are using sub 15cm/360°, because that might hurt your wrist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no optimal sensitivity for aim training, and sensitivity is completely up to preference and what suits you best depending on the scenario. The usable range of sensitivities is between 20cm/360 and 90cm/360. Experiment and find something that falls within that range. </t>
+  </si>
+  <si>
+    <t>What is static clicking meant to train for?</t>
+  </si>
+  <si>
+    <t>"Static clicking scenarios are designed to train players in developing their basic flicking techniques and improving their accuracy. These scenarios help players familiarize themselves with the initial flick to each stationary target, emphasizing speed, precision, and explosiveness. By hitting high accuracy thresholds, players can enhance their ability to quickly and accurately flick to targets in a controlled and efficient manner. Static clicking also helps in honing the balance between fast initial movements and smooth micro corrections, which are crucial skills for various esports games that require precise aim and quick reactions."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static clicking scenarios are designed to train flicking technique by enforcing what is known as the Bardoz Method. This method is foundational within aim training. It involves a direct initial flick that is rigid, explosive, and fast into a micro correction that is a degree smoother and more controlled. Static clicking primes players for high accuracy in flick-oriented, low TTK games like VALORANT or CS. </t>
+  </si>
+  <si>
+    <t>What does Viscose say about the optimal FOV to use?</t>
+  </si>
+  <si>
+    <t>"VT Viscose suggests that an optimal Field of View (FOV) to use for aiming is around 103 to 110. This FOV range is considered to strike a good balance between being able to see more of the game environment while maintaining a comfortable level of zoom for aiming precision. However, the optimal FOV can vary depending on personal preference and the specific game being played, so it's essential to experiment and find what works best for you."</t>
+  </si>
+  <si>
+    <t>What is muscle memory in aiming?</t>
+  </si>
+  <si>
+    <t>"Muscle memory in aiming refers to the ability of your muscles to remember and repeat specific movements efficiently and accurately. When you consistently practice your aiming techniques, your muscles learn the movements and positions needed to perform well. Over time, muscle memory helps you develop a more consistent and precise aiming ability, allowing you to react quickly and effectively during gameplay. By training your muscles through repetition and practice, you can enhance your muscle memory and improve your aiming skills in esports or any other activities that require precise coordination and movement."</t>
+  </si>
+  <si>
+    <t>What do I exercise for my wrist health?</t>
+  </si>
+  <si>
+    <t>"For wrist health, it is important to focus on strengthening exercises to prevent injuries. Some exercises you can consider to improve wrist strength and mobility include:
+1. Wrist Curls: Hold a light dumbbell in your hand with your palm facing up, then slowly curl your wrist upward and downward.
+2. Reverse Wrist Curls: Similar to wrist curls, but with your palm facing down.
+3. Wrist Rotations: Hold a light weight and rotate your wrist in a circular motion, both clockwise and counterclockwise.
+4. Finger Extensions: Use a rubber band around your fingers and open your hand against the resistance.
+5. Wrist Flexor Stretch: Extend your arm in front of you, palm facing down, and gently press"</t>
+  </si>
+  <si>
+    <t>Health science plays a major role in esports, especially in the intensity of FPS games, which can ask a lot out of us in terms of tension, arm and wrist mobility, and repetitive motion. It is recommended by this app for all wrist health-related issues, injury-prevention measures, and posture recommendations, that users seek out 1HP Health at www. 1-hp. org. Tendinopathy in the wrist is the most common injury among FPS esports players, often presenting itself with pain and weakness in or around the wrist. Strengthening and load management are the preferred treatment methods. Endurance strengthening may take the form of doing simple wrist flexor weight-lifting with dumbbells. Try to see your wrist endurance as an HP bar, where heavier loads, or intense gaming sessions, can cause your HP to decrease. The key approach is to try and increase the size of your HP bar, thus allowing you to play for longer periods of time. In this sense, basic stretching exercises may not be enough on their own to alleviate symptoms of weakness or pain. You must directly work on strengthening the muscles and tendons in your hand. It will take time to build up muscle strength. On average, it may take 4-6 weeks of consistent work to make a change in tissue strength. Improvements in neuromuscular efficiency may make you feel stronger, but tissue adaptation takes longer. It is reasonable to expect some pain flare-ups during your exercise periods. Also understand that everyone’s pain is different, and some people may have an increased tolerance for pain during gaming or other activities. Healing durations also vary person per person. Nonetheless, pain that is sharp or concerning should be an indicator of something that needs work. Famous aim trainers like Madbadman and AoD have played through periods of pain, and it has led them to take extended hiatuses away from play. It may have also shortened their esports careers, having exacerbated the issues that they were feeling initially. Do not risk it. If you feel pain that is around 3-5/10 in severity at minimum, get it checked out. 1HP Health specializes in health science centered around esports players. They have many resources and work entirely remote, meaning you can receive premium healthcare in the comfort of your home.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +239,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,220 +578,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D17:D18"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>User Prompt</v>
-      </c>
-      <c r="B1" t="str">
-        <v>AI Response</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Generated Chunk</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Ground Truth</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TP</v>
-      </c>
-      <c r="F1" t="str">
-        <v>FP</v>
-      </c>
-      <c r="G1" t="str">
-        <v>FN</v>
-      </c>
-      <c r="H1" t="str">
-        <v>F1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>What monitor should I be buying?</v>
-      </c>
-      <c r="B2" t="str">
-        <v>"For gaming and esports, a high refresh rate monitor is essential for smooth gameplay and aiming precision. Aim for at least a 144Hz monitor, but ideally go for a 240Hz monitor for the best performance. Brands like ASUS, BenQ, and Alienware offer great options in terms of refresh rate, response time, and color accuracy. Make sure to also consider factors like panel type (TN, IPS, or VA) based on your preferences for color reproduction and viewing angles. Ultimately, prioritize a high refresh rate for a competitive edge in aiming and gameplay."</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</v>
-      </c>
-      <c r="D2" t="str">
-        <v>For competitive gaming and esports, a high refresh rate monitor is preferred for smooth gameplay and strong aiming performance. Try to get at least 144hz if you take things seriously, although 240hz is the ideal. More serious aimers may even go to 360hz monitors. Also, you may want to consider looking into different panels, like TN, IPS, or OLED, based on your desired motion clarity and color vibrance. Such factors can be a competitive advantage.</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>What aimers have played on 60hz?</v>
-      </c>
-      <c r="B3" t="str">
-        <v>"Players like eloevv and Mana have achieved impressive results in esports while using 60hz monitors. It goes to show that while having higher refresh rate monitors and top-notch equipment can be beneficial, it's not a strict requirement to excel in aiming and competitive gaming. Consistent practice, dedication, and skill are vital elements for success regardless of the hardware limitations."</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Many aimers have likely played or started by playing on 60hz, but upgraded in the future. Famously, eloevv and Mana are two aimers that have consistently performed on 60hz, achieving tracking and dynamic scores in the Nova ranks. This simply goes to show how far dedication and focused practice can take you, even without the ideal gear.</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>What is the Bardoz Method or Bardpill meaning in static clicking in aim trainers?</v>
-      </c>
-      <c r="B4" t="str">
-        <v>"The Bardoz Method or Bardpill is a technique popularized in aim training communities, particularly in the context of static clicking scenarios. It involves utilizing a specific method of aiming that emphasizes consistency and precision. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players' flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator or popularizer in the community."</v>
-      </c>
-      <c r="C4" t="str">
-        <v>This baseline process of initial flick into micro correction into shot confirmation is known as the Bardoz Method, coined after the former best static clicking player, Bardoz. The Bardoz Method, when performed correctly, is the current best way to maximize static clicking scenario scores and is a foundational technique for all forms of flicking-oriented aiming. The initial flick is usually expected to land at some offset difference before the target, the micro correction corrects this offset, and the shot confirmation is a brief visual check to ensure that you will land your shot. The method encourages high accuracy.</v>
-      </c>
-      <c r="D4" t="str">
-        <v>The Bardoz and Bardpill methods are used in static clicking aim training scenarios. It emphasizes consistency and accuracy over raw speed. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players' flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator, Bardoz, one of the greatest players in static clicking history.</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>What static clicking scenarios are available in Kovaak's?</v>
-      </c>
-      <c r="B5" t="str">
-        <v>"In Kovaak's FPS Aim Trainer, some popular static clicking scenarios that focus on improving flicking techniques and high accuracy thresholds include 1wall6targets_small, 1wall4targets, 1wall3targets, ww3targets, Wide Wall 4 targets, Fourshot, and Threeshot. These scenarios help players familiarize themselves with basic flicking techniques by requiring them to quickly and accurately target stationary objects. By practicing these scenarios, players can develop the initial flick to each target to be fast, rigid, and explosive, while also honing their micro-correction skills to be smooth, narrow, and succinct."</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct.</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Some popular static clicking scenarios in Kovaak's include 1wall6targets_small, 1wall4targets, ww3t, Wide Wall 4 Targets, Fourshot, Threeshot, and 1w2ts. These basic static clicking scenarios place a focus on improving foundational flicking technique.</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>What mouse should we be using in aim training?</v>
-      </c>
-      <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">"When it comes to choosing a mouse for aim training and esports, it's important to consider factors like sensor quality, DPI settings, weight, and shape. Popular options among professional players include models like the Logitech G Pro Wireless, Zowie EC2, and Finalmouse Ultralight 2. These mice are known for their precise sensors, lightweight design, and ergonomic shapes that cater to different grip styles._x000d__x000d_
-_x000d__x000d_
-Ultimately, the best mouse for aim training is one that feels comfortable in your hand, offers customizable settings to suit your preferences, and provides accurate tracking for precise aiming. It's also beneficial to pair your mouse with a quality mousepad that complements your playstyle, whether you prefer a speed or control surface._x000d__x000d_
-_x000d__x000d_
-Experimenting with different mice and"</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</v>
-      </c>
-      <c r="D6" t="str">
-        <v>There is no such thing as a "best" mouse to be used for aiming. It will vary greatly across different shapes, weights, and internal specs. Some popular options from top aimers include Gwolves mice, Pulsar mice, and the ever-notable Logitech G Pro Superlight. If you do not know what shape you prefer for your grip style, you should look to experiment.</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>What monitors are available that are best for FPS?</v>
-      </c>
-      <c r="B7" t="str">
-        <v>"For FPS gaming, it's recommended to look for monitors with high refresh rates like 144Hz or ideally 240Hz for the smoothest gameplay experience. Some popular options among professional FPS players include monitors from brands like ASUS, BenQ, Alienware, and Zowie. Models such as the ASUS ROG Swift PG258Q, BenQ Zowie XL2540, Alienware AW2518H, and Zowie XL2546 are commonly praised for their fast response times and smooth performance in FPS games. Be sure to also consider factors like panel type (TN for faster response or IPS for better colors), resolution, and input lag when choosing the best monitor for your FPS gaming needs."</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</v>
-      </c>
-      <c r="D7" t="str">
-        <v xml:space="preserve">For FPS, you most likely want a monitor that supports a high refresh rate, ideally at or above 144hz. The most popular brands at the time of writing are ASUS and Zowie monitors, which are used in FPS esports events. These all run at 240hz or more. </v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>What aim training software is the best?</v>
-      </c>
-      <c r="B8" t="str">
-        <v>"There are several popular aim training software options that many gamers and esports professionals use to improve their aiming skills. Some of the most well-known programs include Aim Lab, Kovaak's FPS Aim Trainer, and Aimtastic. These platforms offer various exercises and scenarios to help players enhance their aiming abilities through consistent practice and feedback. Ultimately, the best aim training software for you may depend on your personal preferences, the games you play, and the specific skills you want to focus on improving. It's recommended to try out different programs to see which one aligns best with your training goals and playstyle."</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Muscle memory is a misnomer in aiming. The term “muscle memory” when used improperly suggests that you should stick to a specific sensitivity across all situations to preserve consistency, and changing your sensitivity would ruin your muscle memory. This is a very simplified and inaccurate understanding of motor memory, an important idea in neuroscience. Because aiming has little to no formal research, it is best not to worry about muscle/motor memory, even when discussed as a proper neuroscience concept, as its role in aiming is not well understood.</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Of the three major aim trainers we have to choose from- Aimlabs, Kovaak's, and Aimbeast, the best one is up to what your goals are within aim training and your perceived experience level. Aimlabs is very beginner-friendly and supports all of the different aiming subcategories, but lacks some of the technical depth offered by its alternatives. Aimbeast has the most technical depth and is the most well-optimized trainer of the three. However, it is not beginner-friendly in the slightest. Kovaak's is the middle ground that most top aimers prefer, and it has the most scenario variety.</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Why is muscle memory considered a misnomer in aiming?</v>
-      </c>
-      <c r="B9" t="str">
-        <v>"Muscle memory is often associated with repetitive movements that become automatic over time. While aim training can help improve muscle memory for precise aiming, it is a bit of a misnomer when it comes to aiming in esports. Aiming in gaming involves dynamic situations with constantly changing variables such as movement, positioning, and decision-making, rather than just repeating the same physical motion. Therefore, while muscle memory can contribute to more consistent aiming, it is not the only factor in mastering aiming skills in esports, where game sense, positioning, and decision-making play crucial roles."</v>
-      </c>
-      <c r="C9" t="str">
-        <v>The aim trainer will not help you have better positioning in game or stronger game sense that would influence decision-making skills. Essentially, aim training will NOT help you to improve at anything that can be considered a part of game-specific knowledge or mechanics that are not aim-related.</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Muscle memory is considered is misnomer in aiming because it used frequently to suggest that changing sensitivity or other mechanical factors will ruin the consistency in your aim. This is untrue, and muscle memory is a very simplified and innacurate understanding of motor memory, which is an important idea in neuroscience. Instead, you should feel free to make changes to your setup or settings, as it should not have a significant impact on your performance long-term.</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
-        <v>What aim training should I be doing for Overwatch?</v>
-      </c>
-      <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">"For Overwatch, aim training should focus on a combination of tracking and flick shots, as the game requires a mix of both skills depending on the hero you are playing. Here are some aim training routines that can benefit Overwatch players:_x000d_
-_x000d_
-1. **Tracking Aim**: Use aim training scenarios that involve tracking moving targets smoothly. This will help improve your aim with heroes like Soldier: 76, Zarya, and Tracer._x000d_
-_x000d_
-2. **Flick Aim**: Practice scenarios that require quick and precise flick shots to improve your aim with heroes like Widowmaker, McCree, and Ana._x000d_
-_x000d_
-3. **Vertical Aim**: Since Overwatch has a lot of verticality, practice aiming both horizontally and vertically to be able to track and hit targets in all dimensions._x000d_
-_x000d_
-4."</v>
-      </c>
-      <c r="C10" t="str">
-        <v>“What sensitivity should I use? ” is probably the most frequently asked question by beginners. By and large, most people will say that sensitivity is up to preference, but most people use somewhere between 20cm/360° to 50cm/360°. This is not a hard rule, but most people’s ideal sensitivity lands within that range. Typically, you should prefer slower sensitivities for games that are more “flick” reliant, like CSGO or Valorant, and higher sensitivities for games that require more tracking or verticality, such as Overwatch or Fortnite. Feel free to experiment with different sensitivities often and find what works for you.</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Aim training for Overwatch should involve diverse dynamic clicking scenarios, such as Angleshot or Strafeshot, as well as reactive tracking scenarios like Axitrack that feature instant acceleration. Cover the most evasive and fast-paced scenarios, as they are optimal for training aiming for heroes such as Cassidy, Ashe, Widowmaker, Soldier 76, and Tracer.</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
-        <v>What is the optimal sensitivity for aiming?</v>
-      </c>
-      <c r="B11" t="str" xml:space="preserve">
-        <v xml:space="preserve">"The optimal sensitivity for aiming varies from player to player based on personal preference, playstyle, and the game being played. As mentioned in the text, most players tend to use sensitivities ranging from 20cm/360� to 50cm/360�. However, the key is to find a sensitivity that allows you to be accurate and consistent in your aiming. _x000d_
-_x000d_
-For games that require precise flick shots like CSGO or Valorant, lower sensitivities are generally preferred as they offer more control. On the other hand, games that require quick tracking and vertical aiming like Overwatch or Fortnite might benefit from slightly higher sensitivities to allow for faster movements._x000d_
-_x000d_
-It's essential to experiment with different sensitivities to find what feels comfortable and effective for you"</v>
-      </c>
-      <c r="C11" t="str">
-        <v>“What sensitivity should I use? ” is probably the most frequently asked question by beginners. By and large, most people will say that sensitivity is up to preference, but most people use somewhere between 20cm/360° to 50cm/360°. This is not a hard rule, but most people’s ideal sensitivity lands within that range. Typically, you should prefer slower sensitivities for games that are more “flick” reliant, like CSGO or Valorant, and higher sensitivities for games that require more tracking or verticality, such as Overwatch or Fortnite. Feel free to experiment with different sensitivities often and find what works for you.</v>
-      </c>
-      <c r="D11" t="str">
-        <v xml:space="preserve">There is no optimal sensitivity for aim training, and sensitivity is completely up to preference and what suits you best depending on the scenario. The usable range of sensitivities is between 20cm/360 and 90cm/360. Experiment and find something that falls within that range. </v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>What is static clicking meant to train for?</v>
-      </c>
-      <c r="B12" t="str">
-        <v>"Static clicking scenarios are designed to train players in developing their basic flicking techniques and improving their accuracy. These scenarios help players familiarize themselves with the initial flick to each stationary target, emphasizing speed, precision, and explosiveness. By hitting high accuracy thresholds, players can enhance their ability to quickly and accurately flick to targets in a controlled and efficient manner. Static clicking also helps in honing the balance between fast initial movements and smooth micro corrections, which are crucial skills for various esports games that require precise aim and quick reactions."</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct.</v>
-      </c>
-      <c r="D12" t="str">
-        <v xml:space="preserve">Static clicking scenarios are designed to train flicking technique by enforcing what is known as the Bardoz Method. This method is foundational within aim training. It involves a direct initial flick that is rigid, explosive, and fast into a micro correction that is a degree smoother and more controlled. Static clicking primes players for high accuracy in flick-oriented, low TTK games like VALORANT or CS. </v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>What does Viscose say about the optimal FOV to use?</v>
-      </c>
-      <c r="B13" t="str">
-        <v>"VT Viscose suggests that an optimal Field of View (FOV) to use for aiming is around 103 to 110. This FOV range is considered to strike a good balance between being able to see more of the game environment while maintaining a comfortable level of zoom for aiming precision. However, the optimal FOV can vary depending on personal preference and the specific game being played, so it's essential to experiment and find what works best for you."</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/ChatData.xlsx
+++ b/ChatData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -489,10 +489,10 @@
         <v>What mouse should we be using in aim training?</v>
       </c>
       <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">"When it comes to choosing a mouse for aim training and esports, it&amp;apos;s important to consider factors like sensor quality, DPI settings, weight, and shape. Popular options among professional players include models like the Logitech G Pro Wireless, Zowie EC2, and Finalmouse Ultralight 2. These mice are known for their precise sensors, lightweight design, and ergonomic shapes that cater to different grip styles._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-Ultimately, the best mouse for aim training is one that feels comfortable in your hand, offers customizable settings to suit your preferences, and provides accurate tracking for precise aiming. It&amp;apos;s also beneficial to pair your mouse with a quality mousepad that complements your playstyle, whether you prefer a speed or control surface._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+        <v xml:space="preserve">"When it comes to choosing a mouse for aim training and esports, it&amp;apos;s important to consider factors like sensor quality, DPI settings, weight, and shape. Popular options among professional players include models like the Logitech G Pro Wireless, Zowie EC2, and Finalmouse Ultralight 2. These mice are known for their precise sensors, lightweight design, and ergonomic shapes that cater to different grip styles._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+Ultimately, the best mouse for aim training is one that feels comfortable in your hand, offers customizable settings to suit your preferences, and provides accurate tracking for precise aiming. It&amp;apos;s also beneficial to pair your mouse with a quality mousepad that complements your playstyle, whether you prefer a speed or control surface._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 Experimenting with different mice and"</v>
       </c>
       <c r="C6" t="str">
@@ -549,14 +549,14 @@
         <v>What aim training should I be doing for Overwatch?</v>
       </c>
       <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">"For Overwatch, aim training should focus on a combination of tracking and flick shots, as the game requires a mix of both skills depending on the hero you are playing. Here are some aim training routines that can benefit Overwatch players:_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-1. **Tracking Aim**: Use aim training scenarios that involve tracking moving targets smoothly. This will help improve your aim with heroes like Soldier: 76, Zarya, and Tracer._x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-2. **Flick Aim**: Practice scenarios that require quick and precise flick shots to improve your aim with heroes like Widowmaker, McCree, and Ana._x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-3. **Vertical Aim**: Since Overwatch has a lot of verticality, practice aiming both horizontally and vertically to be able to track and hit targets in all dimensions._x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+        <v xml:space="preserve">"For Overwatch, aim training should focus on a combination of tracking and flick shots, as the game requires a mix of both skills depending on the hero you are playing. Here are some aim training routines that can benefit Overwatch players:_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+1. **Tracking Aim**: Use aim training scenarios that involve tracking moving targets smoothly. This will help improve your aim with heroes like Soldier: 76, Zarya, and Tracer._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+2. **Flick Aim**: Practice scenarios that require quick and precise flick shots to improve your aim with heroes like Widowmaker, McCree, and Ana._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+3. **Vertical Aim**: Since Overwatch has a lot of verticality, practice aiming both horizontally and vertically to be able to track and hit targets in all dimensions._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 4."</v>
       </c>
       <c r="C10" t="str">
@@ -571,10 +571,10 @@
         <v>What is the optimal sensitivity for aiming?</v>
       </c>
       <c r="B11" t="str" xml:space="preserve">
-        <v xml:space="preserve">"The optimal sensitivity for aiming varies from player to player based on personal preference, playstyle, and the game being played. As mentioned in the text, most players tend to use sensitivities ranging from 20cm/360� to 50cm/360�. However, the key is to find a sensitivity that allows you to be accurate and consistent in your aiming. _x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-For games that require precise flick shots like CSGO or Valorant, lower sensitivities are generally preferred as they offer more control. On the other hand, games that require quick tracking and vertical aiming like Overwatch or Fortnite might benefit from slightly higher sensitivities to allow for faster movements._x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+        <v xml:space="preserve">"The optimal sensitivity for aiming varies from player to player based on personal preference, playstyle, and the game being played. As mentioned in the text, most players tend to use sensitivities ranging from 20cm/360� to 50cm/360�. However, the key is to find a sensitivity that allows you to be accurate and consistent in your aiming. _x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+For games that require precise flick shots like CSGO or Valorant, lower sensitivities are generally preferred as they offer more control. On the other hand, games that require quick tracking and vertical aiming like Overwatch or Fortnite might benefit from slightly higher sensitivities to allow for faster movements._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 It&amp;apos;s essential to experiment with different sensitivities to find what feels comfortable and effective for you"</v>
       </c>
       <c r="C11" t="str">
@@ -622,8 +622,8 @@
         <v>What do I exercise for my wrist health?</v>
       </c>
       <c r="B15" t="str" xml:space="preserve">
-        <v xml:space="preserve">"For wrist health, it is important to focus on strengthening exercises to prevent injuries such as tendinopathy, which is common among FPS esports players. You can start by doing wrist flexor weight-lifting exercises with dumbbells to build endurance and strength in your wrist muscles and tendons. Additionally, incorporating exercises that target wrist extension and rotation can help improve overall wrist mobility and stability._x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d_
+        <v xml:space="preserve">"For wrist health, it is important to focus on strengthening exercises to prevent injuries such as tendinopathy, which is common among FPS esports players. You can start by doing wrist flexor weight-lifting exercises with dumbbells to build endurance and strength in your wrist muscles and tendons. Additionally, incorporating exercises that target wrist extension and rotation can help improve overall wrist mobility and stability._x000d__x000d__x000d__x000d__x000d_
+_x000d__x000d__x000d__x000d__x000d_
 It is essential to gradually increase the intensity and duration of your exercises to avoid overloading your wrists. Remember that consistency is key, and it may take several weeks of consistent training to see improvements in muscle strength and endurance. However, if you experience sharp or concerning pain during or after exercising, it is important to stop and consult with a healthcare professional to avoid exacerbating"</v>
       </c>
     </row>
@@ -640,14 +640,14 @@
         <v>Why is it that some people improve at a much faster rate than others?</v>
       </c>
       <c r="B17" t="str" xml:space="preserve">
-        <v xml:space="preserve">"There are several factors that can contribute to why some people improve at a faster rate than others in esports or aim training. Some of these factors include:_x000d__x000d_
-_x000d__x000d_
-1. **Natural Talent**: Some individuals may have a natural aptitude for certain games or aiming skills, giving them an initial advantage when starting out._x000d__x000d_
-_x000d__x000d_
-2. **Experience**: Prior experience with gaming or similar activities can give players a head start in terms of understanding game mechanics, strategy, and developing hand-eye coordination._x000d__x000d_
-_x000d__x000d_
-3. **Practice Habits**: Consistent and focused practice can greatly accelerate skill development. Those who dedicate more time to deliberate practice tend to improve faster._x000d__x000d_
-_x000d__x000d_
+        <v xml:space="preserve">"There are several factors that can contribute to why some people improve at a faster rate than others in esports or aim training. Some of these factors include:_x000d__x000d__x000d_
+_x000d__x000d__x000d_
+1. **Natural Talent**: Some individuals may have a natural aptitude for certain games or aiming skills, giving them an initial advantage when starting out._x000d__x000d__x000d_
+_x000d__x000d__x000d_
+2. **Experience**: Prior experience with gaming or similar activities can give players a head start in terms of understanding game mechanics, strategy, and developing hand-eye coordination._x000d__x000d__x000d_
+_x000d__x000d__x000d_
+3. **Practice Habits**: Consistent and focused practice can greatly accelerate skill development. Those who dedicate more time to deliberate practice tend to improve faster._x000d__x000d__x000d_
+_x000d__x000d__x000d_
 4. **Mental Attitude**: A positive mindset, resilience in the face of setbacks, and a willingness to learn from mistakes"</v>
       </c>
     </row>
@@ -656,7 +656,8 @@
         <v>What is edge tracking, and where is edge tracking used the most?</v>
       </c>
       <c r="B18" t="str" xml:space="preserve">
-        <v xml:space="preserve">"Edge tracking is a technique used in aim training to improve precision and control by deliberately underaiming the target. By withholding tension in the wrist and performing a smoother reaction, edge tracking allows the player to have a bit more time on target, leading to more accurate shots. This technique is particularly useful in scenarios that involve reactive tracking, where quick yet controlled reactions are necessary to hit fast-moving targets.
+        <v xml:space="preserve">"Edge tracking is a technique used in aim training to improve precision and control by deliberately underaiming the target. By withholding tension in the wrist and performing a smoother reaction, edge tracking allows the player to have a bit more time on target, leading to more accurate shots. This technique is particularly useful in scenarios that involve reactive tracking, where quick yet controlled reactions are necessary to hit fast-moving targets._x000d_
+_x000d_
 Edge tracking is commonly used in aim training scenarios that focus on improving reactive tracking skills, such as in scenarios like Air, Ground Plaza, and Fuglaa variants in aim training platforms like Kovaak&amp;apos;s. These scenarios require players to react swiftly to moving targets while maintaining smoothness and stability in their aim adjustments. By incorporating edge tracking into their practice"</v>
       </c>
     </row>
@@ -665,16 +666,156 @@
         <v>How do I trust and commit to target direction changes?</v>
       </c>
       <c r="B19" t="str" xml:space="preserve">
-        <v xml:space="preserve">"Trusting and committing to target direction changes in target switching requires a combination of prediction, practice, and muscle memory. Here are some tips to help you improve in this area:
-1. **Prediction and Anticipation**: By understanding movement patterns and anticipating where the target is likely to go next, you can preemptively adjust your aim in that direction. This will help you to trust your initial flick and commit to following through with your tracking motion.
-2. **Practice and Repetition**: Consistent practice in scenarios that involve target switching will help you build muscle memory and improve your ability to trust your aim. The more you practice, the more confident you will become in your ability to hit moving targets.
+        <v xml:space="preserve">"Trusting and committing to target direction changes in target switching requires a combination of prediction, practice, and muscle memory. Here are some tips to help you improve in this area:_x000d_
+_x000d_
+1. **Prediction and Anticipation**: By understanding movement patterns and anticipating where the target is likely to go next, you can preemptively adjust your aim in that direction. This will help you to trust your initial flick and commit to following through with your tracking motion._x000d_
+_x000d_
+2. **Practice and Repetition**: Consistent practice in scenarios that involve target switching will help you build muscle memory and improve your ability to trust your aim. The more you practice, the more confident you will become in your ability to hit moving targets._x000d_
+_x000d_
 3. **Focus on Initial Flick Accuracy**:"</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>How do I fix overreactive habits and overreacting in general in tracking aim?</v>
+      </c>
+      <c r="B20" t="str" xml:space="preserve">
+        <v xml:space="preserve">"To address overreactive habits and improve tracking aim, it&amp;apos;s important to focus on developing better control and smoothness in your movements. Here are some tips to help you fix overreacting in tracking aim:
+1. **Practice Smooth Tracking**: Focus on tracking your target smoothly and predictively rather than reacting impulsively. Train yourself to follow the target&amp;apos;s movement methodically without jerky or sudden corrections.
+2. **Sensitivity Adjustment**: Consider adjusting your sensitivity settings to find a balance between being able to track smoothly and react quickly when needed. Experiment with different sensitivity levels to see what works best for you.
+3. **Crosshair Placement**: Pay attention to your crosshair placement and keep it close to the target while tracking. This will help reduce"</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>What mouse, mousepad, and skate combos work well or speed up improvement?</v>
+      </c>
+      <c r="B21" t="str" xml:space="preserve">
+        <v xml:space="preserve">"To enhance your tracking performance and speed up improvement, using the right mouse, mousepad, and skate combinations can make a significant difference. Here are some recommendations based on their impact on tracking aim:
+1. **Mouse**: 
+   - Look for a mouse that fits comfortably in your hand and allows for smooth and precise movements. Consider mice with a high-quality sensor for accurate tracking. Popular options for tracking include the Logitech G Pro Wireless, Zowie EC2 series, and Razer DeathAdder Elite.
+2. **Mousepad**:
+   - A good mousepad can provide a consistent surface for your mouse to glide on, crucial for maintaining smooth tracking. Opt for a larger mousepad to give yourself more space to move your mouse comfortably"</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Is there an optimal sensitivity to use for all games?</v>
+      </c>
+      <c r="B22" t="str">
+        <v>"There isn&amp;apos;t a one-size-fits-all optimal sensitivity for all games because the ideal sensitivity can vary based on individual preferences, playstyle, and the specific game being played. In general, a sensitivity that allows for precise aiming while still being comfortable and controllable is considered optimal. Players often experiment with different sensitivities to find what works best for them, and then practice to build muscle memory with that sensitivity. It&amp;apos;s important to find a sensitivity that provides a good balance between being able to make quick turns and precise adjustments. Remember that consistency and comfort are key factors when choosing a sensitivity that works well for you across different games."</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Why is it so hard to make micro adjustments?</v>
+      </c>
+      <c r="B23" t="str" xml:space="preserve">
+        <v xml:space="preserve">"Making precise micro adjustments in tracking can be challenging due to the intricate balance required between maintaining a steady hand to keep the crosshair on target and making small adjustments to correct your aim. Factors such as muscle tension, hand-eye coordination, and reaction speed all play a role in executing successful micro adjustments. 
+Moreover, the pressure to react quickly in fast-paced games or scenarios can lead to overcompensating or underestimating the amount of correction needed. It requires a high level of focus, control, and practice to consistently make accurate micro adjustments without introducing shakiness or inconsistency in your aim.
+To improve your ability to make micro adjustments effectively, it is crucial to work on developing muscle memory, refining your sensitivity settings, and practicing regularly in scenarios that"</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>What areas of my hand or arm do I need to tense up more to make micro corrections?</v>
+      </c>
+      <c r="B24" t="str">
+        <v>"To make micro corrections in static clicking scenarios, you should focus on tensing up your fingers and wrist more than your entire arm. When making these precise adjustments to fine-tune your aim, it&amp;apos;s crucial to keep your arm and shoulder muscles relaxed to allow for smooth and controlled movements. By focusing on tensing up your fingers and wrist, you can make subtle adjustments without sacrificing speed or accuracy. Remember to keep the rest of your arm loose and maintain a fluid motion to achieve optimal performance in static clicking scenarios."</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>What is the perfect sensitivity for any game?</v>
+      </c>
+      <c r="B25" t="str">
+        <v>"The perfect sensitivity for any game varies from player to player as it depends on personal preference, playstyle, and physical capabilities. However, a common guideline is to find a sensitivity that allows you to make precise aim adjustments while also being able to comfortably and consistently track targets. A sensitivity that is too high may lead to over-aiming and lack of control, while a sensitivity that is too low may hinder your ability to react quickly in fast-paced situations. Experimenting with different sensitivities and finding a balance between speed and accuracy is key to determining the perfect sensitivity for you."</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>What advice is there for how to fix shaky aim?</v>
+      </c>
+      <c r="B26" t="str" xml:space="preserve">
+        <v xml:space="preserve">"To fix shaky aim, it&amp;apos;s important to focus on improving your wrist and arm stability while aiming. Here are some tips to help you address shaky aim:
+1. **Proper Technique**: Ensure you are using the correct posture and grip on your mouse. Your arm and wrist should be positioned comfortably and ergonomically to reduce strain.
+2. **Adjust Sensitivity**: Experiment with your mouse sensitivity settings to find a balance that works for you. A sensitivity that is too high can lead to overcorrections and shakiness, while a sensitivity that is too low can make it difficult to track targets smoothly.
+3. **Practice Tracking**: Engage in tracking scenarios like Smoothbot, PGTI, or Pasu TI to improve your smooth tracking"</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Does posture, sitting position, and chair height matter in aiming?</v>
+      </c>
+      <c r="B27" t="str">
+        <v>"Yes, posture, sitting position, and chair height are important factors in aiming effectively while gaming. Maintaining good posture can help reduce strain on your body, particularly your back, neck, and shoulders, allowing you to focus better on the game. Sitting position plays a role in how you move your arms and wrists, affecting your aim precision and speed. A chair at the right height ensures your arms are at the proper angle for optimal mouse control, which can improve your aim consistency and comfort during long gaming sessions. It&amp;apos;s recommended to adjust your setup to achieve a posture that is comfortable and conducive to good aim performance."</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>What is the best aim trainer software to use and why?</v>
+      </c>
+      <c r="B28" t="str" xml:space="preserve">
+        <v xml:space="preserve">"There are several popular aim trainer software options available, each with its own strengths and features. One of the most renowned aim trainer software is Kovaak&amp;apos;s FPS Aim Trainer. Kovaak&amp;apos;s offers a wide variety of scenarios, including static clicking scenarios like the ones mentioned in the provided text. It provides extensive customization options, allowing players to tailor their training to specific needs. Kovaak&amp;apos;s also has a large and active community, which means there are plenty of resources, guides, and scenarios created by fellow players to help improve your aim.
+Another notable aim trainer is Aim Lab, which is known for its sleek interface and integration with various games like Valorant and Apex Legends. Aim Lab also offers detailed performance tracking and analytics, allowing players to monitor"</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Which aim training software to use?</v>
+      </c>
+      <c r="B29" t="str">
+        <v>"When choosing an aim training software, it ultimately depends on your personal preferences and skill level. If you are willing to invest in your training and want a wide variety of scenarios to choose from, Kovaak&amp;apos;s FPS Aim Trainer is a popular choice. Aimlabs is a great free alternative that is commonly used for competitions and benchmarking. If you are a very high-level player looking for a paid alternative, Aimbeast might be the best option for you. Consider your goals, budget, and desired features to make the best decision for your aim training needs."</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Is it better to use wrist or arm?</v>
+      </c>
+      <c r="B30" t="str">
+        <v>"It is generally recommended to use a combination of both wrist and arm aiming techniques in your gameplay. Utilizing your arm for wider, faster movements and your wrist for smaller, precise adjustments can provide you with a balance of speed and accuracy. By incorporating both techniques, you can adapt to various situations and maximize your aiming potential. Ultimately, finding the right balance between wrist and arm aiming based on your sensitivity and preferences will help you improve your overall aiming skills."</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>When aiming, are you supposed to look at the crosshair or at the target?</v>
+      </c>
+      <c r="B31" t="str">
+        <v>"When aiming, it is generally recommended to focus your gaze on the target rather than the crosshair. By keeping your eyes on the target, you can better predict its movements and make adjustments to your aim accordingly. Your peripheral vision will help you keep track of your crosshair's position in relation to the target. This technique, known as "target focus," allows for smoother and more precise tracking as it helps to improve hand-eye coordination and reaction time. Remember to trust your muscle memory and practice consistently to develop this skill further."</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>What does Viscose say about Raw Accel and mouse acceleration?</v>
+      </c>
+      <c r="B32" t="str">
+        <v>"Viscose initially experienced success with mouse acceleration, but later discovered that it limited her micro-adjustments and masked underlying mechanical issues, particularly in games requiring quick, precise movements. This led her to abandon mouse acceleration in favor of a static sensitivity setting and focused practice to improve her performance significantly. Ultimately, Viscose acknowledges that mouse acceleration had its initial positive impact by motivating her to work on her aim, but she highlights the importance of understanding its limitations and approaching it with realistic expectations."</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>What are some good scenarios for CS or VALORANT?</v>
+      </c>
+      <c r="B33" t="str" xml:space="preserve">
+        <v xml:space="preserve">"For improving mouse control and aim in games like VALORANT, there are specific scenarios in aim training platforms like Aim Lab that can be very beneficial. Here are some scenarios that are popular for training in CS:GO and VALORANT:
+1. **Gridshot**: This scenario focuses on flicking accuracy and speed. Targets appear on a grid, and you have to quickly flick and shoot them.
+2. **Spider Shot**: This scenario helps improve your tracking and flicking abilities by shooting moving targets that change direction.
+3. **Strafing FuglaaXY**: This scenario helps with tracking and target acquisition as the targets move in erratic patterns.
+4. **Microshot Speed**: This scenario is great for improving your click-timing and"</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Does Voltaic manage an active esports team within aim training?</v>
+      </c>
+      <c r="B34" t="str">
+        <v>"Voltaic Systems is known for providing high-quality aim training scenarios and routines for esports players, but they do not manage an active esports team themselves. Their focus is on creating tools and resources to help players improve their aim, reflexes, and overall performance in games like Overwatch. Players and teams can utilize Voltaic's training routines to enhance their skills and compete at a higher level in the esports scene."</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ChatData.xlsx
+++ b/ChatData.xlsx
@@ -1,52 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Chat Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Chat Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,13 +42,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,160 +440,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView rightToLeft="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>User Prompt</v>
-      </c>
-      <c r="B1" t="str">
-        <v>AI Response</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Generated Chunk</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Ground Truth</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TP</v>
-      </c>
-      <c r="F1" t="str">
-        <v>FP</v>
-      </c>
-      <c r="G1" t="str">
-        <v>FN</v>
-      </c>
-      <c r="H1" t="str">
-        <v>F1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>User Prompt</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AI Response</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Generated Chunk</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ground Truth</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>What monitor should I be buying?</v>
-      </c>
-      <c r="B2" t="str">
-        <v>"For gaming and esports, a high refresh rate monitor is essential for smooth gameplay and aiming precision. Aim for at least a 144Hz monitor, but ideally go for a 240Hz monitor for the best performance. Brands like ASUS, BenQ, and Alienware offer great options in terms of refresh rate, response time, and color accuracy. Make sure to also consider factors like panel type (TN, IPS, or VA) based on your preferences for color reproduction and viewing angles. Ultimately, prioritize a high refresh rate for a competitive edge in aiming and gameplay."</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Do not hesitate to start aim training out of fear that your setup is not good enough. However, there are ways to upgrade your setup, such that your experience with the aim trainer and improvement progress might be elevated. Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</v>
-      </c>
-      <c r="D2" t="str">
-        <v>For competitive gaming and esports, a high refresh rate monitor is preferred for smooth gameplay and strong aiming performance. Try to get at least 144hz if you take things seriously, although 240hz is the ideal. More serious aimers may even go to 360hz monitors. Also, you may want to consider looking into different panels, like TN, IPS, or OLED, based on your desired motion clarity and color vibrance. Such factors can be a competitive advantage.</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>What monitor should I be buying?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>"For gaming and esports, a high refresh rate monitor is essential for smooth gameplay and aiming precision. Aim for at least a 144Hz monitor, but ideally go for a 240Hz monitor for the best performance. Brands like ASUS, BenQ, and Alienware offer great options in terms of refresh rate, response time, and color accuracy. Make sure to also consider factors like panel type (TN, IPS, or VA) based on your preferences for color reproduction and viewing angles. Ultimately, prioritize a high refresh rate for a competitive edge in aiming and gameplay."</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Do not hesitate to start aim training out of fear that your setup is not good enough. However, there are ways to upgrade your setup, such that your experience with the aim trainer and improvement progress might be elevated. Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>For competitive gaming and esports, a high refresh rate monitor is preferred for smooth gameplay and strong aiming performance. Try to get at least 144hz if you take things seriously, although 240hz is the ideal. More serious aimers may even go to 360hz monitors. Also, you may want to consider looking into different panels, like TN, IPS, or OLED, based on your desired motion clarity and color vibrance. Such factors can be a competitive advantage.</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>What aimers have played on 60hz?</v>
-      </c>
-      <c r="B3" t="str">
-        <v>"Players like eloevv and Mana have achieved impressive results in esports while using 60hz monitors. It goes to show that while having higher refresh rate monitors and top-notch equipment can be beneficial, it&amp;apos;s not a strict requirement to excel in aiming and competitive gaming. Consistent practice, dedication, and skill are vital elements for success regardless of the hardware limitations."</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Do not hesitate to start aim training out of fear that your setup is not good enough. However, there are ways to upgrade your setup, such that your experience with the aim trainer and improvement progress might be elevated. Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Many aimers have likely played or started by playing on 60hz, but upgraded in the future. Famously, eloevv and Mana are two aimers that have consistently performed on 60hz, achieving tracking and dynamic scores in the Nova ranks. This simply goes to show how far dedication and focused practice can take you, even without the ideal gear.</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>What aimers have played on 60hz?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>"Players like eloevv and Mana have achieved impressive results in esports while using 60hz monitors. It goes to show that while having higher refresh rate monitors and top-notch equipment can be beneficial, it&amp;apos;s not a strict requirement to excel in aiming and competitive gaming. Consistent practice, dedication, and skill are vital elements for success regardless of the hardware limitations."</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Do not hesitate to start aim training out of fear that your setup is not good enough. However, there are ways to upgrade your setup, such that your experience with the aim trainer and improvement progress might be elevated. Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Many aimers have likely played or started by playing on 60hz, but upgraded in the future. Famously, eloevv and Mana are two aimers that have consistently performed on 60hz, achieving tracking and dynamic scores in the Nova ranks. This simply goes to show how far dedication and focused practice can take you, even without the ideal gear.</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>What is the Bardoz Method or Bardpill meaning in static clicking in aim trainers?</v>
-      </c>
-      <c r="B4" t="str">
-        <v>"The Bardoz Method or Bardpill is a technique popularized in aim training communities, particularly in the context of static clicking scenarios. It involves utilizing a specific method of aiming that emphasizes consistency and precision. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players&amp;apos; flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator or popularizer in the community."</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct. This baseline process of initial flick into micro correction into shot confirmation is known as the Bardoz Method, coined after the former best static clicking player, Bardoz. The Bardoz Method, when performed correctly, is the current best way to maximize static clicking scenario scores and is a foundational technique for all forms of flicking-oriented aiming. The initial flick is usually expected to land at some offset difference before the target, the micro correction corrects this offset, and the shot confirmation is a brief visual check to ensure that you will land your shot. The method encourages high accuracy. Advanced levels of static clicking force the player to maintain dynamic pacing, which means that players must vary their frequency of shots depending on the spawns or the positioning of the targets on screen. Increasing pacing to eliminate nearby targets faster can be referred to as cluster farming. It often requires the player to suspend the tension in their arm and focus on being extra smooth with their wrist and fingertips. Static clicking also pushes players to develop what is known as fluidity. Fluidity holds that the time it takes to complete a micro correction and target confirmation on each target should be at a minimum. Players need to be fluid in order to reach much higher pacing on clicking scenarios and get through more targets.</v>
-      </c>
-      <c r="D4" t="str">
-        <v>The Bardoz and Bardpill methods are used in static clicking aim training scenarios. It emphasizes consistency and accuracy over raw speed. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players&amp;apos; flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator, Bardoz, one of the greatest players in static clicking history.</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>What is the Bardoz Method or Bardpill meaning in static clicking in aim trainers?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>"The Bardoz Method or Bardpill is a technique popularized in aim training communities, particularly in the context of static clicking scenarios. It involves utilizing a specific method of aiming that emphasizes consistency and precision. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players&amp;apos; flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator or popularizer in the community."</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct. This baseline process of initial flick into micro correction into shot confirmation is known as the Bardoz Method, coined after the former best static clicking player, Bardoz. The Bardoz Method, when performed correctly, is the current best way to maximize static clicking scenario scores and is a foundational technique for all forms of flicking-oriented aiming. The initial flick is usually expected to land at some offset difference before the target, the micro correction corrects this offset, and the shot confirmation is a brief visual check to ensure that you will land your shot. The method encourages high accuracy. Advanced levels of static clicking force the player to maintain dynamic pacing, which means that players must vary their frequency of shots depending on the spawns or the positioning of the targets on screen. Increasing pacing to eliminate nearby targets faster can be referred to as cluster farming. It often requires the player to suspend the tension in their arm and focus on being extra smooth with their wrist and fingertips. Static clicking also pushes players to develop what is known as fluidity. Fluidity holds that the time it takes to complete a micro correction and target confirmation on each target should be at a minimum. Players need to be fluid in order to reach much higher pacing on clicking scenarios and get through more targets.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The Bardoz and Bardpill methods are used in static clicking aim training scenarios. It emphasizes consistency and accuracy over raw speed. The Bardoz Method typically focuses on training the initial flick to each target to be fast, rigid, and explosive, while also incorporating smooth, narrow, and succinct micro corrections as needed. This technique aims to improve players' flicking abilities and overall accuracy in static clicking scenarios by honing both the initial flick and follow-up adjustments. It is named after its creator, Bardoz, one of the greatest players in static clicking history.</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>What static clicking scenarios are available in Kovaak&amp;apos;s?</v>
-      </c>
-      <c r="B5" t="str">
-        <v>"In Kovaak&amp;apos;s FPS Aim Trainer, some popular static clicking scenarios that focus on improving flicking techniques and high accuracy thresholds include 1wall6targets_small, 1wall4targets, 1wall3targets, ww3targets, Wide Wall 4 targets, Fourshot, and Threeshot. These scenarios help players familiarize themselves with basic flicking techniques by requiring them to quickly and accurately target stationary objects. By practicing these scenarios, players can develop the initial flick to each target to be fast, rigid, and explosive, while also honing their micro-correction skills to be smooth, narrow, and succinct."</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct. This baseline process of initial flick into micro correction into shot confirmation is known as the Bardoz Method, coined after the former best static clicking player, Bardoz. The Bardoz Method, when performed correctly, is the current best way to maximize static clicking scenario scores and is a foundational technique for all forms of flicking-oriented aiming. The initial flick is usually expected to land at some offset difference before the target, the micro correction corrects this offset, and the shot confirmation is a brief visual check to ensure that you will land your shot. The method encourages high accuracy. Advanced levels of static clicking force the player to maintain dynamic pacing, which means that players must vary their frequency of shots depending on the spawns or the positioning of the targets on screen. Increasing pacing to eliminate nearby targets faster can be referred to as cluster farming. It often requires the player to suspend the tension in their arm and focus on being extra smooth with their wrist and fingertips. Static clicking also pushes players to develop what is known as fluidity. Fluidity holds that the time it takes to complete a micro correction and target confirmation on each target should be at a minimum. Players need to be fluid in order to reach much higher pacing on clicking scenarios and get through more targets.</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Some popular static clicking scenarios in Kovaak&amp;apos;s include 1wall6targets_small, 1wall4targets, ww3t, Wide Wall 4 Targets, Fourshot, Threeshot, and 1w2ts. These basic static clicking scenarios place a focus on improving foundational flicking technique.</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>What mouse should we be using in aim training?</v>
-      </c>
-      <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">"When it comes to choosing a mouse for aim training and esports, it&amp;apos;s important to consider factors like sensor quality, DPI settings, weight, and shape. Popular options among professional players include models like the Logitech G Pro Wireless, Zowie EC2, and Finalmouse Ultralight 2. These mice are known for their precise sensors, lightweight design, and ergonomic shapes that cater to different grip styles._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>What static clicking scenarios are available in Kovaak&amp;apos;s?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>"In Kovaak&amp;apos;s FPS Aim Trainer, some popular static clicking scenarios that focus on improving flicking techniques and high accuracy thresholds include 1wall6targets_small, 1wall4targets, 1wall3targets, ww3targets, Wide Wall 4 targets, Fourshot, and Threeshot. These scenarios help players familiarize themselves with basic flicking techniques by requiring them to quickly and accurately target stationary objects. By practicing these scenarios, players can develop the initial flick to each target to be fast, rigid, and explosive, while also honing their micro-correction skills to be smooth, narrow, and succinct."</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct. This baseline process of initial flick into micro correction into shot confirmation is known as the Bardoz Method, coined after the former best static clicking player, Bardoz. The Bardoz Method, when performed correctly, is the current best way to maximize static clicking scenario scores and is a foundational technique for all forms of flicking-oriented aiming. The initial flick is usually expected to land at some offset difference before the target, the micro correction corrects this offset, and the shot confirmation is a brief visual check to ensure that you will land your shot. The method encourages high accuracy. Advanced levels of static clicking force the player to maintain dynamic pacing, which means that players must vary their frequency of shots depending on the spawns or the positioning of the targets on screen. Increasing pacing to eliminate nearby targets faster can be referred to as cluster farming. It often requires the player to suspend the tension in their arm and focus on being extra smooth with their wrist and fingertips. Static clicking also pushes players to develop what is known as fluidity. Fluidity holds that the time it takes to complete a micro correction and target confirmation on each target should be at a minimum. Players need to be fluid in order to reach much higher pacing on clicking scenarios and get through more targets.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Some popular static clicking scenarios in Kovaak's include 1wall6targets_small, 1wall4targets, ww3t, Wide Wall 4 Targets, Fourshot, Threeshot, and 1w2ts. These basic static clicking scenarios place a focus on improving foundational flicking technique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>What mouse should we be using in aim training?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>"When it comes to choosing a mouse for aim training and esports, it&amp;apos;s important to consider factors like sensor quality, DPI settings, weight, and shape. Popular options among professional players include models like the Logitech G Pro Wireless, Zowie EC2, and Finalmouse Ultralight 2. These mice are known for their precise sensors, lightweight design, and ergonomic shapes that cater to different grip styles._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 _x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 Ultimately, the best mouse for aim training is one that feels comfortable in your hand, offers customizable settings to suit your preferences, and provides accurate tracking for precise aiming. It&amp;apos;s also beneficial to pair your mouse with a quality mousepad that complements your playstyle, whether you prefer a speed or control surface._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 _x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-Experimenting with different mice and"</v>
-      </c>
-      <c r="C6" t="str">
-        <v>The Precise Tracking scenarios are useful in Overwatch because they improve reading skills, as well as reactivity and reacquisition on blinking or dashing targets. They are useful for Soldier 76 and Tracer as most targets will be moving erratically and constantly changing directions which you need to react to in order to track them again. They also help building important tracking fundamentals, which includes underaiming (tracking to the closer edge of the target), tracking in one smooth motion instead of multiple micro-jitters and smooth reacquisitions when a target changes directions, blinks or dashes. In Precise Tracking scenarios, you should hold down fire during the entire duration of the scenario. Move your mouse in one steady motion while matching the target’s speed, and try to avoid any inefficiencies and jitter.</v>
-      </c>
-      <c r="D6" t="str">
-        <v>There is no such thing as a "best" mouse to be used for aiming. It will vary greatly across different shapes, weights, and internal specs. Some popular options from top aimers include Gwolves mice, Pulsar mice, and the ever-notable Logitech G Pro Superlight. If you do not know what shape you prefer for your grip style, you should look to experiment.</v>
+Experimenting with different mice and"</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The Precise Tracking scenarios are useful in Overwatch because they improve reading skills, as well as reactivity and reacquisition on blinking or dashing targets. They are useful for Soldier 76 and Tracer as most targets will be moving erratically and constantly changing directions which you need to react to in order to track them again. They also help building important tracking fundamentals, which includes underaiming (tracking to the closer edge of the target), tracking in one smooth motion instead of multiple micro-jitters and smooth reacquisitions when a target changes directions, blinks or dashes. In Precise Tracking scenarios, you should hold down fire during the entire duration of the scenario. Move your mouse in one steady motion while matching the target’s speed, and try to avoid any inefficiencies and jitter.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>There is no such thing as a "best" mouse to be used for aiming. It will vary greatly across different shapes, weights, and internal specs. Some popular options from top aimers include Gwolves mice, Pulsar mice, and the ever-notable Logitech G Pro Superlight. If you do not know what shape you prefer for your grip style, you should look to experiment.</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>What monitors are available that are best for FPS?</v>
-      </c>
-      <c r="B7" t="str">
-        <v>"For FPS gaming, it&amp;apos;s recommended to look for monitors with high refresh rates like 144Hz or ideally 240Hz for the smoothest gameplay experience. Some popular options among professional FPS players include monitors from brands like ASUS, BenQ, Alienware, and Zowie. Models such as the ASUS ROG Swift PG258Q, BenQ Zowie XL2540, Alienware AW2518H, and Zowie XL2546 are commonly praised for their fast response times and smooth performance in FPS games. Be sure to also consider factors like panel type (TN for faster response or IPS for better colors), resolution, and input lag when choosing the best monitor for your FPS gaming needs."</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Do not hesitate to start aim training out of fear that your setup is not good enough. However, there are ways to upgrade your setup, such that your experience with the aim trainer and improvement progress might be elevated. Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</v>
-      </c>
-      <c r="D7" t="str">
-        <v xml:space="preserve">For FPS, you most likely want a monitor that supports a high refresh rate, ideally at or above 144hz. The most popular brands at the time of writing are ASUS and Zowie monitors, which are used in FPS esports events. These all run at 240hz or more. </v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>What monitors are available that are best for FPS?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>"For FPS gaming, it&amp;apos;s recommended to look for monitors with high refresh rates like 144Hz or ideally 240Hz for the smoothest gameplay experience. Some popular options among professional FPS players include monitors from brands like ASUS, BenQ, Alienware, and Zowie. Models such as the ASUS ROG Swift PG258Q, BenQ Zowie XL2540, Alienware AW2518H, and Zowie XL2546 are commonly praised for their fast response times and smooth performance in FPS games. Be sure to also consider factors like panel type (TN for faster response or IPS for better colors), resolution, and input lag when choosing the best monitor for your FPS gaming needs."</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Do not hesitate to start aim training out of fear that your setup is not good enough. However, there are ways to upgrade your setup, such that your experience with the aim trainer and improvement progress might be elevated. Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For FPS, you most likely want a monitor that supports a high refresh rate, ideally at or above 144hz. The most popular brands at the time of writing are ASUS and Zowie monitors, which are used in FPS esports events. These all run at 240hz or more. </t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>What aim training software is the best?</v>
-      </c>
-      <c r="B8" t="str">
-        <v>"There are several popular aim training software options that many gamers and esports professionals use to improve their aiming skills. Some of the most well-known programs include Aim Lab, Kovaak&amp;apos;s FPS Aim Trainer, and Aimtastic. These platforms offer various exercises and scenarios to help players enhance their aiming abilities through consistent practice and feedback. Ultimately, the best aim training software for you may depend on your personal preferences, the games you play, and the specific skills you want to focus on improving. It&amp;apos;s recommended to try out different programs to see which one aligns best with your training goals and playstyle."</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct. This baseline process of initial flick into micro correction into shot confirmation is known as the Bardoz Method, coined after the former best static clicking player, Bardoz. The Bardoz Method, when performed correctly, is the current best way to maximize static clicking scenario scores and is a foundational technique for all forms of flicking-oriented aiming. The initial flick is usually expected to land at some offset difference before the target, the micro correction corrects this offset, and the shot confirmation is a brief visual check to ensure that you will land your shot. The method encourages high accuracy. Advanced levels of static clicking force the player to maintain dynamic pacing, which means that players must vary their frequency of shots depending on the spawns or the positioning of the targets on screen. Increasing pacing to eliminate nearby targets faster can be referred to as cluster farming. It often requires the player to suspend the tension in their arm and focus on being extra smooth with their wrist and fingertips. Static clicking also pushes players to develop what is known as fluidity. Fluidity holds that the time it takes to complete a micro correction and target confirmation on each target should be at a minimum. Players need to be fluid in order to reach much higher pacing on clicking scenarios and get through more targets.</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Of the three major aim trainers we have to choose from- Aimlabs, Kovaak&amp;apos;s, and Aimbeast, the best one is up to what your goals are within aim training and your perceived experience level. Aimlabs is very beginner-friendly and supports all of the different aiming subcategories, but lacks some of the technical depth offered by its alternatives. Aimbeast has the most technical depth and is the most well-optimized trainer of the three. However, it is not beginner-friendly in the slightest. Kovaak&amp;apos;s is the middle ground that most top aimers prefer, and it has the most scenario variety.</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>What aim training software is the best?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>"There are several popular aim training software options that many gamers and esports professionals use to improve their aiming skills. Some of the most well-known programs include Aim Lab, Kovaak&amp;apos;s FPS Aim Trainer, and Aimtastic. These platforms offer various exercises and scenarios to help players enhance their aiming abilities through consistent practice and feedback. Ultimately, the best aim training software for you may depend on your personal preferences, the games you play, and the specific skills you want to focus on improving. It&amp;apos;s recommended to try out different programs to see which one aligns best with your training goals and playstyle."</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No chunk found</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Of the three major aim trainers we have to choose from- Aimlabs, Kovaak's, and Aimbeast, the best one is up to what your goals are within aim training and your perceived experience level. Aimlabs is very beginner-friendly and supports all of the different aiming subcategories, but lacks some of the technical depth offered by its alternatives. Aimbeast has the most technical depth and is the most well-optimized trainer of the three. However, it is not beginner-friendly in the slightest. Kovaak's is the middle ground that most top aimers prefer, and it has the most scenario variety.</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>Why is muscle memory considered a misnomer in aiming?</v>
-      </c>
-      <c r="B9" t="str">
-        <v>"Muscle memory is often associated with repetitive movements that become automatic over time. While aim training can help improve muscle memory for precise aiming, it is a bit of a misnomer when it comes to aiming in esports. Aiming in gaming involves dynamic situations with constantly changing variables such as movement, positioning, and decision-making, rather than just repeating the same physical motion. Therefore, while muscle memory can contribute to more consistent aiming, it is not the only factor in mastering aiming skills in esports, where game sense, positioning, and decision-making play crucial roles."</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Muscle memory is a misnomer in aiming. The term “muscle memory” when used improperly suggests that you should stick to a specific sensitivity across all situations to preserve consistency, and changing your sensitivity would ruin your muscle memory. This is a very simplified and inaccurate understanding of motor memory, an important idea in neuroscience. Because aiming has little to no formal research, it is best not to worry about muscle/motor memory, even when discussed as a proper neuroscience concept, as its role in aiming is not well understood. Enough skilled players have shown over time and through experience that it is okay to change your sensitivity, and it is okay to use different sensitivities for different games. You can further enrich your aim training experience by using a sensitivity randomizer or RawAccel. If you would like to read more information about the matter, please view the Voltaic article on Why ‘Muscle memory’ is seen as a meme in aiming, and see VT Viscose’s video on RawAccel.</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Muscle memory is considered is misnomer in aiming because it used frequently to suggest that changing sensitivity or other mechanical factors will ruin the consistency in your aim. This is untrue, and muscle memory is a very simplified and innacurate understanding of motor memory, which is an important idea in neuroscience. Instead, you should feel free to make changes to your setup or settings, as it should not have a significant impact on your performance long-term.</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
-        <v>What aim training should I be doing for Overwatch?</v>
-      </c>
-      <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">"For Overwatch, aim training should focus on a combination of tracking and flick shots, as the game requires a mix of both skills depending on the hero you are playing. Here are some aim training routines that can benefit Overwatch players:_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Why is muscle memory considered a misnomer in aiming?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>"Muscle memory is often associated with repetitive movements that become automatic over time. While aim training can help improve muscle memory for precise aiming, it is a bit of a misnomer when it comes to aiming in esports. Aiming in gaming involves dynamic situations with constantly changing variables such as movement, positioning, and decision-making, rather than just repeating the same physical motion. Therefore, while muscle memory can contribute to more consistent aiming, it is not the only factor in mastering aiming skills in esports, where game sense, positioning, and decision-making play crucial roles."</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Muscle memory is a misnomer in aiming. The term “muscle memory” when used improperly suggests that you should stick to a specific sensitivity across all situations to preserve consistency, and changing your sensitivity would ruin your muscle memory. This is a very simplified and inaccurate understanding of motor memory, an important idea in neuroscience. Because aiming has little to no formal research, it is best not to worry about muscle/motor memory, even when discussed as a proper neuroscience concept, as its role in aiming is not well understood. Enough skilled players have shown over time and through experience that it is okay to change your sensitivity, and it is okay to use different sensitivities for different games. You can further enrich your aim training experience by using a sensitivity randomizer or RawAccel. If you would like to read more information about the matter, please view the Voltaic article on Why ‘Muscle memory’ is seen as a meme in aiming, and see VT Viscose’s video on RawAccel.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Muscle memory is considered is misnomer in aiming because it used frequently to suggest that changing sensitivity or other mechanical factors will ruin the consistency in your aim. This is untrue, and muscle memory is a very simplified and innacurate understanding of motor memory, which is an important idea in neuroscience. Instead, you should feel free to make changes to your setup or settings, as it should not have a significant impact on your performance long-term.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>What aim training should I be doing for Overwatch?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>"For Overwatch, aim training should focus on a combination of tracking and flick shots, as the game requires a mix of both skills depending on the hero you are playing. Here are some aim training routines that can benefit Overwatch players:_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 _x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 1. **Tracking Aim**: Use aim training scenarios that involve tracking moving targets smoothly. This will help improve your aim with heroes like Soldier: 76, Zarya, and Tracer._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 _x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
@@ -557,90 +691,167 @@
 _x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 3. **Vertical Aim**: Since Overwatch has a lot of verticality, practice aiming both horizontally and vertically to be able to track and hit targets in all dimensions._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 _x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-4."</v>
-      </c>
-      <c r="C10" t="str">
-        <v>The Static Clicking scenarios are useful in Overwatch because they improve timing of clicks, speed, efficiency of motion, micro-corrections, precision and target acquisition with a high emphasis on efficiency. They are useful for Widowmaker, Ashe and Cassidy (click-type weapons) because they help you make more consistent and efficient flicks and micro-corrections. Do your best to keep clean lines on your initial flicks and follow them up with micro-corrections that land directly on the bot. If either your accuracy or speed is holding you back, adjust your practice to account for this.</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Aim training for Overwatch should involve diverse dynamic clicking scenarios, such as Angleshot or Strafeshot, as well as reactive tracking scenarios like Axitrack that feature instant acceleration. Cover the most evasive and fast-paced scenarios, as they are optimal for training aiming for heroes such as Cassidy, Ashe, Widowmaker, Soldier 76, and Tracer.</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
-        <v>What is the optimal sensitivity for aiming?</v>
-      </c>
-      <c r="B11" t="str" xml:space="preserve">
-        <v xml:space="preserve">"The optimal sensitivity for aiming varies from player to player based on personal preference, playstyle, and the game being played. As mentioned in the text, most players tend to use sensitivities ranging from 20cm/360� to 50cm/360�. However, the key is to find a sensitivity that allows you to be accurate and consistent in your aiming. _x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+4."</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The Static Clicking scenarios are useful in Overwatch because they improve timing of clicks, speed, efficiency of motion, micro-corrections, precision and target acquisition with a high emphasis on efficiency. They are useful for Widowmaker, Ashe and Cassidy (click-type weapons) because they help you make more consistent and efficient flicks and micro-corrections. Do your best to keep clean lines on your initial flicks and follow them up with micro-corrections that land directly on the bot. If either your accuracy or speed is holding you back, adjust your practice to account for this.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Aim training for Overwatch should involve diverse dynamic clicking scenarios, such as Angleshot or Strafeshot, as well as reactive tracking scenarios like Axitrack that feature instant acceleration. Cover the most evasive and fast-paced scenarios, as they are optimal for training aiming for heroes such as Cassidy, Ashe, Widowmaker, Soldier 76, and Tracer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>What is the optimal sensitivity for aiming?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>"The optimal sensitivity for aiming varies from player to player based on personal preference, playstyle, and the game being played. As mentioned in the text, most players tend to use sensitivities ranging from 20cm/360� to 50cm/360�. However, the key is to find a sensitivity that allows you to be accurate and consistent in your aiming. _x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 _x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 For games that require precise flick shots like CSGO or Valorant, lower sensitivities are generally preferred as they offer more control. On the other hand, games that require quick tracking and vertical aiming like Overwatch or Fortnite might benefit from slightly higher sensitivities to allow for faster movements._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
 _x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-It&amp;apos;s essential to experiment with different sensitivities to find what feels comfortable and effective for you"</v>
-      </c>
-      <c r="C11" t="str">
-        <v>An advanced Kovaaks routine to help your aim in CS/Counter Strike or Valorant involves playing voxTS Voltaic, Pokeball Frenzy Auto 1w2ts, Pokeball auto ww6t, 1w2ts reload, 5 sphere hipfire extra small, 6wall18targets small reload, Floating Heads Timing 400%, Smoothbot Invincible Goated, Centering I, Pistol Strafe Gallery Small, and Reflex Micro++ Flick Reload Small. Most scenarios will be played on two different sensitivities because learning to control your mouse at higher sensitivities is always beneficial, but if you only practice at a higher sensitivity you might not perform at your best in game. Switching between the two sensitivities (your valorant sens, and twice your valorant sens) is a useful middle ground to leverage in your training. If your VALORANT sens is already high (under 35cm/360°), go 1. 5x or 1. 2x your VALORANT sens. Don’t get to the point where you are using sub 15cm/360°, because that might hurt your wrist.</v>
-      </c>
-      <c r="D11" t="str">
-        <v xml:space="preserve">There is no optimal sensitivity for aim training, and sensitivity is completely up to preference and what suits you best depending on the scenario. The usable range of sensitivities is between 20cm/360 and 90cm/360. Experiment and find something that falls within that range. </v>
+It&amp;apos;s essential to experiment with different sensitivities to find what feels comfortable and effective for you"</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>What sensitivity is the best? What sensitivity is most optimal? How do you find your sensitivity? The best sensitivity depends on the game you're playing. Think of sensitivity as a tool: higher sensitivities are better for wider, faster movements (like in Overwatch), while lower sensitivities are better for smaller, precise movements (like in Valorant). Changing sensitivity won't hurt your aim, and it's actually beneficial to adjust it based on the specific game's requirements.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There is no optimal sensitivity for aim training, and sensitivity is completely up to preference and what suits you best depending on the scenario. The usable range of sensitivities is between 20cm/360 and 90cm/360. Experiment and find something that falls within that range. </t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>What is static clicking meant to train for?</v>
-      </c>
-      <c r="B12" t="str">
-        <v>"Static clicking scenarios are designed to train players in developing their basic flicking techniques and improving their accuracy. These scenarios help players familiarize themselves with the initial flick to each stationary target, emphasizing speed, precision, and explosiveness. By hitting high accuracy thresholds, players can enhance their ability to quickly and accurately flick to targets in a controlled and efficient manner. Static clicking also helps in honing the balance between fast initial movements and smooth micro corrections, which are crucial skills for various esports games that require precise aim and quick reactions."</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct. This baseline process of initial flick into micro correction into shot confirmation is known as the Bardoz Method, coined after the former best static clicking player, Bardoz. The Bardoz Method, when performed correctly, is the current best way to maximize static clicking scenario scores and is a foundational technique for all forms of flicking-oriented aiming. The initial flick is usually expected to land at some offset difference before the target, the micro correction corrects this offset, and the shot confirmation is a brief visual check to ensure that you will land your shot. The method encourages high accuracy. Advanced levels of static clicking force the player to maintain dynamic pacing, which means that players must vary their frequency of shots depending on the spawns or the positioning of the targets on screen. Increasing pacing to eliminate nearby targets faster can be referred to as cluster farming. It often requires the player to suspend the tension in their arm and focus on being extra smooth with their wrist and fingertips. Static clicking also pushes players to develop what is known as fluidity. Fluidity holds that the time it takes to complete a micro correction and target confirmation on each target should be at a minimum. Players need to be fluid in order to reach much higher pacing on clicking scenarios and get through more targets.</v>
-      </c>
-      <c r="D12" t="str">
-        <v xml:space="preserve">Static clicking scenarios are designed to train flicking technique by enforcing what is known as the Bardoz Method. This method is foundational within aim training. It involves a direct initial flick that is rigid, explosive, and fast into a micro correction that is a degree smoother and more controlled. Static clicking primes players for high accuracy in flick-oriented, low TTK games like VALORANT or CS. </v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>What is static clicking meant to train for?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>"Static clicking scenarios are designed to train players in developing their basic flicking techniques and improving their accuracy. These scenarios help players familiarize themselves with the initial flick to each stationary target, emphasizing speed, precision, and explosiveness. By hitting high accuracy thresholds, players can enhance their ability to quickly and accurately flick to targets in a controlled and efficient manner. Static clicking also helps in honing the balance between fast initial movements and smooth micro corrections, which are crucial skills for various esports games that require precise aim and quick reactions."</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct. This baseline process of initial flick into micro correction into shot confirmation is known as the Bardoz Method, coined after the former best static clicking player, Bardoz. The Bardoz Method, when performed correctly, is the current best way to maximize static clicking scenario scores and is a foundational technique for all forms of flicking-oriented aiming. The initial flick is usually expected to land at some offset difference before the target, the micro correction corrects this offset, and the shot confirmation is a brief visual check to ensure that you will land your shot. The method encourages high accuracy. Advanced levels of static clicking force the player to maintain dynamic pacing, which means that players must vary their frequency of shots depending on the spawns or the positioning of the targets on screen. Increasing pacing to eliminate nearby targets faster can be referred to as cluster farming. It often requires the player to suspend the tension in their arm and focus on being extra smooth with their wrist and fingertips. Static clicking also pushes players to develop what is known as fluidity. Fluidity holds that the time it takes to complete a micro correction and target confirmation on each target should be at a minimum. Players need to be fluid in order to reach much higher pacing on clicking scenarios and get through more targets.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Static clicking scenarios are designed to train flicking technique by enforcing what is known as the Bardoz Method. This method is foundational within aim training. It involves a direct initial flick that is rigid, explosive, and fast into a micro correction that is a degree smoother and more controlled. Static clicking primes players for high accuracy in flick-oriented, low TTK games like VALORANT or CS. </t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>What does Viscose say about the optimal FOV to use?</v>
-      </c>
-      <c r="B13" t="str">
-        <v>"VT Viscose suggests that an optimal Field of View (FOV) to use for aiming is around 103 to 110. This FOV range is considered to strike a good balance between being able to see more of the game environment while maintaining a comfortable level of zoom for aiming precision. However, the optimal FOV can vary depending on personal preference and the specific game being played, so it&amp;apos;s essential to experiment and find what works best for you."</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Muscle memory is a misnomer in aiming. The term “muscle memory” when used improperly suggests that you should stick to a specific sensitivity across all situations to preserve consistency, and changing your sensitivity would ruin your muscle memory. This is a very simplified and inaccurate understanding of motor memory, an important idea in neuroscience. Because aiming has little to no formal research, it is best not to worry about muscle/motor memory, even when discussed as a proper neuroscience concept, as its role in aiming is not well understood. Enough skilled players have shown over time and through experience that it is okay to change your sensitivity, and it is okay to use different sensitivities for different games. You can further enrich your aim training experience by using a sensitivity randomizer or RawAccel. If you would like to read more information about the matter, please view the Voltaic article on Why ‘Muscle memory’ is seen as a meme in aiming, and see VT Viscose’s video on RawAccel.</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>What does Viscose say about the optimal FOV to use?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>"VT Viscose suggests that an optimal Field of View (FOV) to use for aiming is around 103 to 110. This FOV range is considered to strike a good balance between being able to see more of the game environment while maintaining a comfortable level of zoom for aiming precision. However, the optimal FOV can vary depending on personal preference and the specific game being played, so it&amp;apos;s essential to experiment and find what works best for you."</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>What is the best FOV? What FOV should I be using? Is there an optimal FOV? The best FOV isn't one-size-fits-all. Higher FOV lets you see more peripherally, while lower FOV makes central targets appear larger. Consider relative speed: targets seem faster at lower FOVs. Higher FOV can help with tracking fast targets and wider angles, but might make them harder to hit. Lower FOV is often better for precision. Choose based on the game's demands and your individual preferences.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>The optimal FOV for aiming is 103 FOV OW or above. However, the best zoom to be used for all situations is very subjective and up to preference, so it is necessary to experiment often and change things up if needed.</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>What is muscle memory in aiming?</v>
-      </c>
-      <c r="B14" t="str">
-        <v>"In aiming, "muscle memory" is a term often used to describe the ability to perform precise movements consistently and accurately due to repetitive practice. While the term itself may not fully capture the complexities of motor learning and memory, it generally refers to the brain and muscles working together to automate movements through practice and repetition. This automation allows players to execute aiming techniques more fluidly and efficiently over time without consciously thinking about each movement. It is important to note that the concept of muscle memory in aiming is not fully understood and is still a topic of discussion within the esports and neuroscience communities."</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str">
-        <v>What do I exercise for my wrist health?</v>
-      </c>
-      <c r="B15" t="str" xml:space="preserve">
-        <v xml:space="preserve">"For wrist health, it is important to focus on strengthening exercises to prevent injuries such as tendinopathy, which is common among FPS esports players. You can start by doing wrist flexor weight-lifting exercises with dumbbells to build endurance and strength in your wrist muscles and tendons. Additionally, incorporating exercises that target wrist extension and rotation can help improve overall wrist mobility and stability._x000d__x000d__x000d__x000d__x000d_
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>What is muscle memory in aiming?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>"In aiming, "muscle memory" is a term often used to describe the ability to perform precise movements consistently and accurately due to repetitive practice. While the term itself may not fully capture the complexities of motor learning and memory, it generally refers to the brain and muscles working together to automate movements through practice and repetition. This automation allows players to execute aiming techniques more fluidly and efficiently over time without consciously thinking about each movement. It is important to note that the concept of muscle memory in aiming is not fully understood and is still a topic of discussion within the esports and neuroscience communities."</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Muscle memory is a misnomer in aiming. The term “muscle memory” when used improperly suggests that you should stick to a specific sensitivity across all situations to preserve consistency, and changing your sensitivity would ruin your muscle memory. This is a very simplified and inaccurate understanding of motor memory, an important idea in neuroscience. Because aiming has little to no formal research, it is best not to worry about muscle/motor memory, even when discussed as a proper neuroscience concept, as its role in aiming is not well understood. Enough skilled players have shown over time and through experience that it is okay to change your sensitivity, and it is okay to use different sensitivities for different games. You can further enrich your aim training experience by using a sensitivity randomizer or RawAccel. If you would like to read more information about the matter, please view the Voltaic article on Why ‘Muscle memory’ is seen as a meme in aiming, and see VT Viscose’s video on RawAccel.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>In aiming, "muscle memory" is a term often used to describe the ability to perform precise movements consistently and accurately due to repetitive practice. While the term itself may not fully capture the complexities of motor learning and memory, it mostly refers to the concept of motor memory, which is studied in neuroscience. This automation allows players to execute aiming techniques more fluidly and efficiently over time without consciously thinking about each movement. Muscle memory is often misused to suggest that changes to setup or sensitivity will reduce player consistency, but this has been shown to be untrue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>What do I exercise for my wrist health?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>"For wrist health, it is important to focus on strengthening exercises to prevent injuries such as tendinopathy, which is common among FPS esports players. You can start by doing wrist flexor weight-lifting exercises with dumbbells to build endurance and strength in your wrist muscles and tendons. Additionally, incorporating exercises that target wrist extension and rotation can help improve overall wrist mobility and stability._x000d__x000d__x000d__x000d__x000d_
 _x000d__x000d__x000d__x000d__x000d_
-It is essential to gradually increase the intensity and duration of your exercises to avoid overloading your wrists. Remember that consistency is key, and it may take several weeks of consistent training to see improvements in muscle strength and endurance. However, if you experience sharp or concerning pain during or after exercising, it is important to stop and consult with a healthcare professional to avoid exacerbating"</v>
+It is essential to gradually increase the intensity and duration of your exercises to avoid overloading your wrists. Remember that consistency is key, and it may take several weeks of consistent training to see improvements in muscle strength and endurance. However, if you experience sharp or concerning pain during or after exercising, it is important to stop and consult with a healthcare professional to avoid exacerbating"</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Health science plays a major role in esports, especially in the intensity of FPS games, which can ask a lot out of us in terms of tension, arm and wrist mobility, and repetitive motion. It is recommended by this app for all wrist health-related issues, injury-prevention measures, and posture recommendations, that users seek out 1HP Health at www. 1-hp. org. Tendinopathy in the wrist is the most common injury among FPS esports players, often presenting itself with pain and weakness in or around the wrist. Strengthening and load management are the preferred treatment methods. Endurance strengthening may take the form of doing simple wrist flexor weight-lifting with dumbbells. Try to see your wrist endurance as an HP bar, where heavier loads, or intense gaming sessions, can cause your HP to decrease. The key approach is to try and increase the size of your HP bar, thus allowing you to play for longer periods of time. In this sense, basic stretching exercises may not be enough on their own to alleviate symptoms of weakness or pain. You must directly work on strengthening the muscles and tendons in your hand. It will take time to build up muscle strength. On average, it may take 4-6 weeks of consistent work to make a change in tissue strength. Improvements in neuromuscular efficiency may make you feel stronger, but tissue adaptation takes longer. It is reasonable to expect some pain flare-ups during your exercise periods. Also understand that everyone’s pain is different, and some people may have an increased tolerance for pain during gaming or other activities. Healing durations also vary person per person. Nonetheless, pain that is sharp or concerning should be an indicator of something that needs work. Famous aim trainers like Madbadman and AoD have played through periods of pain, and it has led them to take extended hiatuses away from play. It may have also shortened their esports careers, having exacerbated the issues that they were feeling initially. Do not risk it. If you feel pain that is around 3-5/10 in severity at minimum, get it checked out. 1HP Health specializes in health science centered around esports players. They have many resources and work entirely remote, meaning you can receive premium healthcare in the comfort of your home.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>For wrist health, it is important to focus on strengthening exercises to prevent injuries such as tendinopathy, which is common among FPS esports players. You can start by doing wrist flexor weight-lifting exercises with dumbbells to build endurance and strength in your wrist muscles and tendons. Additionally, incorporating exercises that target wrist extension and rotation can help improve overall wrist mobility and stability. Improving your wrist health and physical strength will take time and is not consistent from player to player.</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>Is it always better to use low friction mousepads for aiming?</v>
-      </c>
-      <c r="B16" t="str">
-        <v>"Using a low friction mousepad for aiming can have its advantages, as it allows for smoother and more precise mouse movements, which can be beneficial during fast-paced aiming scenarios in games. However, the choice between a low friction or high friction mousepad ultimately comes down to personal preference and playstyle. Some players may find that a higher friction surface gives them better control and stability during aiming. It&amp;apos;s important to experiment with different types of mousepads to see what works best for you and enhances your aiming performance."</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
-      <c r="A17" t="str">
-        <v>Why is it that some people improve at a much faster rate than others?</v>
-      </c>
-      <c r="B17" t="str" xml:space="preserve">
-        <v xml:space="preserve">"There are several factors that can contribute to why some people improve at a faster rate than others in esports or aim training. Some of these factors include:_x000d__x000d__x000d_
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Is it always better to use low friction mousepads for aiming?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>"Using a low friction mousepad for aiming can have its advantages, as it allows for smoother and more precise mouse movements, which can be beneficial during fast-paced aiming scenarios in games. However, the choice between a low friction or high friction mousepad ultimately comes down to personal preference and playstyle. Some players may find that a higher friction surface gives them better control and stability during aiming. It&amp;apos;s important to experiment with different types of mousepads to see what works best for you and enhances your aiming performance."</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Do not hesitate to start aim training out of fear that your setup is not good enough. However, there are ways to upgrade your setup, such that your experience with the aim trainer and improvement progress might be elevated. Get at least a 144hz monitor, ideally 240hz. Get a modern gaming mouse with a good sensor and a low maintenance mousepad with a speed appropriate for you. Upgrade your PC specs. Maybe experiment with mouse skates or a gaming sleeve. Even if you are discouraged about your setup and do not want to spend a fortune, keep in mind that some very top level aimers have achieved great things on 60hz monitors. Specifically, players like eloevv and Mana.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Using a low friction mousepad can be beneficial for aiming as it allows for smoother and more precise mouse movements, which can help in maintaining consistency during aim training or gameplay. However, the choice between low friction and high friction mousepads ultimately depends on personal preference and playstyle. Because it is so up to preference, it is recommended to experiment often with different mousepads.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Why is it that some people improve at a much faster rate than others?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>"There are several factors that can contribute to why some people improve at a faster rate than others in esports or aim training. Some of these factors include:_x000d__x000d__x000d_
 _x000d__x000d__x000d_
 1. **Natural Talent**: Some individuals may have a natural aptitude for certain games or aiming skills, giving them an initial advantage when starting out._x000d__x000d__x000d_
 _x000d__x000d__x000d_
@@ -648,174 +859,722 @@
 _x000d__x000d__x000d_
 3. **Practice Habits**: Consistent and focused practice can greatly accelerate skill development. Those who dedicate more time to deliberate practice tend to improve faster._x000d__x000d__x000d_
 _x000d__x000d__x000d_
-4. **Mental Attitude**: A positive mindset, resilience in the face of setbacks, and a willingness to learn from mistakes"</v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
-      <c r="A18" t="str">
-        <v>What is edge tracking, and where is edge tracking used the most?</v>
-      </c>
-      <c r="B18" t="str" xml:space="preserve">
-        <v xml:space="preserve">"Edge tracking is a technique used in aim training to improve precision and control by deliberately underaiming the target. By withholding tension in the wrist and performing a smoother reaction, edge tracking allows the player to have a bit more time on target, leading to more accurate shots. This technique is particularly useful in scenarios that involve reactive tracking, where quick yet controlled reactions are necessary to hit fast-moving targets._x000d_
+4. **Mental Attitude**: A positive mindset, resilience in the face of setbacks, and a willingness to learn from mistakes"</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>“What sensitivity should I use? ” is probably the most frequently asked question by beginners. By and large, most people will say that sensitivity is up to preference, but most people use somewhere between 20cm/360° to 50cm/360°. This is not a hard rule, but most people’s ideal sensitivity lands within that range. Typically, you should prefer slower sensitivities for slower paced games that are more “flick” reliant and faster sensitivities for games that deal with diverse aiming angles, tracking, and verticality. Feel free to experiment with different sensitivities often and find what works for you.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>There are many factors that can influence the rate of someone's improvement. Some players may have better practice habits, a better mindset about things, stronger mentality, more experience, or are simply talented at what they do.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>What is edge tracking, and where is edge tracking used the most?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>"Edge tracking is a technique used in aim training to improve precision and control by deliberately underaiming the target. By withholding tension in the wrist and performing a smoother reaction, edge tracking allows the player to have a bit more time on target, leading to more accurate shots. This technique is particularly useful in scenarios that involve reactive tracking, where quick yet controlled reactions are necessary to hit fast-moving targets._x000d_
 _x000d_
-Edge tracking is commonly used in aim training scenarios that focus on improving reactive tracking skills, such as in scenarios like Air, Ground Plaza, and Fuglaa variants in aim training platforms like Kovaak&amp;apos;s. These scenarios require players to react swiftly to moving targets while maintaining smoothness and stability in their aim adjustments. By incorporating edge tracking into their practice"</v>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19" t="str">
-        <v>How do I trust and commit to target direction changes?</v>
-      </c>
-      <c r="B19" t="str" xml:space="preserve">
-        <v xml:space="preserve">"Trusting and committing to target direction changes in target switching requires a combination of prediction, practice, and muscle memory. Here are some tips to help you improve in this area:_x000d_
+Edge tracking is commonly used in aim training scenarios that focus on improving reactive tracking skills, such as in scenarios like Air, Ground Plaza, and Fuglaa variants in aim training platforms like Kovaak&amp;apos;s. These scenarios require players to react swiftly to moving targets while maintaining smoothness and stability in their aim adjustments. By incorporating edge tracking into their practice"</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Overall, tracking is the most straightforward aiming category.. Tracking is about holding down the mouse button and keeping your crosshair on a singular, moving target. Tracking requires smoothness and reactivity. Precise tracking usually involves a small target moving in very readable or linear patterns, and it places an emphasis on stabilizing your wrist in terms of tension balancing to minimize jitters or shakiness in your aim. Reactive tracking usually features a larger target moving with high speed or acceleration. This places an emphasis on having swift yet controlled reactions and good movement reading. Precise tracking is achieved in “smooth” or thin variants of existing tracking scenarios. The idea is to feature a target that is decently hard to hit and probably at a farther distance away from you. Good smooth tracking scenarios are Smoothbot, PGTI, or Pasu TI. The key is to find a balance in the amount of tension you use in your wrist/arm, such that you are not using so much tension as to cause shakiness and not using so little tension that you are not able to sustain the motion itself. Reactive tracking comes in many variants, with one of the main differential factors being acceleration. Instant acceleration is present in many fast-paced games like OW, and it requires a different approach that involves fast-flick reactions. When reacting in reactive tracking, however, you should focus on maintaining smoothness and stability in the reaction itself, which can be considered a type of micro adjustment. Edge tracking, which is the implementation of underaiming in aim trainers, can help to give you some extra time on target by withholding the tension in your wrist and performing a smoother reaction. The best reactive scenario types are Air, Ground Plaza, and Fuglaa variants. Air and Ground Plaza are the definitive tracking gauntlet scenarios in Kovaak’s. They are endurance tests where underaiming and movement reading are paramount to success. For general tracking practice, good control fundamentals are vital. Play scenarios like controlsphere or Whisphere to build upon movement reading fundamentals or reaction smoothness. If you find that you have shaky micros or aim that does not look stable, control scenarios like these should help you to develop proper adjustments and tension balancing.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Edge tracking is a technique used in aim training to improve precision and control by deliberately underaiming the target. By withholding tension in the wrist and performing a smoother reaction, edge tracking allows the player to have a bit more time on target during a direction change. Edge tracking is most commonly used in reactive tracking scenarios like Air, Ground Plaza, and Fuglaa variants in Kovaak's.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>How do I trust and commit to target direction changes?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>"Trusting and committing to target direction changes in target switching requires a combination of prediction, practice, and muscle memory. Here are some tips to help you improve in this area:_x000d_
 _x000d_
 1. **Prediction and Anticipation**: By understanding movement patterns and anticipating where the target is likely to go next, you can preemptively adjust your aim in that direction. This will help you to trust your initial flick and commit to following through with your tracking motion._x000d_
 _x000d_
 2. **Practice and Repetition**: Consistent practice in scenarios that involve target switching will help you build muscle memory and improve your ability to trust your aim. The more you practice, the more confident you will become in your ability to hit moving targets._x000d_
 _x000d_
-3. **Focus on Initial Flick Accuracy**:"</v>
-      </c>
-    </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20" t="str">
-        <v>How do I fix overreactive habits and overreacting in general in tracking aim?</v>
-      </c>
-      <c r="B20" t="str" xml:space="preserve">
-        <v xml:space="preserve">"To address overreactive habits and improve tracking aim, it&amp;apos;s important to focus on developing better control and smoothness in your movements. Here are some tips to help you fix overreacting in tracking aim:
+3. **Focus on Initial Flick Accuracy**:"</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Target switching is the third foundational aiming category, and it essentially combines the principles used in both clicking and tracking categories, where there are multiple targets that are tracked for short periods of time. Speed switching involves low time-to-kill targets that move in very linear patterns. Evasive switching is very similar but with more parabolic or hard-to-hit movement patterns. Most if not all target switching requires you to take direct, accurate flicks and transition into a smooth tracking motion. Key skills used to improve in target switching are peripheral awareness, target prioritization, and flick accuracy. The goal is to land flicks directly without requiring a micro correction. Roadmapping and choosing targets before you reach them is critical in speed switching tasks like VoxTS or PsalmTS. Pokeball is another speed switching-like variant that is also a static scenario, and it places a great emphasis on flick accuracy and having clean initial flick landings. In evasive switching, the goal is relatively the same as speed switching. With targets that involve more verticality or are simply harder to hit, choosing targets becomes a much bigger problem. In evasive switching, you need to learn how to do interception of multiple targets and choose ones that have most recently changed movement direction, as you can trust they will not change again. You also need to develop a seamless transition between the flick landing onto the target and the continuation of the smooth tracking motion after.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Trusting and committing to target direction changes in target switching requires a combination of prediction, practice, and muscle memory. Here are some tips to help you improve in this area: understand the limits of target movement patterns and be able to anticipate them, commit to practice and repetition on varied bot patterns, and focus on flick and acquisition accuracy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>How do I fix overreactive habits and overreacting in general in tracking aim?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>"To address overreactive habits and improve tracking aim, it&amp;apos;s important to focus on developing better control and smoothness in your movements. Here are some tips to help you fix overreacting in tracking aim:
 1. **Practice Smooth Tracking**: Focus on tracking your target smoothly and predictively rather than reacting impulsively. Train yourself to follow the target&amp;apos;s movement methodically without jerky or sudden corrections.
 2. **Sensitivity Adjustment**: Consider adjusting your sensitivity settings to find a balance between being able to track smoothly and react quickly when needed. Experiment with different sensitivity levels to see what works best for you.
-3. **Crosshair Placement**: Pay attention to your crosshair placement and keep it close to the target while tracking. This will help reduce"</v>
-      </c>
-    </row>
-    <row r="21" xml:space="preserve">
-      <c r="A21" t="str">
-        <v>What mouse, mousepad, and skate combos work well or speed up improvement?</v>
-      </c>
-      <c r="B21" t="str" xml:space="preserve">
-        <v xml:space="preserve">"To enhance your tracking performance and speed up improvement, using the right mouse, mousepad, and skate combinations can make a significant difference. Here are some recommendations based on their impact on tracking aim:
+3. **Crosshair Placement**: Pay attention to your crosshair placement and keep it close to the target while tracking. This will help reduce"</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>“What sensitivity should I use? ” is probably the most frequently asked question by beginners. By and large, most people will say that sensitivity is up to preference, but most people use somewhere between 20cm/360° to 50cm/360°. This is not a hard rule, but most people’s ideal sensitivity lands within that range. Typically, you should prefer slower sensitivities for slower paced games that are more “flick” reliant and faster sensitivities for games that deal with diverse aiming angles, tracking, and verticality. Feel free to experiment with different sensitivities often and find what works for you.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>To address overreactive habits and improve tracking aim, it is important to focus on developing better control and smoothness in your movements. Here are some tips to help you fix overreacting in tracking aim: Practice Smooth Tracking: Focus on tracking your target smoothly and predictively rather than reacting impulsively. Train yourself to avoid jagged or flick-oriented reactions. Practice Control Tracking. Consider experimenting with edge tracking and or adjusting your sensitivity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>What mouse, mousepad, and skate combos work well or speed up improvement?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>"To enhance your tracking performance and speed up improvement, using the right mouse, mousepad, and skate combinations can make a significant difference. Here are some recommendations based on their impact on tracking aim:
 1. **Mouse**: 
    - Look for a mouse that fits comfortably in your hand and allows for smooth and precise movements. Consider mice with a high-quality sensor for accurate tracking. Popular options for tracking include the Logitech G Pro Wireless, Zowie EC2 series, and Razer DeathAdder Elite.
 2. **Mousepad**:
-   - A good mousepad can provide a consistent surface for your mouse to glide on, crucial for maintaining smooth tracking. Opt for a larger mousepad to give yourself more space to move your mouse comfortably"</v>
+   - A good mousepad can provide a consistent surface for your mouse to glide on, crucial for maintaining smooth tracking. Opt for a larger mousepad to give yourself more space to move your mouse comfortably"</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Overall, tracking is the most straightforward aiming category.. Tracking is about holding down the mouse button and keeping your crosshair on a singular, moving target. Tracking requires smoothness and reactivity. Precise tracking usually involves a small target moving in very readable or linear patterns, and it places an emphasis on stabilizing your wrist in terms of tension balancing to minimize jitters or shakiness in your aim. Reactive tracking usually features a larger target moving with high speed or acceleration. This places an emphasis on having swift yet controlled reactions and good movement reading. Precise tracking is achieved in “smooth” or thin variants of existing tracking scenarios. The idea is to feature a target that is decently hard to hit and probably at a farther distance away from you. Good smooth tracking scenarios are Smoothbot, PGTI, or Pasu TI. The key is to find a balance in the amount of tension you use in your wrist/arm, such that you are not using so much tension as to cause shakiness and not using so little tension that you are not able to sustain the motion itself. Reactive tracking comes in many variants, with one of the main differential factors being acceleration. Instant acceleration is present in many fast-paced games like OW, and it requires a different approach that involves fast-flick reactions. When reacting in reactive tracking, however, you should focus on maintaining smoothness and stability in the reaction itself, which can be considered a type of micro adjustment. Edge tracking, which is the implementation of underaiming in aim trainers, can help to give you some extra time on target by withholding the tension in your wrist and performing a smoother reaction. The best reactive scenario types are Air, Ground Plaza, and Fuglaa variants. Air and Ground Plaza are the definitive tracking gauntlet scenarios in Kovaak’s. They are endurance tests where underaiming and movement reading are paramount to success. For general tracking practice, good control fundamentals are vital. Play scenarios like controlsphere or Whisphere to build upon movement reading fundamentals or reaction smoothness. If you find that you have shaky micros or aim that does not look stable, control scenarios like these should help you to develop proper adjustments and tension balancing.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>To enhance your tracking performance and speed up improvement, using the right mouse, mousepad, and skate combinations can make a significant difference. However, the best combination of the three is merely up to preference. Look for a mouse that can fit comfortably in your hand and has a high quality sensor. Look for a mousepad or mouse skates that can provide a consistent, smooth surface for a smooth glide, which is crucial in tracking scenarios.</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>Is there an optimal sensitivity to use for all games?</v>
-      </c>
-      <c r="B22" t="str">
-        <v>"There isn&amp;apos;t a one-size-fits-all optimal sensitivity for all games because the ideal sensitivity can vary based on individual preferences, playstyle, and the specific game being played. In general, a sensitivity that allows for precise aiming while still being comfortable and controllable is considered optimal. Players often experiment with different sensitivities to find what works best for them, and then practice to build muscle memory with that sensitivity. It&amp;apos;s important to find a sensitivity that provides a good balance between being able to make quick turns and precise adjustments. Remember that consistency and comfort are key factors when choosing a sensitivity that works well for you across different games."</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
-      <c r="A23" t="str">
-        <v>Why is it so hard to make micro adjustments?</v>
-      </c>
-      <c r="B23" t="str" xml:space="preserve">
-        <v xml:space="preserve">"Making precise micro adjustments in tracking can be challenging due to the intricate balance required between maintaining a steady hand to keep the crosshair on target and making small adjustments to correct your aim. Factors such as muscle tension, hand-eye coordination, and reaction speed all play a role in executing successful micro adjustments. 
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Is there an optimal sensitivity to use for all games?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>"There isn&amp;apos;t a one-size-fits-all optimal sensitivity for all games because the ideal sensitivity can vary based on individual preferences, playstyle, and the specific game being played. In general, a sensitivity that allows for precise aiming while still being comfortable and controllable is considered optimal. Players often experiment with different sensitivities to find what works best for them, and then practice to build muscle memory with that sensitivity. It&amp;apos;s important to find a sensitivity that provides a good balance between being able to make quick turns and precise adjustments. Remember that consistency and comfort are key factors when choosing a sensitivity that works well for you across different games."</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>What sensitivity is the best? What sensitivity is most optimal? How do you find your sensitivity? The best sensitivity depends on the game you're playing. Think of sensitivity as a tool: higher sensitivities are better for wider, faster movements (like in Overwatch), while lower sensitivities are better for smaller, precise movements (like in Valorant). Changing sensitivity won't hurt your aim, and it's actually beneficial to adjust it based on the specific game's requirements.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There isn't a one-size-fits-all optimal sensitivity for all games because the ideal sensitivity can vary based on individual preferences, playstyle, and the specific game being played. In general, a sensitivity that allows for precise aiming while still being comfortable and controllable is considered optimal. Players often experiment with different sensitivities to find what works best for them. Many players also enjoy changing their sensitivity often depending on what situation they are in. </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Why is it so hard to make micro adjustments?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>"Making precise micro adjustments in tracking can be challenging due to the intricate balance required between maintaining a steady hand to keep the crosshair on target and making small adjustments to correct your aim. Factors such as muscle tension, hand-eye coordination, and reaction speed all play a role in executing successful micro adjustments. 
 Moreover, the pressure to react quickly in fast-paced games or scenarios can lead to overcompensating or underestimating the amount of correction needed. It requires a high level of focus, control, and practice to consistently make accurate micro adjustments without introducing shakiness or inconsistency in your aim.
-To improve your ability to make micro adjustments effectively, it is crucial to work on developing muscle memory, refining your sensitivity settings, and practicing regularly in scenarios that"</v>
+To improve your ability to make micro adjustments effectively, it is crucial to work on developing muscle memory, refining your sensitivity settings, and practicing regularly in scenarios that"</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Overall, tracking is the most straightforward aiming category.. Tracking is about holding down the mouse button and keeping your crosshair on a singular, moving target. Tracking requires smoothness and reactivity. Precise tracking usually involves a small target moving in very readable or linear patterns, and it places an emphasis on stabilizing your wrist in terms of tension balancing to minimize jitters or shakiness in your aim. Reactive tracking usually features a larger target moving with high speed or acceleration. This places an emphasis on having swift yet controlled reactions and good movement reading. Precise tracking is achieved in “smooth” or thin variants of existing tracking scenarios. The idea is to feature a target that is decently hard to hit and probably at a farther distance away from you. Good smooth tracking scenarios are Smoothbot, PGTI, or Pasu TI. The key is to find a balance in the amount of tension you use in your wrist/arm, such that you are not using so much tension as to cause shakiness and not using so little tension that you are not able to sustain the motion itself. Reactive tracking comes in many variants, with one of the main differential factors being acceleration. Instant acceleration is present in many fast-paced games like OW, and it requires a different approach that involves fast-flick reactions. When reacting in reactive tracking, however, you should focus on maintaining smoothness and stability in the reaction itself, which can be considered a type of micro adjustment. Edge tracking, which is the implementation of underaiming in aim trainers, can help to give you some extra time on target by withholding the tension in your wrist and performing a smoother reaction. The best reactive scenario types are Air, Ground Plaza, and Fuglaa variants. Air and Ground Plaza are the definitive tracking gauntlet scenarios in Kovaak’s. They are endurance tests where underaiming and movement reading are paramount to success. For general tracking practice, good control fundamentals are vital. Play scenarios like controlsphere or Whisphere to build upon movement reading fundamentals or reaction smoothness. If you find that you have shaky micros or aim that does not look stable, control scenarios like these should help you to develop proper adjustments and tension balancing.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Making precise micro adjustments in aiming can be difficult due to the balance required between maintaining a steady hand to keep the crosshair on target and making small adjustments to correct your aim when off-target. Factors such as muscle tension, hand-eye coordination, and reaction speed all play a role in executing successful micro adjustments. Even mentally, in situations where we are under pressure or need to react quickly, we can overcompensate on the micro adjustment.</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
-        <v>What areas of my hand or arm do I need to tense up more to make micro corrections?</v>
-      </c>
-      <c r="B24" t="str">
-        <v>"To make micro corrections in static clicking scenarios, you should focus on tensing up your fingers and wrist more than your entire arm. When making these precise adjustments to fine-tune your aim, it&amp;apos;s crucial to keep your arm and shoulder muscles relaxed to allow for smooth and controlled movements. By focusing on tensing up your fingers and wrist, you can make subtle adjustments without sacrificing speed or accuracy. Remember to keep the rest of your arm loose and maintain a fluid motion to achieve optimal performance in static clicking scenarios."</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>What areas of my hand or arm do I need to tense up more to make micro corrections?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>"To make micro corrections in static clicking scenarios, you should focus on tensing up your fingers and wrist more than your entire arm. When making these precise adjustments to fine-tune your aim, it&amp;apos;s crucial to keep your arm and shoulder muscles relaxed to allow for smooth and controlled movements. By focusing on tensing up your fingers and wrist, you can make subtle adjustments without sacrificing speed or accuracy. Remember to keep the rest of your arm loose and maintain a fluid motion to achieve optimal performance in static clicking scenarios."</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Static clicking is the first subcategory of Clicking. All targets in these scenarios are stationary. The goal of most static clicking scenarios is to help players famliarize themselves with basic flicking techniques. Players should expect to hit high accuracy thresholds, upwards of 90-92%. Static clicking scenario examples include 1w6ts (1wall6targets_small), 1w4ts, 1w3ts, ww3t, Wide Wall 4 targets, Fourshot, Threeshot, and other similarly named scenarios. Static clicking places a focus on the initial flick to each target, which should be fast, rigid, and explosive, versus the micro correction, which needs to be smooth, narrow, and succinct. This baseline process of initial flick into micro correction into shot confirmation is known as the Bardoz Method, coined after the former best static clicking player, Bardoz. The Bardoz Method, when performed correctly, is the current best way to maximize static clicking scenario scores and is a foundational technique for all forms of flicking-oriented aiming. The initial flick is usually expected to land at some offset difference before the target, the micro correction corrects this offset, and the shot confirmation is a brief visual check to ensure that you will land your shot. The method encourages high accuracy. Advanced levels of static clicking force the player to maintain dynamic pacing, which means that players must vary their frequency of shots depending on the spawns or the positioning of the targets on screen. Increasing pacing to eliminate nearby targets faster can be referred to as cluster farming. It often requires the player to suspend the tension in their arm and focus on being extra smooth with their wrist and fingertips. Static clicking also pushes players to develop what is known as fluidity. Fluidity holds that the time it takes to complete a micro correction and target confirmation on each target should be at a minimum. Players need to be fluid in order to reach much higher pacing on clicking scenarios and get through more targets.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>To make micro micro corrections, you should focus on tensing up your fingers and wrist more than your entire arm. When making these precise adjustments to fine-tune your aim, it's crucial to keep your arm and shoulder muscles relaxed to allow for smooth and controlled movements. By focusing on tensing up your fingers and wrist, you can make subtle adjustments without sacrificing speed or accuracy.</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v>What is the perfect sensitivity for any game?</v>
-      </c>
-      <c r="B25" t="str">
-        <v>"The perfect sensitivity for any game varies from player to player as it depends on personal preference, playstyle, and physical capabilities. However, a common guideline is to find a sensitivity that allows you to make precise aim adjustments while also being able to comfortably and consistently track targets. A sensitivity that is too high may lead to over-aiming and lack of control, while a sensitivity that is too low may hinder your ability to react quickly in fast-paced situations. Experimenting with different sensitivities and finding a balance between speed and accuracy is key to determining the perfect sensitivity for you."</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str">
-        <v>What advice is there for how to fix shaky aim?</v>
-      </c>
-      <c r="B26" t="str" xml:space="preserve">
-        <v xml:space="preserve">"To fix shaky aim, it&amp;apos;s important to focus on improving your wrist and arm stability while aiming. Here are some tips to help you address shaky aim:
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>What is the perfect sensitivity for any game?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>"The perfect sensitivity for any game varies from player to player as it depends on personal preference, playstyle, and physical capabilities. However, a common guideline is to find a sensitivity that allows you to make precise aim adjustments while also being able to comfortably and consistently track targets. A sensitivity that is too high may lead to over-aiming and lack of control, while a sensitivity that is too low may hinder your ability to react quickly in fast-paced situations. Experimenting with different sensitivities and finding a balance between speed and accuracy is key to determining the perfect sensitivity for you."</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>An advanced Kovaaks routine to help your aim in CS/Counter Strike or Valorant involves playing voxTS Voltaic, Pokeball Frenzy Auto 1w2ts, Pokeball auto ww6t, 1w2ts reload, 5 sphere hipfire extra small, 6wall18targets small reload, Floating Heads Timing 400%, Smoothbot Invincible Goated, Centering I, Pistol Strafe Gallery Small, and Reflex Micro++ Flick Reload Small. Most scenarios will be played on two different sensitivities because learning to control your mouse at higher sensitivities is always beneficial, but if you only practice at a higher sensitivity you might not perform at your best in game. Switching between the two sensitivities (your valorant sens, and twice your valorant sens) is a useful middle ground to leverage in your training. If your VALORANT sens is already high (under 35cm/360°), go 1. 5x or 1. 2x your VALORANT sens. Don’t get to the point where you are using sub 15cm/360°, because that might hurt your wrist.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>The perfect sensitivity for any game varies from player to player as it depends on personal preference, playstyle, and physical capabilities. However, a common guideline is to find a sensitivity that allows you to make precise aim adjustments while also being able to comfortably and consistently track targets. A sensitivity that is too high may lead to over-aiming and lack of control, while a sensitivity that is too low may hinder your ability to react quickly in fast-paced situations. Experimenting with different sensitivities and finding a balance between speed and accuracy is key to determining the perfect sensitivity for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>What advice is there for how to fix shaky aim?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>"To fix shaky aim, it&amp;apos;s important to focus on improving your wrist and arm stability while aiming. Here are some tips to help you address shaky aim:
 1. **Proper Technique**: Ensure you are using the correct posture and grip on your mouse. Your arm and wrist should be positioned comfortably and ergonomically to reduce strain.
 2. **Adjust Sensitivity**: Experiment with your mouse sensitivity settings to find a balance that works for you. A sensitivity that is too high can lead to overcorrections and shakiness, while a sensitivity that is too low can make it difficult to track targets smoothly.
-3. **Practice Tracking**: Engage in tracking scenarios like Smoothbot, PGTI, or Pasu TI to improve your smooth tracking"</v>
+3. **Practice Tracking**: Engage in tracking scenarios like Smoothbot, PGTI, or Pasu TI to improve your smooth tracking"</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Overall, tracking is the most straightforward aiming category.. Tracking is about holding down the mouse button and keeping your crosshair on a singular, moving target. Tracking requires smoothness and reactivity. Precise tracking usually involves a small target moving in very readable or linear patterns, and it places an emphasis on stabilizing your wrist in terms of tension balancing to minimize jitters or shakiness in your aim. Reactive tracking usually features a larger target moving with high speed or acceleration. This places an emphasis on having swift yet controlled reactions and good movement reading. Precise tracking is achieved in “smooth” or thin variants of existing tracking scenarios. The idea is to feature a target that is decently hard to hit and probably at a farther distance away from you. Good smooth tracking scenarios are Smoothbot, PGTI, or Pasu TI. The key is to find a balance in the amount of tension you use in your wrist/arm, such that you are not using so much tension as to cause shakiness and not using so little tension that you are not able to sustain the motion itself. Reactive tracking comes in many variants, with one of the main differential factors being acceleration. Instant acceleration is present in many fast-paced games like OW, and it requires a different approach that involves fast-flick reactions. When reacting in reactive tracking, however, you should focus on maintaining smoothness and stability in the reaction itself, which can be considered a type of micro adjustment. Edge tracking, which is the implementation of underaiming in aim trainers, can help to give you some extra time on target by withholding the tension in your wrist and performing a smoother reaction. The best reactive scenario types are Air, Ground Plaza, and Fuglaa variants. Air and Ground Plaza are the definitive tracking gauntlet scenarios in Kovaak’s. They are endurance tests where underaiming and movement reading are paramount to success. For general tracking practice, good control fundamentals are vital. Play scenarios like controlsphere or Whisphere to build upon movement reading fundamentals or reaction smoothness. If you find that you have shaky micros or aim that does not look stable, control scenarios like these should help you to develop proper adjustments and tension balancing.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>To fix shaky aim, it's important to focus on improving your wrist and arm stability while aiming. Experiment with sensitivity settings to find a balance towards what component of your hand or arm is mostly in use. A sensitivity that is too high can lead to overcorrections and shakiness, while a sensitivity that is too low can hinder mobility. Practice tracking scenarios like Smoothbot, PGTI, or Pasu TI to improve your smooth tracking</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
-        <v>Does posture, sitting position, and chair height matter in aiming?</v>
-      </c>
-      <c r="B27" t="str">
-        <v>"Yes, posture, sitting position, and chair height are important factors in aiming effectively while gaming. Maintaining good posture can help reduce strain on your body, particularly your back, neck, and shoulders, allowing you to focus better on the game. Sitting position plays a role in how you move your arms and wrists, affecting your aim precision and speed. A chair at the right height ensures your arms are at the proper angle for optimal mouse control, which can improve your aim consistency and comfort during long gaming sessions. It&amp;apos;s recommended to adjust your setup to achieve a posture that is comfortable and conducive to good aim performance."</v>
-      </c>
-    </row>
-    <row r="28" xml:space="preserve">
-      <c r="A28" t="str">
-        <v>What is the best aim trainer software to use and why?</v>
-      </c>
-      <c r="B28" t="str" xml:space="preserve">
-        <v xml:space="preserve">"There are several popular aim trainer software options available, each with its own strengths and features. One of the most renowned aim trainer software is Kovaak&amp;apos;s FPS Aim Trainer. Kovaak&amp;apos;s offers a wide variety of scenarios, including static clicking scenarios like the ones mentioned in the provided text. It provides extensive customization options, allowing players to tailor their training to specific needs. Kovaak&amp;apos;s also has a large and active community, which means there are plenty of resources, guides, and scenarios created by fellow players to help improve your aim.
-Another notable aim trainer is Aim Lab, which is known for its sleek interface and integration with various games like Valorant and Apex Legends. Aim Lab also offers detailed performance tracking and analytics, allowing players to monitor"</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Does posture, sitting position, and chair height matter in aiming?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>"Yes, posture, sitting position, and chair height are important factors in aiming effectively while gaming. Maintaining good posture can help reduce strain on your body, particularly your back, neck, and shoulders, allowing you to focus better on the game. Sitting position plays a role in how you move your arms and wrists, affecting your aim precision and speed. A chair at the right height ensures your arms are at the proper angle for optimal mouse control, which can improve your aim consistency and comfort during long gaming sessions. It&amp;apos;s recommended to adjust your setup to achieve a posture that is comfortable and conducive to good aim performance."</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A Kovaaks routine to help your aim in Apex Legends with a focus on strafe aim involves playing these scenarios: Revolving Tracking, Rhombus Dodge, Pole long dodge extra thin, Revolving Tracking Strafes, Close LS Easy Dodge Thin, Anti-Mirror LS 360 Thin Robsai, Rhombus Vertical Dodge, Hyperscape VT Dodge Easy, Pasu Dodge Track Pure, Manwing Strafe Gallery V3, Pasu Dodge Easy, voxTargetClick Easy Strafe, patTargetSwitch Dodge 360 v2, Close Range LG Duel, Stralroom FS Dodge, lgc3 Reborn Varied Thin, and Air Dodge.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Yes, posture, sitting position, and chair height are important factors in aiming effectively while gaming. Maintaining good posture can help reduce strain on your body, particularly your back, neck, and shoulders, allowing you to focus better on the game. Sitting position plays a role in how you move your arms and wrists, affecting your aim precision and speed. A chair at the right height ensures your arms are at the proper angle for optimal mouse control, which can improve your aim consistency and comfort during long gaming sessions. These factors are important to consider for your overall bodily health and longevity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>What is the best aim trainer software to use and why?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>"There are several popular aim trainer software options available, each with its own strengths and features. One of the most renowned aim trainer software is Kovaak&amp;apos;s FPS Aim Trainer. Kovaak&amp;apos;s offers a wide variety of scenarios, including static clicking scenarios like the ones mentioned in the provided text. It provides extensive customization options, allowing players to tailor their training to specific needs. Kovaak&amp;apos;s also has a large and active community, which means there are plenty of resources, guides, and scenarios created by fellow players to help improve your aim.
+Another notable aim trainer is Aim Lab, which is known for its sleek interface and integration with various games like Valorant and Apex Legends. Aim Lab also offers detailed performance tracking and analytics, allowing players to monitor"</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No chunk found</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>When choosing an aim trainer, Kovaak's FPS Aim Trainer is a popular choice. Aimlabs is a great free alternative that is commonly used for competitions and benchmarking. If you are a very high-level player looking for a paid alternative, Aimbeast might be the best option for you. Consider your goals, budget, and desired features to make the best decision for your aim training needs</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
-        <v>Which aim training software to use?</v>
-      </c>
-      <c r="B29" t="str">
-        <v>"When choosing an aim training software, it ultimately depends on your personal preferences and skill level. If you are willing to invest in your training and want a wide variety of scenarios to choose from, Kovaak&amp;apos;s FPS Aim Trainer is a popular choice. Aimlabs is a great free alternative that is commonly used for competitions and benchmarking. If you are a very high-level player looking for a paid alternative, Aimbeast might be the best option for you. Consider your goals, budget, and desired features to make the best decision for your aim training needs."</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Which aim training software to use?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>"When choosing an aim training software, it ultimately depends on your personal preferences and skill level. If you are willing to invest in your training and want a wide variety of scenarios to choose from, Kovaak&amp;apos;s FPS Aim Trainer is a popular choice. Aimlabs is a great free alternative that is commonly used for competitions and benchmarking. If you are a very high-level player looking for a paid alternative, Aimbeast might be the best option for you. Consider your goals, budget, and desired features to make the best decision for your aim training needs."</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>When choosing an aim trainer, you should go with Kovaak’s FPS Aim Trainer, which can be installed on Steam for 10 dollars. If you want a free aim trainer instead, go with Aimlabs. Aimbeast is another paid alternative. Kovaak’s has the best scenario variety and the most scenarios to choose from, Aimlabs is often used for competitions and benchmarking, and Aimbeast is mostly for very high level players.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>It is generally recommended to use a combination of both wrist and arm aiming techniques in your gameplay. Utilizing your arm for wider, faster movements and your wrist for smaller, precise adjustments can provide you with a balance of speed and accuracy. By incorporating both techniques, you can adapt to various situations and maximize your aiming potential.</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
-        <v>Is it better to use wrist or arm?</v>
-      </c>
-      <c r="B30" t="str">
-        <v>"It is generally recommended to use a combination of both wrist and arm aiming techniques in your gameplay. Utilizing your arm for wider, faster movements and your wrist for smaller, precise adjustments can provide you with a balance of speed and accuracy. By incorporating both techniques, you can adapt to various situations and maximize your aiming potential. Ultimately, finding the right balance between wrist and arm aiming based on your sensitivity and preferences will help you improve your overall aiming skills."</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Is it better to use wrist or arm?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>"It is generally recommended to use a combination of both wrist and arm aiming techniques in your gameplay. Utilizing your arm for wider, faster movements and your wrist for smaller, precise adjustments can provide you with a balance of speed and accuracy. By incorporating both techniques, you can adapt to various situations and maximize your aiming potential. Ultimately, finding the right balance between wrist and arm aiming based on your sensitivity and preferences will help you improve your overall aiming skills."</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Should I be using my wrist or arm to aim? Is it better to be an arm aimer or wrist aimer? Use both arm and wrist aiming. Do not restrict yourself to one or the other. Your arm is better for wider, faster movements, while your wrist excels at smaller, precise movements. Combining both gives you flexibility and allows you to utilize the strengths of each. The exact balance depends on your sensitivity, but using both is generally beneficial.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>When aiming, it is generally recommended to focus your gaze on the target rather than the crosshair. By keeping your eyes on the target, you can better predict its movements and make adjustments to your aim accordingly. Your peripheral vision will help you keep track of your crosshair's position in relation to the target. The difference is when you are postioned far away from the target or if the target is very small, in which case it would make sense to focus more on the crosshair.</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
-        <v>When aiming, are you supposed to look at the crosshair or at the target?</v>
-      </c>
-      <c r="B31" t="str">
-        <v>"When aiming, it is generally recommended to focus your gaze on the target rather than the crosshair. By keeping your eyes on the target, you can better predict its movements and make adjustments to your aim accordingly. Your peripheral vision will help you keep track of your crosshair's position in relation to the target. This technique, known as "target focus," allows for smoother and more precise tracking as it helps to improve hand-eye coordination and reaction time. Remember to trust your muscle memory and practice consistently to develop this skill further."</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>When aiming, are you supposed to look at the crosshair or at the target?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>"When aiming, it is generally recommended to focus your gaze on the target rather than the crosshair. By keeping your eyes on the target, you can better predict its movements and make adjustments to your aim accordingly. Your peripheral vision will help you keep track of your crosshair's position in relation to the target. This technique, known as "target focus," allows for smoother and more precise tracking as it helps to improve hand-eye coordination and reaction time. Remember to trust your muscle memory and practice consistently to develop this skill further."</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Where should I be focusing? My crosshair or the bot? Do you look at the crosshair or at the target when aiming? Should you look at the crosshair when aiming? Focus on your target, not the crosshair. Your target moves unpredictably, so focusing on them allows you to react better. You already know how your crosshair will move. Focusing on the target also helps you read their movements and anticipate their actions. The only exception is with slow, small targets at long range, where checking your crosshair placement might be necessary.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Viscose initially experienced success with mouse acceleration, but later discovered that it limited her micro-adjustments and masked underlying mechanical issues, particularly in games requiring quick, precise movements. This led her to abandon mouse acceleration in favor of a static sensitivity setting and focused practice to improve her performance significantly.</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
-        <v>What does Viscose say about Raw Accel and mouse acceleration?</v>
-      </c>
-      <c r="B32" t="str">
-        <v>"Viscose initially experienced success with mouse acceleration, but later discovered that it limited her micro-adjustments and masked underlying mechanical issues, particularly in games requiring quick, precise movements. This led her to abandon mouse acceleration in favor of a static sensitivity setting and focused practice to improve her performance significantly. Ultimately, Viscose acknowledges that mouse acceleration had its initial positive impact by motivating her to work on her aim, but she highlights the importance of understanding its limitations and approaching it with realistic expectations."</v>
-      </c>
-    </row>
-    <row r="33" xml:space="preserve">
-      <c r="A33" t="str">
-        <v>What are some good scenarios for CS or VALORANT?</v>
-      </c>
-      <c r="B33" t="str" xml:space="preserve">
-        <v xml:space="preserve">"For improving mouse control and aim in games like VALORANT, there are specific scenarios in aim training platforms like Aim Lab that can be very beneficial. Here are some scenarios that are popular for training in CS:GO and VALORANT:
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>What does Viscose say about Raw Accel and mouse acceleration?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>"Viscose initially experienced success with mouse acceleration, but later discovered that it limited her micro-adjustments and masked underlying mechanical issues, particularly in games requiring quick, precise movements. This led her to abandon mouse acceleration in favor of a static sensitivity setting and focused practice to improve her performance significantly. Ultimately, Viscose acknowledges that mouse acceleration had its initial positive impact by motivating her to work on her aim, but she highlights the importance of understanding its limitations and approaching it with realistic expectations."</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Should I use mouse accel? Is Raw Accel good? Mouse acceleration, while promising benefits like faster flicks and controlled tracking, can hinder long-term improvement. A prominent aimer, Viscose initially experienced success with accel, but later discovered it limited her micro-adjustments and masked underlying mechanical issues. This was especially noticeable in games requiring quick, precise movements. Her performance improved significantly after switching to a static sensitivity and focusing on targeted practice. Accel's appeal lies in its ability to offer a seemingly intuitive experience, especially for newer players. It can help bridge the gap between low and high sensitivities, making adjustments easier. However, its "quick fix" nature can be deceptive, as it covers up weaknesses rather than addressing them directly. For those seeking genuine improvement, dedicated practice and focused training are more effective than relying on accel's perceived benefits. While Viscose ultimately abandoned mouse acceleration, she acknowledges its initial positive impact. It motivated them to actively work on her aim and provided a stepping stone towards a more conscious approach to skill development. However, this application’s author emphasizes the importance of understanding accel's limitations and approaching it with realistic expectations. True mastery in aiming comes from consistent practice and addressing underlying mechanical flaws, rather than seeking shortcuts.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>For improving mouse control and aim in games like VALORANT, there are specific scenarios in aim training platforms like Kovaak's can be very helpful, such as VoxTargetSwitch click, static variants like ww3t and ww4t, Floating Heads Timing, tamSpeed, Microshot, and Pasu Small Reload Horizontal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>What are some good scenarios for CS or VALORANT?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>"For improving mouse control and aim in games like VALORANT, there are specific scenarios in aim training platforms like Aim Lab that can be very beneficial. Here are some scenarios that are popular for training in CS:GO and VALORANT:
 1. **Gridshot**: This scenario focuses on flicking accuracy and speed. Targets appear on a grid, and you have to quickly flick and shoot them.
 2. **Spider Shot**: This scenario helps improve your tracking and flicking abilities by shooting moving targets that change direction.
 3. **Strafing FuglaaXY**: This scenario helps with tracking and target acquisition as the targets move in erratic patterns.
-4. **Microshot Speed**: This scenario is great for improving your click-timing and"</v>
+4. **Microshot Speed**: This scenario is great for improving your click-timing and"</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A subset of aim that remains difficult to train within Valorant is mouse control, which is rarely addressed and improved upon in detail. The Voltaic x Aim Lab VALORANT routine will offer purposefully isolated mouse control training specific to aiming in VALORANT, with repetition that vastly outpaces what could be achieved within the game itself. The first routine is a warm-up routine which you can play at any level. The second routine is a more advanced routine that is recommended for diamond or above, but it is also playable at any level. Note that these routines are only supplementary and playing them alone will not improve your aim, you must play these in conjunction with VALORANT. It is highly recommended to use this routine in combination with Deathmatch, this way you can effectively translate the movements learned towards the game. 5v5 competitive modes like ranked, scrimmages, and matches should be the bulk of your time spent on improving at the game. Ideally, you will play Aim Lab, Deathmatch and Valorant each day to hone your skills. Just playing the Valorant routine mindlessly is not sufficient, if you want to improve effectively you need to practice deliberately. Whether it’s on your own or through assistance, it’s imperative that you properly dissect the aspects being trained in each task, along with your personal strengths and weaknesses for each one. Focus on good habits such as retaining smoothness, timing your switches, and keeping your subsequent targets in mind. As a general rule you want to avoid wasting any mouse movements as it will drastically improve your efficiency and speed.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Voltaic is known for providing high-quality aim training scenarios and routines for esports players, but they do not manage an active esports team themselves. Their focus is on creating tools and resources to help players improve their aim in various FPS games.</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
-        <v>Does Voltaic manage an active esports team within aim training?</v>
-      </c>
-      <c r="B34" t="str">
-        <v>"Voltaic Systems is known for providing high-quality aim training scenarios and routines for esports players, but they do not manage an active esports team themselves. Their focus is on creating tools and resources to help players improve their aim, reflexes, and overall performance in games like Overwatch. Players and teams can utilize Voltaic's training routines to enhance their skills and compete at a higher level in the esports scene."</v>
-      </c>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Does Voltaic manage an active esports team within aim training?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>"Voltaic Systems is known for providing high-quality aim training scenarios and routines for esports players, but they do not manage an active esports team themselves. Their focus is on creating tools and resources to help players improve their aim, reflexes, and overall performance in games like Overwatch. Players and teams can utilize Voltaic's training routines to enhance their skills and compete at a higher level in the esports scene."</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>The Speed Switching scenarios, such as Pokeball, are useful in Overwatch because they improve speed, target acquisition and target confirmation. They are useful for all Hitscan DPS heroes, helping to increase up-time and to make swifter and more accurate target switches. This will increase your DPS and the amount of pressure you can do to the enemy. In Speed Switching scenarios, you should hold down fire during the entire duration of the scenario (this is required in Pokeball scenarios). Make sure to force full eliminations as much as possible, leaving as little targets with small amounts of health up as possible. Attempt to land your initial flick directly on the bot with no micro-correction and keep this action consistent on both small and large switches. The Evasive Switching scenarios are useful in Overwatch because they improve speed, target acquisition, smooth (re-)acquiring and target confirmation. Since Overwatch is a team based game, there will be many opportunities where targets will have varying health while still strafing to dodge you or your teammates. The Evasive Switching scenarios will help you work on that. They are useful for all Hitscan DPS heroes, helping to increase up-time and making swifter and more accurate target switches. This will increase your DPS and the amount of pressure you can do to the enemy. In Evasive Switching scenarios, you should hold down fire during the entire duration of the scenario. Land your initial flick directly on each target and smoothly track each target to completion. Time your switches to close the margin between the target's elimination and the start of your flick. Smooth transitions from target to target will make reading their movements much easier.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>For improving your Ashe or Widowmaker aim in Overwatch, you should focus on scenarios that help with precision, flick shots, target acquisition, and micro-corrections. Scenarios like 1w6ts, 1w4ts, Pasu variants, and bounce 180 or Popcorn variants will help a lot in developing click-timing precision.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>What scenarios should I be playing for Ashe or Widowmaker aim?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>"For improving your Ashe or Widowmaker aim in Overwatch, you should focus on scenarios that help with precision, flick shots, target acquisition, and micro-corrections. Here are some recommended scenarios in aim training workshops like Kovaak's FPS Aim Trainer or Aim Lab that can help you hone your skills:
+1. **Tile Frenzy**: This scenario can help you improve your speed and precision by quickly flicking between targets.
+2. **1W6T TE**: This scenario is great for practicing tracking and flicking between multiple targets, which can simulate team fights in Overwatch.
+3. **Thin Aiming Long Invincible**: This scenario focuses on precision and consistency, helping you to land accurate shots on small targets.
+4. **Pasu Tracking"</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>The Static Clicking scenarios are useful in Overwatch because they improve timing of clicks, speed, efficiency of motion, micro-corrections, precision and target acquisition with a high emphasis on efficiency. They are useful for Widowmaker, Ashe and Cassidy (click-type weapons) because they help you make more consistent and efficient flicks and micro-corrections. Do your best to keep clean lines on your initial flicks and follow them up with micro-corrections that land directly on the bot. If either your accuracy or speed is holding you back, adjust your practice to account for this.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>For a hero like Cassidy in Overwatch, scenarios that focus on dynamic clicking and multiclicking are indeed beneficial for improving aim. In Aimlabs, this would include scenarios like Angleshot, Popshot, Adjust Click, Curveshot, and others. These scenarios can help you practice hitting moving targets, flick shots, adjusting your aim quickly, and shooting from different angles, which are all important skills for playing Cassidy effectively. Make sure to also practice in-game scenarios that involve dueling and quick target acquisition</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>What are the best scenarios for Cassidy in Overwatch</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>"For a hero like Cassidy in Overwatch, scenarios that focus on dynamic clicking and multiclicking are indeed beneficial for improving aim. Among the scenarios you mentioned, Multishot Pokeball, Angleshot, Popshot, Adjust Click, and Curveshot can be particularly useful for honing your aim with Cassidy's precise shots. These scenarios can help you practice hitting moving targets, flick shots, adjusting your aim quickly, and shooting from different angles, which are all important skills for playing Cassidy effectively. Make sure to also practice in-game scenarios that involve dueling and quick target acquisition to further enhance your aim with Cassidy in Overwatch."</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>To help improve your aim on Cassidy, some helpful scenarios to play are Multishot Pokeball, Angleshot, Popshot, Adjust Click, Angleshot Multi, Axishot Multi, Surgeshot Multi, Dashshot, Blinkshot, Curveshot, and Boltshot. These scenarios may have novice, intermediate, or advanced versions for players of different skill levels. These scenarios are mostly focused on dynamic clicking and multiclicking.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>For improving your aim with Sojourn's railgun shots in Aim Lab, you can benefit from scenarios that focus on precision tracking and flick shots. Recommended Aimlabs scenarios for this purpose are Dodgeswitch, Blinktrack, Axitrack, Lowtrack, Hightrack, Angleshot, Popshot, Adjust Click, Dashshot, Blinkshot, and especially Trackshot. These scenarios help balance your practice between the heavy tracking and heavy clicking components of Sojourn's Overwatch gameplay kit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>What are the best scenarios for Sojourn and hitting railgun shots as an Aimlabs player</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>"For improving your aim with Sojourn's railgun shots in Aim Lab, you can benefit from scenarios that focus on precision tracking and flick shots. Here are some recommended scenarios:
+1. **Gridshot Ultimate**: This scenario helps with flick shots and hitting precise shots quickly.
+2. **Strafetrack**: It is excellent for practicing tracking while dealing with strafing opponents, which can simulate Sojourn's movement.
+3. **Spidershot Speed**: This scenario can help improve your speed and accuracy, which is crucial for hitting railgun shots effectively.
+4. **Microshot Speed**: Enhances your micro-tracking skills, which are essential for hitting precise shots with Sojourn's railgun.
+5. **Sixshot Classic"</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>To help improve your aim on Sojourn, some helpful scenarios to play are Dodgeswitch, Blinktrack, Axitrack, Lowtrack, Hightrack, Angleshot, Popshot, Adjust Click, Dashshot, Blinkshot, Trackshot, and Curveshot. These scenarios may have novice, intermediate, or advanced versions for players of different skill levels. These scenarios are mostly focused on Close Reactive Tracking, Dynamic Clicking, and Hybrid Track Shots.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>For Widowmaker in Overwatch, scenarios like Angleshot, Curveshot, Flowshot, Blinkshot, Multishot Pokeball, Threeshot, Vibeshot, Hexshot, Skyshot, Paceshot, and Peekshot are great for improving your aim. These scenarios can help you practice Dynamic and Static Flick shots at Scoped FOV, which are essential skills for playing Widowmaker effectively. Make sure to look for Widowmaker-specific versions of these scenarios, such as VT Curveshot Widow and VT Vibeshot Widow, to tailor your practice specifically for her gameplay mechanics</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>What are good scenarios for Widowmaker in Overwatch</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>"For Widowmaker in Overwatch, scenarios like Angleshot, Curveshot, Flowshot, Blinkshot, Multishot Pokeball, Threeshot, Vibeshot, Hexshot, Skyshot, Paceshot, and Peekshot are great for improving your aim. These scenarios can help you practice Dynamic and Static Flick shots at Scoped FOV, which are essential skills for playing Widowmaker effectively. Make sure to look for Widowmaker-specific versions of these scenarios, such as VT Curveshot Widow and VT Vibeshot Widow, to tailor your practice specifically for her gameplay mechanics. Practice these scenarios at different skill levels to gradually improve your aim and precision with Widowmaker in Overwatch."</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>To help improve your aim on Widowmaker, some helpful scenarios to play are Angleshot, Curveshot, Flowshot, Blinkshot, Multishot Pokeball, Threeshot, Vibeshot, Hexshot, Skyshot, Paceshot, and Peekshot. These scenarios may have novice, intermediate, or advanced versions for players of different skill levels. All of the scenarios mentioned here also have Widowmaker-specific versions (such as VT Curveshot Widow, VT Vibeshot Widow). These scenarios are mostly focused on Dynamic and Static Flicks at Scoped FOV.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Aim Theory describes the mechanics behind aiming and splits it into three different categories of Clicking, Tracking, and Switching. Clicking refers to precision aiming where the player needs to quickly and accurately time clicks specific targets. Tracking involves following moving singular moving targets with precise motion. Switching refers to the ability to quickly transition tracking between multiple targets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>What does aim theory separate the different aiming categories into?</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>"Aim theory separates different aiming categories into Clicking, Tracking, and Switching. Clicking refers to precision aiming where the player needs to quickly and accurately click on specific targets. Tracking involves smoothly following moving targets with precise crosshair placement. Switching refers to the ability to quickly transition between multiple targets or angles. By categorizing aiming into these distinct groups, players can focus on training each aspect of their aim more effectively."</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Aim theory describes the mechanics behind aiming and the methods used to train optimally. Aim theory dictates that all aiming situations be separated into multiple categories. These categories are Clicking, Tracking, and Switching.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The app provides tips on reducing shakiness in tracking by emphasizing the importance of finding a balance in the amount of tension you use in your wrist/arm. It suggests not using too much tension that causes shakiness, and not using too little tension that you are unable to sustain motion. The key is to stabilize your wrist in terms of tension balancing to minimize jitters or shakiness in your aim. It also recommends practicing precise tracking scenarios with small targets moving in readable or linear patterns, as well as playing smooth tracking scenarios like Smoothbot, PGTI, or Pasu TI to improve smoothness and reactivity in your tracking. </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>What tips does the app provide on how to reduce shakiness in tracking?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>"The app provides tips on reducing shakiness in tracking by emphasizing the importance of finding a balance in the amount of tension you use in your wrist/arm. It suggests not using too much tension that causes shakiness, and not using too little tension that you are unable to sustain motion. The key is to stabilize your wrist in terms of tension balancing to minimize jitters or shakiness in your aim. It also recommends practicing precise tracking scenarios with small targets moving in readable or linear patterns, as well as playing smooth tracking scenarios like Smoothbot, PGTI, or Pasu TI to improve smoothness and reactivity in your tracking. Additionally, the app advises focusing on maintaining smoothness and stability in reactive tracking scenarios, such as Air,"</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Overall, tracking is the most straightforward aiming category.. Tracking is about holding down the mouse button and keeping your crosshair on a singular, moving target. Tracking requires smoothness and reactivity. Precise tracking usually involves a small target moving in very readable or linear patterns, and it places an emphasis on stabilizing your wrist in terms of tension balancing to minimize jitters or shakiness in your aim. Reactive tracking usually features a larger target moving with high speed or acceleration. This places an emphasis on having swift yet controlled reactions and good movement reading. Precise tracking is achieved in “smooth” or thin variants of existing tracking scenarios. The idea is to feature a target that is decently hard to hit and probably at a farther distance away from you. Good smooth tracking scenarios are Smoothbot, PGTI, or Pasu TI. The key is to find a balance in the amount of tension you use in your wrist/arm, such that you are not using so much tension as to cause shakiness and not using so little tension that you are not able to sustain the motion itself. Reactive tracking comes in many variants, with one of the main differential factors being acceleration. Instant acceleration is present in many fast-paced games like OW, and it requires a different approach that involves fast-flick reactions. When reacting in reactive tracking, however, you should focus on maintaining smoothness and stability in the reaction itself, which can be considered a type of micro adjustment. Edge tracking, which is the implementation of underaiming in aim trainers, can help to give you some extra time on target by withholding the tension in your wrist and performing a smoother reaction. The best reactive scenario types are Air, Ground Plaza, and Fuglaa variants. Air and Ground Plaza are the definitive tracking gauntlet scenarios in Kovaak’s. They are endurance tests where underaiming and movement reading are paramount to success. For general tracking practice, good control fundamentals are vital. Play scenarios like controlsphere or Whisphere to build upon movement reading fundamentals or reaction smoothness. If you find that you have shaky micros or aim that does not look stable, control scenarios like these should help you to develop proper adjustments and tension balancing.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>The effective split for in-game practice to aim trainer practice is usually recommended to be a 70-30 split, which is to be around 30% aim trainer practice and 70% in-game practice. This means that you should spend 30% of your time playing only the most relevant scenarios within the aim trainer and 70% of your time actually playing the main game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>What is the effective split for aim training duration compared to in-game play?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>"The effective split for aim training duration compared to in-game play is typically recommended to be around 30% aim trainer practice and 70% in-game practice. This means that you should spend 30% of your time playing only the most relevant scenarios within the aim trainer and 70% of your time actually playing the main game. This balance allows you to focus on improving your raw aiming mechanics while still applying those skills in real gameplay situations. Remember, aim trainers are meant to supplement your in-game practice, not replace it entirely."</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Aim trainers are independent video games, software that is secondary to real FPS games, designed for the purpose of helping FPS game players improve at their raw aiming mechanics, namely mouse control. Mouse control is the universal foundation for all aiming within FPS Esports. You can always aim train for fun, but most people start aim training because they want to elevate their skills in first-person and third-person shooter games. Let’s start with the benefits of aim training. Aim training can help you more consistently hit shots in-game, they can enable you to find more opportunities to outplay your opponents, they can help you read target movements better, and they may give you better overall control over your mouse, even in non-aiming situations. While helpful, aim trainers are NEVER a substitute for in-game practice, and if your main priority is improving at your main esport, you should only treat aim trainers as supplemental. This will affect what you practice, as well as how long you practice for. Probably the most effective split for in-game practice and aim trainer practice is 70-30 respectively, where you spend 70% of your time playing the main game, and 30% of your time playing only the most relevant scenarios within the aim trainer.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Just spending time on aim trainers is not enough to see significant improvement in your in-game aim. It's important to ensure that you are practicing efficiently and effectively. One key aspect to consider is the quality of your practice rather than just the quantity of hours spent. Make sure you are practicing the right scenarios that closely mimic the aiming challenges you face in your main game. Additionally, focusing on consistency and maintaining a positive mindset will also contribute to your overall improvement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>I have spent many hours on aim trainers, but why is my aim still bad?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>"It's great that you have dedicated many hours to aim training, but sometimes just spending time on aim trainers is not enough to see significant improvement in your in-game aim. It's important to ensure that you are practicing efficiently and effectively. One key aspect to consider is the quality of your practice rather than just the quantity of hours spent. Make sure you are practicing the right scenarios that closely mimic the aiming challenges you face in your main game. Additionally, focusing on consistency and maintaining a positive mindset will also contribute to your overall improvement. Keep practicing, stay patient, and remember that improvement takes time and dedication."</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Why am I not seeing results from aim training? Why is my aim still bad after aim training? There are two major reasons as for why aim training may not be delivering the results you want in-game. The first reason may be simply that you are not playing the right scenarios for your main game. You should not be playing super fast, erratic reactive tracking for a slow-paced clicking game like VALORANT. The second reason may be a mindset issue. Aim training leads to subtle improvement, that is not always consistent or linear.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>While genetics can play a role in certain aspects of aiming, such as reaction time and tissue strength, they are not the sole determinants of one's skill level. The emphasis is on cultivating talent and putting in hard work to improve your performance as an aimer. Genetics is only a small factor in your full profile as an aimer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>do genetics matter?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>"While genetics can play a role in certain aspects of aiming, such as reaction time and tissue strength, they are not the sole determinants of one's skill level. The emphasis is on cultivating talent and putting in hard work to improve your performance as an aimer. So while genetics may have some influence, they are not the most important factor in becoming a great esports player."</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Do genetics matter? Does talent matter? Does talent make you a good aimer? Is genetics important? The author of this app emphasizes that talent and genetics play a minor role in becoming a great esports player. Genetics on its own cannot make you better. You must cultivate talent and work hard to allow it to show through in terms of performance. In aiming, genetics affects two things– reaction time and tissue strength (longevity). While both of these factors are important, they alone will not determine your success as an aimer.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Various tips this app provides to get out of a plateau include trying different training routines to challenge your skills in new ways, setting clear and achievable goals to give yourself a sense of direction, analyzing your performance more closely, or seeking feedback.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>What tips does this app provide for how to get out of a plateau?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>"If you are feeling stuck in a plateau in your aim training progress, this app can provide you with various tips and strategies to help you overcome it. Some tips that this app may offer could include:
+1. **Try different training routines:** Switching up your training routine can help challenge your skills in new ways and break through the plateau.
+2. **Set specific goals:** Setting clear and achievable goals can give you a sense of direction and motivation to push past the plateau.
+3. **Analyze your performance:** Reviewing your gameplay or training sessions can help you identify areas for improvement and make necessary adjustments.
+4. **Seek feedback:** Getting feedback from coaches, peers, or using in-app analysis tools can provide valuable insights to help you progress"</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>How do you overcome plateaus? How to stop plateauing? How do you get out of a plateau? Plateauing in aim training or in any field refers to when your progress or improvement levels out, such that you feel you are hitting a ceiling or a brick wall and are not improving any further. The key to getting out of a plateau is to change something up. Play something different. Try new or more challenging scenarios. Doing so will help your brain to learn new patterns and experiences, eventually leading to new pathways of improvement.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Improving your aim in Valorant requires consistent practice and dedication. Specifically, our app designates a set of training routines that include Aimlabs scenarios such as VT berryTS Valorant, Sky Dots Micro, Floating Dots, and 1w2ts. These tasks cover micro correction smoothness and accuracy, as well as flick oriented technique with a focus on shot timing. It is important to use these practice routines regularly, particularly to warmup before your games. </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Any tips on how to get better aim in valorant</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>"Improving your aim in Valorant requires consistent practice and dedication. Here are some tips to help you enhance your aim:
+1. **Training Routine**: Follow a structured training routine like the ones mentioned in the text. Consistent practice in various scenarios focusing on micro-corrections, click-timing, flick shots, tracking, and speed switching can help improve different aspects of your aim.
+2. **Warm-up Before Games**: Always warm up before playing ranked sessions or tournaments. Short, intensive warm-up routines followed by deathmatch games can help you get into the right mindset and improve your aim before diving into serious gameplay.
+3. **Focus on Crosshair Placement**: Keep your crosshair at head level and pre-aim common angles to ensure that your shots"</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A quick Valorant warmup routine involves playing these scenarios: VT berryTS Valorant, VT Sky Dots Micro 30% Smaller, VT Floating Dots Goated Valorant, and VT 1w2ts Smallflicks Valorant. This routine is meant to be short, no longer than 15 minutes. The tasks cover precise micro-corrections and click-timing mixed with speedy flicks on a wide array of angles. VT Cartoon recommends short intensive warmups followed by deathmatch games as the best way to prepare for ranked sessions. The full Voltaic Valorant routine recommended for players Voltaic Diamond and above involves playing these scenarios: Reactive Click Widewall Valorant, Valorant Smallflicks, Close Range Valorant Tracking, ww3t Pokeball Valorant, Pokeball Valorant, Sky Dots Micro 30% Smaller, Smoothsphere Valorant, TMPspeedTS Valorant, mpXY Valorant, 1w4ts VSS Valorant, 1w2ts Smallflicks Valorant, berryTS Valorant, and Floating Dots Goated Valorant. Some Static Clicking scenarios that are helpful for Valorant are Reactive Click Widewall Valorant,  Valorant Smallflicks, Sky Dots Micro 30% Smaller, mpXY Valorant, 1w4ts VSS Valorant, 1w2ts Smallflicks Valorant, and Floating Dots Goated Valorant. Some Reactive Tracking scenarios that are helpful for Valorant are Close Range Valorant Tracking, which helps to improve your horizontal smoothness and reactivity to help you react quickly to directional changes, and Smoothsphere Valorant, which helps practice your 360 tracking and precise tracking. This scenario also teaches you how to use most of your mousepad when tracking a target, and tracking at awkward angles. Some Speed Switching scenarios that are helpful for Valorant are ww3t Pokeball Valorant, 1w2ts Pokeball Valorant, MPspeedTS Valorant, and berryTS Valorant.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>To fix shot spamming in dynamic clicking scenarios, it's important to focus on being deliberate with your shots and timing your clicks according to the movement of the targets. Be more patient with your flicks and focus more on reading the target before rushing to hit the shot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Any tips on how to fix shot spamming</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>"To fix shot spamming in dynamic clicking scenarios, it's important to focus on being deliberate with your shots and timing your clicks according to the movement of the targets. Here are some tips to help you avoid shot spamming:
+1. **Practice Patience**: Instead of rapidly clicking on targets, take a moment to track their movement and then time your shot when you have a clear shot.
+2. **Focus on Target Reading**: Pay attention to the movement of targets, especially in your peripheral vision. Anticipate where the target will be and time your shots accordingly.
+3. **Maintain a Constant Pace**: Avoid fluctuating your clicking speed and try to maintain a steady pace. This will help you manage multiple moving targets more effectively.
+4."</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Dynamic clicking, unlike in static, involves targets moving at varied speeds. Dynamic clicking places a greater focus on target reading, especially in your peripheral vision, and the shot confirmation. The key is to be deliberate with your shots, such that you are not spamming shots, and you are properly timing clicks according to the movement you read. Dynamic clicking requires that you still maintain fast initial flicks and smooth micro corrections, but are able to do so while managing multiple moving targets. Your pacing should also be more static/constant instead of fluctuating. Having a constant pace in dynamic clicking helps us to better manage multi-target movement reading. It also encourages a smooth flow through the targets and clearer peripheral vision. Specifically in arc dynamic clicking, or bounce clicking scenarios, there is more emphasis on being smooth and effectively “juggling” targets on screen. You should always have the next target in mind when playing dynamic clicking. Roadmapping is a key skill in all multi-target scenarios, which says that you should be at least 2-3 targets ahead of your current focused target. For recommended dynamic clicking scenarios, try any Pasu type. Pasu is the prime XY axis dynamic clicking scenario, which comes in thousands of variants and is very useful to train. For more precision based dynamic clicking, you should try Popcorn variants, which is a particularly accuracy-focused and difficult bounce clicking scenario. Other bouncing target scenario variants can be found simply by searching “bounce” or b180. For videos explaining dynamic clicking technique, see VT Matty’s How to Pasu, Snowi aim secrets, or MadBadMan aim secrets videos.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Due to the instant acceleration motion present within Overwatch, the app recommends specialized aiming scenarios. These are scenarios that focus on "pure reactive" tracking. These scenarios are designed to help players improve their ability to track targets in a game where movement acceleration is instantaneous. You should look for scenarios that require quick reactions to sudden changes in target movement, such as the Reactive Tracking scenarios that involve blinking or dashing targets. </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>What scenarios does the app recommend for Overwatch and instant acceleration movement?</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>"For Overwatch and instant acceleration movement, the app would recommend scenarios that focus on "pure reactive" tracking. These scenarios are designed to help players improve their ability to track targets in a game where movement acceleration is instantaneous. You should look for scenarios that require quick reactions to sudden changes in target movement, such as the Reactive Tracking scenarios that involve blinking or dashing targets. These scenarios will help you practice reacquiring targets quickly and tracking them smoothly, without relying on predictions. By training in these scenarios, you can build the essential tracking fundamentals needed to excel in Overwatch, especially when playing heroes like Soldier 76 and Tracer who require precise and reactive tracking skills."</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>The Reactive Tracking scenarios are useful in Overwatch because they improve reading skills, reactivity and reacquisition on blinking or dashing targets. They are useful for Soldier 76 and Tracer as most targets will be moving erratically and constantly changing directions which you need to react to in order to track them again. Also helps building important tracking fundamentals, which includes underaiming (tracking to the closer edge of the target), tracking in one smooth motion instead of multiple micro-jitters and smooth reacquisitions when a target changes directions, blinks or dashes. In Reactive Tracking scenarios, you should hold down fire during the entire duration of the scenario. You should also focus more on the target than your crosshair. Try to match the target’s movement instead of chasing after it. Do your best to be smooth and focus on reading the target’s movement, so you can react as soon as possible to any direction changes. Be reactive, not predictive. An additional tip is to assume the target won’t change directions, and to only react when it actually does, then smoothly return back to the target. Many tracking scenarios in Overwatch are considered to be “pure reactive,” such that they feature instant acceleration. These scenarios are perfect for training tracking in a game where almost all movement acceleration is instantaneous.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H34"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/ChatData.xlsx
+++ b/ChatData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parsp\OneDrive\Desktop\All\Online\PersonalProject\AimJourney\aimjourney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE02C806-7B55-419F-B3F2-3AAF9DA23811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEAE0CA-E0CE-4444-9FA6-E6F482D562D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/ChatData.xlsx
+++ b/ChatData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parsp\OneDrive\Desktop\All\Online\PersonalProject\AimJourney\aimjourney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEAE0CA-E0CE-4444-9FA6-E6F482D562D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133D2432-2D4B-4566-B3A4-873F5C8FCB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,10 +91,10 @@
     <t>What mouse should we be using in aim training?</t>
   </si>
   <si>
-    <t>"When it comes to choosing a mouse for aim training and esports, it&amp;apos;s important to consider factors like sensor quality, DPI settings, weight, and shape. Popular options among professional players include models like the Logitech G Pro Wireless, Zowie EC2, and Finalmouse Ultralight 2. These mice are known for their precise sensors, lightweight design, and ergonomic shapes that cater to different grip styles._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-Ultimately, the best mouse for aim training is one that feels comfortable in your hand, offers customizable settings to suit your preferences, and provides accurate tracking for precise aiming. It&amp;apos;s also beneficial to pair your mouse with a quality mousepad that complements your playstyle, whether you prefer a speed or control surface._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>"When it comes to choosing a mouse for aim training and esports, it&amp;apos;s important to consider factors like sensor quality, DPI settings, weight, and shape. Popular options among professional players include models like the Logitech G Pro Wireless, Zowie EC2, and Finalmouse Ultralight 2. These mice are known for their precise sensors, lightweight design, and ergonomic shapes that cater to different grip styles._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+Ultimately, the best mouse for aim training is one that feels comfortable in your hand, offers customizable settings to suit your preferences, and provides accurate tracking for precise aiming. It&amp;apos;s also beneficial to pair your mouse with a quality mousepad that complements your playstyle, whether you prefer a speed or control surface._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 Experimenting with different mice and"</t>
   </si>
   <si>
@@ -140,74 +140,74 @@
     <t>What aim training should I be doing for Overwatch?</t>
   </si>
   <si>
-    <t>"For Overwatch, aim training should focus on a combination of tracking and flick shots, as the game requires a mix of both skills depending on the hero you are playing. Here are some aim training routines that can benefit Overwatch players:_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>"For Overwatch, aim training should focus on a combination of tracking and flick shots, as the game requires a mix of both skills depending on the hero you are playing. Here are some aim training routines that can benefit Overwatch players:_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+1. **Tracking Aim**: Use aim training scenarios that involve tracking moving targets smoothly. This will help improve your aim with heroes like Soldier: 76, Zarya, and Tracer._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+2. **Flick Aim**: Practice scenarios that require quick and precise flick shots to improve your aim with heroes like Widowmaker, McCree, and Ana._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+3. **Vertical Aim**: Since Overwatch has a lot of verticality, practice aiming both horizontally and vertically to be able to track and hit targets in all dimensions._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+4."</t>
+  </si>
+  <si>
+    <t>The Static Clicking scenarios are useful in Overwatch because they improve timing of clicks, speed, efficiency of motion, micro-corrections, precision and target acquisition with a high emphasis on efficiency. They are useful for Widowmaker, Ashe and Cassidy (click-type weapons) because they help you make more consistent and efficient flicks and micro-corrections. Do your best to keep clean lines on your initial flicks and follow them up with micro-corrections that land directly on the bot. If either your accuracy or speed is holding you back, adjust your practice to account for this.</t>
+  </si>
+  <si>
+    <t>Aim training for Overwatch should involve diverse dynamic clicking scenarios, such as Angleshot or Strafeshot, as well as reactive tracking scenarios like Axitrack that feature instant acceleration. Cover the most evasive and fast-paced scenarios, as they are optimal for training aiming for heroes such as Cassidy, Ashe, Widowmaker, Soldier 76, and Tracer.</t>
+  </si>
+  <si>
+    <t>What is the optimal sensitivity for aiming?</t>
+  </si>
+  <si>
+    <t>"The optimal sensitivity for aiming varies from player to player based on personal preference, playstyle, and the game being played. As mentioned in the text, most players tend to use sensitivities ranging from 20cm/360� to 50cm/360�. However, the key is to find a sensitivity that allows you to be accurate and consistent in your aiming. _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+For games that require precise flick shots like CSGO or Valorant, lower sensitivities are generally preferred as they offer more control. On the other hand, games that require quick tracking and vertical aiming like Overwatch or Fortnite might benefit from slightly higher sensitivities to allow for faster movements._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+It&amp;apos;s essential to experiment with different sensitivities to find what feels comfortable and effective for you"</t>
+  </si>
+  <si>
+    <t>What sensitivity is the best? What sensitivity is most optimal? How do you find your sensitivity? The best sensitivity depends on the game you're playing. Think of sensitivity as a tool: higher sensitivities are better for wider, faster movements (like in Overwatch), while lower sensitivities are better for smaller, precise movements (like in Valorant). Changing sensitivity won't hurt your aim, and it's actually beneficial to adjust it based on the specific game's requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no optimal sensitivity for aim training, and sensitivity is completely up to preference and what suits you best depending on the scenario. The usable range of sensitivities is between 20cm/360 and 90cm/360. Experiment and find something that falls within that range. </t>
+  </si>
+  <si>
+    <t>What is static clicking meant to train for?</t>
+  </si>
+  <si>
+    <t>"Static clicking scenarios are designed to train players in developing their basic flicking techniques and improving their accuracy. These scenarios help players familiarize themselves with the initial flick to each stationary target, emphasizing speed, precision, and explosiveness. By hitting high accuracy thresholds, players can enhance their ability to quickly and accurately flick to targets in a controlled and efficient manner. Static clicking also helps in honing the balance between fast initial movements and smooth micro corrections, which are crucial skills for various esports games that require precise aim and quick reactions."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static clicking scenarios are designed to train flicking technique by enforcing what is known as the Bardoz Method. This method is foundational within aim training. It involves a direct initial flick that is rigid, explosive, and fast into a micro correction that is a degree smoother and more controlled. Static clicking primes players for high accuracy in flick-oriented, low TTK games like VALORANT or CS. </t>
+  </si>
+  <si>
+    <t>What does Viscose say about the optimal FOV to use?</t>
+  </si>
+  <si>
+    <t>"VT Viscose suggests that an optimal Field of View (FOV) to use for aiming is around 103 to 110. This FOV range is considered to strike a good balance between being able to see more of the game environment while maintaining a comfortable level of zoom for aiming precision. However, the optimal FOV can vary depending on personal preference and the specific game being played, so it&amp;apos;s essential to experiment and find what works best for you."</t>
+  </si>
+  <si>
+    <t>What is the best FOV? What FOV should I be using? Is there an optimal FOV? The best FOV isn't one-size-fits-all. Higher FOV lets you see more peripherally, while lower FOV makes central targets appear larger. Consider relative speed: targets seem faster at lower FOVs. Higher FOV can help with tracking fast targets and wider angles, but might make them harder to hit. Lower FOV is often better for precision. Choose based on the game's demands and your individual preferences.</t>
+  </si>
+  <si>
+    <t>The optimal FOV for aiming is 103 FOV OW or above. However, the best zoom to be used for all situations is very subjective and up to preference, so it is necessary to experiment often and change things up if needed.</t>
+  </si>
+  <si>
+    <t>What is muscle memory in aiming?</t>
+  </si>
+  <si>
+    <t>"In aiming, "muscle memory" is a term often used to describe the ability to perform precise movements consistently and accurately due to repetitive practice. While the term itself may not fully capture the complexities of motor learning and memory, it generally refers to the brain and muscles working together to automate movements through practice and repetition. This automation allows players to execute aiming techniques more fluidly and efficiently over time without consciously thinking about each movement. It is important to note that the concept of muscle memory in aiming is not fully understood and is still a topic of discussion within the esports and neuroscience communities."</t>
+  </si>
+  <si>
+    <t>In aiming, "muscle memory" is a term often used to describe the ability to perform precise movements consistently and accurately due to repetitive practice. While the term itself may not fully capture the complexities of motor learning and memory, it mostly refers to the concept of motor memory, which is studied in neuroscience. This automation allows players to execute aiming techniques more fluidly and efficiently over time without consciously thinking about each movement. Muscle memory is often misused to suggest that changes to setup or sensitivity will reduce player consistency, but this has been shown to be untrue.</t>
+  </si>
+  <si>
+    <t>What do I exercise for my wrist health?</t>
+  </si>
+  <si>
+    <t>"For wrist health, it is important to focus on strengthening exercises to prevent injuries such as tendinopathy, which is common among FPS esports players. You can start by doing wrist flexor weight-lifting exercises with dumbbells to build endurance and strength in your wrist muscles and tendons. Additionally, incorporating exercises that target wrist extension and rotation can help improve overall wrist mobility and stability._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-1. **Tracking Aim**: Use aim training scenarios that involve tracking moving targets smoothly. This will help improve your aim with heroes like Soldier: 76, Zarya, and Tracer._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-2. **Flick Aim**: Practice scenarios that require quick and precise flick shots to improve your aim with heroes like Widowmaker, McCree, and Ana._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-3. **Vertical Aim**: Since Overwatch has a lot of verticality, practice aiming both horizontally and vertically to be able to track and hit targets in all dimensions._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-4."</t>
-  </si>
-  <si>
-    <t>The Static Clicking scenarios are useful in Overwatch because they improve timing of clicks, speed, efficiency of motion, micro-corrections, precision and target acquisition with a high emphasis on efficiency. They are useful for Widowmaker, Ashe and Cassidy (click-type weapons) because they help you make more consistent and efficient flicks and micro-corrections. Do your best to keep clean lines on your initial flicks and follow them up with micro-corrections that land directly on the bot. If either your accuracy or speed is holding you back, adjust your practice to account for this.</t>
-  </si>
-  <si>
-    <t>Aim training for Overwatch should involve diverse dynamic clicking scenarios, such as Angleshot or Strafeshot, as well as reactive tracking scenarios like Axitrack that feature instant acceleration. Cover the most evasive and fast-paced scenarios, as they are optimal for training aiming for heroes such as Cassidy, Ashe, Widowmaker, Soldier 76, and Tracer.</t>
-  </si>
-  <si>
-    <t>What is the optimal sensitivity for aiming?</t>
-  </si>
-  <si>
-    <t>"The optimal sensitivity for aiming varies from player to player based on personal preference, playstyle, and the game being played. As mentioned in the text, most players tend to use sensitivities ranging from 20cm/360� to 50cm/360�. However, the key is to find a sensitivity that allows you to be accurate and consistent in your aiming. _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-For games that require precise flick shots like CSGO or Valorant, lower sensitivities are generally preferred as they offer more control. On the other hand, games that require quick tracking and vertical aiming like Overwatch or Fortnite might benefit from slightly higher sensitivities to allow for faster movements._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-It&amp;apos;s essential to experiment with different sensitivities to find what feels comfortable and effective for you"</t>
-  </si>
-  <si>
-    <t>What sensitivity is the best? What sensitivity is most optimal? How do you find your sensitivity? The best sensitivity depends on the game you're playing. Think of sensitivity as a tool: higher sensitivities are better for wider, faster movements (like in Overwatch), while lower sensitivities are better for smaller, precise movements (like in Valorant). Changing sensitivity won't hurt your aim, and it's actually beneficial to adjust it based on the specific game's requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is no optimal sensitivity for aim training, and sensitivity is completely up to preference and what suits you best depending on the scenario. The usable range of sensitivities is between 20cm/360 and 90cm/360. Experiment and find something that falls within that range. </t>
-  </si>
-  <si>
-    <t>What is static clicking meant to train for?</t>
-  </si>
-  <si>
-    <t>"Static clicking scenarios are designed to train players in developing their basic flicking techniques and improving their accuracy. These scenarios help players familiarize themselves with the initial flick to each stationary target, emphasizing speed, precision, and explosiveness. By hitting high accuracy thresholds, players can enhance their ability to quickly and accurately flick to targets in a controlled and efficient manner. Static clicking also helps in honing the balance between fast initial movements and smooth micro corrections, which are crucial skills for various esports games that require precise aim and quick reactions."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Static clicking scenarios are designed to train flicking technique by enforcing what is known as the Bardoz Method. This method is foundational within aim training. It involves a direct initial flick that is rigid, explosive, and fast into a micro correction that is a degree smoother and more controlled. Static clicking primes players for high accuracy in flick-oriented, low TTK games like VALORANT or CS. </t>
-  </si>
-  <si>
-    <t>What does Viscose say about the optimal FOV to use?</t>
-  </si>
-  <si>
-    <t>"VT Viscose suggests that an optimal Field of View (FOV) to use for aiming is around 103 to 110. This FOV range is considered to strike a good balance between being able to see more of the game environment while maintaining a comfortable level of zoom for aiming precision. However, the optimal FOV can vary depending on personal preference and the specific game being played, so it&amp;apos;s essential to experiment and find what works best for you."</t>
-  </si>
-  <si>
-    <t>What is the best FOV? What FOV should I be using? Is there an optimal FOV? The best FOV isn't one-size-fits-all. Higher FOV lets you see more peripherally, while lower FOV makes central targets appear larger. Consider relative speed: targets seem faster at lower FOVs. Higher FOV can help with tracking fast targets and wider angles, but might make them harder to hit. Lower FOV is often better for precision. Choose based on the game's demands and your individual preferences.</t>
-  </si>
-  <si>
-    <t>The optimal FOV for aiming is 103 FOV OW or above. However, the best zoom to be used for all situations is very subjective and up to preference, so it is necessary to experiment often and change things up if needed.</t>
-  </si>
-  <si>
-    <t>What is muscle memory in aiming?</t>
-  </si>
-  <si>
-    <t>"In aiming, "muscle memory" is a term often used to describe the ability to perform precise movements consistently and accurately due to repetitive practice. While the term itself may not fully capture the complexities of motor learning and memory, it generally refers to the brain and muscles working together to automate movements through practice and repetition. This automation allows players to execute aiming techniques more fluidly and efficiently over time without consciously thinking about each movement. It is important to note that the concept of muscle memory in aiming is not fully understood and is still a topic of discussion within the esports and neuroscience communities."</t>
-  </si>
-  <si>
-    <t>In aiming, "muscle memory" is a term often used to describe the ability to perform precise movements consistently and accurately due to repetitive practice. While the term itself may not fully capture the complexities of motor learning and memory, it mostly refers to the concept of motor memory, which is studied in neuroscience. This automation allows players to execute aiming techniques more fluidly and efficiently over time without consciously thinking about each movement. Muscle memory is often misused to suggest that changes to setup or sensitivity will reduce player consistency, but this has been shown to be untrue.</t>
-  </si>
-  <si>
-    <t>What do I exercise for my wrist health?</t>
-  </si>
-  <si>
-    <t>"For wrist health, it is important to focus on strengthening exercises to prevent injuries such as tendinopathy, which is common among FPS esports players. You can start by doing wrist flexor weight-lifting exercises with dumbbells to build endurance and strength in your wrist muscles and tendons. Additionally, incorporating exercises that target wrist extension and rotation can help improve overall wrist mobility and stability._x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 It is essential to gradually increase the intensity and duration of your exercises to avoid overloading your wrists. Remember that consistency is key, and it may take several weeks of consistent training to see improvements in muscle strength and endurance. However, if you experience sharp or concerning pain during or after exercising, it is important to stop and consult with a healthcare professional to avoid exacerbating"</t>
   </si>
   <si>
@@ -229,14 +229,14 @@
     <t>Why is it that some people improve at a much faster rate than others?</t>
   </si>
   <si>
-    <t>"There are several factors that can contribute to why some people improve at a faster rate than others in esports or aim training. Some of these factors include:_x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-1. **Natural Talent**: Some individuals may have a natural aptitude for certain games or aiming skills, giving them an initial advantage when starting out._x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-2. **Experience**: Prior experience with gaming or similar activities can give players a head start in terms of understanding game mechanics, strategy, and developing hand-eye coordination._x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-3. **Practice Habits**: Consistent and focused practice can greatly accelerate skill development. Those who dedicate more time to deliberate practice tend to improve faster._x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
+    <t>"There are several factors that can contribute to why some people improve at a faster rate than others in esports or aim training. Some of these factors include:_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+1. **Natural Talent**: Some individuals may have a natural aptitude for certain games or aiming skills, giving them an initial advantage when starting out._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+2. **Experience**: Prior experience with gaming or similar activities can give players a head start in terms of understanding game mechanics, strategy, and developing hand-eye coordination._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+3. **Practice Habits**: Consistent and focused practice can greatly accelerate skill development. Those who dedicate more time to deliberate practice tend to improve faster._x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 4. **Mental Attitude**: A positive mindset, resilience in the face of setbacks, and a willingness to learn from mistakes"</t>
   </si>
   <si>
@@ -249,8 +249,8 @@
     <t>What is edge tracking, and where is edge tracking used the most?</t>
   </si>
   <si>
-    <t>"Edge tracking is a technique used in aim training to improve precision and control by deliberately underaiming the target. By withholding tension in the wrist and performing a smoother reaction, edge tracking allows the player to have a bit more time on target, leading to more accurate shots. This technique is particularly useful in scenarios that involve reactive tracking, where quick yet controlled reactions are necessary to hit fast-moving targets._x000D__x000D__x000D_
-_x000D__x000D__x000D_
+    <t>"Edge tracking is a technique used in aim training to improve precision and control by deliberately underaiming the target. By withholding tension in the wrist and performing a smoother reaction, edge tracking allows the player to have a bit more time on target, leading to more accurate shots. This technique is particularly useful in scenarios that involve reactive tracking, where quick yet controlled reactions are necessary to hit fast-moving targets._x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D_
 Edge tracking is commonly used in aim training scenarios that focus on improving reactive tracking skills, such as in scenarios like Air, Ground Plaza, and Fuglaa variants in aim training platforms like Kovaak&amp;apos;s. These scenarios require players to react swiftly to moving targets while maintaining smoothness and stability in their aim adjustments. By incorporating edge tracking into their practice"</t>
   </si>
   <si>
@@ -263,12 +263,12 @@
     <t>How do I trust and commit to target direction changes?</t>
   </si>
   <si>
-    <t>"Trusting and committing to target direction changes in target switching requires a combination of prediction, practice, and muscle memory. Here are some tips to help you improve in this area:_x000D__x000D__x000D_
-_x000D__x000D__x000D_
-1. **Prediction and Anticipation**: By understanding movement patterns and anticipating where the target is likely to go next, you can preemptively adjust your aim in that direction. This will help you to trust your initial flick and commit to following through with your tracking motion._x000D__x000D__x000D_
-_x000D__x000D__x000D_
-2. **Practice and Repetition**: Consistent practice in scenarios that involve target switching will help you build muscle memory and improve your ability to trust your aim. The more you practice, the more confident you will become in your ability to hit moving targets._x000D__x000D__x000D_
-_x000D__x000D__x000D_
+    <t>"Trusting and committing to target direction changes in target switching requires a combination of prediction, practice, and muscle memory. Here are some tips to help you improve in this area:_x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D_
+1. **Prediction and Anticipation**: By understanding movement patterns and anticipating where the target is likely to go next, you can preemptively adjust your aim in that direction. This will help you to trust your initial flick and commit to following through with your tracking motion._x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D_
+2. **Practice and Repetition**: Consistent practice in scenarios that involve target switching will help you build muscle memory and improve your ability to trust your aim. The more you practice, the more confident you will become in your ability to hit moving targets._x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D_
 3. **Focus on Initial Flick Accuracy**:"</t>
   </si>
   <si>
@@ -281,12 +281,12 @@
     <t>How do I fix overreactive habits and overreacting in general in tracking aim?</t>
   </si>
   <si>
-    <t>"To address overreactive habits and improve tracking aim, it&amp;apos;s important to focus on developing better control and smoothness in your movements. Here are some tips to help you fix overreacting in tracking aim:_x000D__x000D_
-_x000D__x000D_
-1. **Practice Smooth Tracking**: Focus on tracking your target smoothly and predictively rather than reacting impulsively. Train yourself to follow the target&amp;apos;s movement methodically without jerky or sudden corrections._x000D__x000D_
-_x000D__x000D_
-2. **Sensitivity Adjustment**: Consider adjusting your sensitivity settings to find a balance between being able to track smoothly and react quickly when needed. Experiment with different sensitivity levels to see what works best for you._x000D__x000D_
-_x000D__x000D_
+    <t>"To address overreactive habits and improve tracking aim, it&amp;apos;s important to focus on developing better control and smoothness in your movements. Here are some tips to help you fix overreacting in tracking aim:_x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+1. **Practice Smooth Tracking**: Focus on tracking your target smoothly and predictively rather than reacting impulsively. Train yourself to follow the target&amp;apos;s movement methodically without jerky or sudden corrections._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+2. **Sensitivity Adjustment**: Consider adjusting your sensitivity settings to find a balance between being able to track smoothly and react quickly when needed. Experiment with different sensitivity levels to see what works best for you._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
 3. **Crosshair Placement**: Pay attention to your crosshair placement and keep it close to the target while tracking. This will help reduce"</t>
   </si>
   <si>
@@ -296,12 +296,12 @@
     <t>What mouse, mousepad, and skate combos work well or speed up improvement?</t>
   </si>
   <si>
-    <t>"To enhance your tracking performance and speed up improvement, using the right mouse, mousepad, and skate combinations can make a significant difference. Here are some recommendations based on their impact on tracking aim:_x000D__x000D_
-_x000D__x000D_
-1. **Mouse**: _x000D__x000D_
-   - Look for a mouse that fits comfortably in your hand and allows for smooth and precise movements. Consider mice with a high-quality sensor for accurate tracking. Popular options for tracking include the Logitech G Pro Wireless, Zowie EC2 series, and Razer DeathAdder Elite._x000D__x000D_
-   _x000D__x000D_
-2. **Mousepad**:_x000D__x000D_
+    <t>"To enhance your tracking performance and speed up improvement, using the right mouse, mousepad, and skate combinations can make a significant difference. Here are some recommendations based on their impact on tracking aim:_x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+1. **Mouse**: _x000D__x000D__x000D__x000D__x000D_
+   - Look for a mouse that fits comfortably in your hand and allows for smooth and precise movements. Consider mice with a high-quality sensor for accurate tracking. Popular options for tracking include the Logitech G Pro Wireless, Zowie EC2 series, and Razer DeathAdder Elite._x000D__x000D__x000D__x000D__x000D_
+   _x000D__x000D__x000D__x000D__x000D_
+2. **Mousepad**:_x000D__x000D__x000D__x000D__x000D_
    - A good mousepad can provide a consistent surface for your mouse to glide on, crucial for maintaining smooth tracking. Opt for a larger mousepad to give yourself more space to move your mouse comfortably"</t>
   </si>
   <si>
@@ -320,10 +320,10 @@
     <t>Why is it so hard to make micro adjustments?</t>
   </si>
   <si>
-    <t>"Making precise micro adjustments in tracking can be challenging due to the intricate balance required between maintaining a steady hand to keep the crosshair on target and making small adjustments to correct your aim. Factors such as muscle tension, hand-eye coordination, and reaction speed all play a role in executing successful micro adjustments. _x000D__x000D_
-_x000D__x000D_
-Moreover, the pressure to react quickly in fast-paced games or scenarios can lead to overcompensating or underestimating the amount of correction needed. It requires a high level of focus, control, and practice to consistently make accurate micro adjustments without introducing shakiness or inconsistency in your aim._x000D__x000D_
-_x000D__x000D_
+    <t>"Making precise micro adjustments in tracking can be challenging due to the intricate balance required between maintaining a steady hand to keep the crosshair on target and making small adjustments to correct your aim. Factors such as muscle tension, hand-eye coordination, and reaction speed all play a role in executing successful micro adjustments. _x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+Moreover, the pressure to react quickly in fast-paced games or scenarios can lead to overcompensating or underestimating the amount of correction needed. It requires a high level of focus, control, and practice to consistently make accurate micro adjustments without introducing shakiness or inconsistency in your aim._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
 To improve your ability to make micro adjustments effectively, it is crucial to work on developing muscle memory, refining your sensitivity settings, and practicing regularly in scenarios that"</t>
   </si>
   <si>
@@ -354,12 +354,12 @@
     <t>What advice is there for how to fix shaky aim?</t>
   </si>
   <si>
-    <t>"To fix shaky aim, it&amp;apos;s important to focus on improving your wrist and arm stability while aiming. Here are some tips to help you address shaky aim:_x000D__x000D_
-_x000D__x000D_
-1. **Proper Technique**: Ensure you are using the correct posture and grip on your mouse. Your arm and wrist should be positioned comfortably and ergonomically to reduce strain._x000D__x000D_
-_x000D__x000D_
-2. **Adjust Sensitivity**: Experiment with your mouse sensitivity settings to find a balance that works for you. A sensitivity that is too high can lead to overcorrections and shakiness, while a sensitivity that is too low can make it difficult to track targets smoothly._x000D__x000D_
-_x000D__x000D_
+    <t>"To fix shaky aim, it&amp;apos;s important to focus on improving your wrist and arm stability while aiming. Here are some tips to help you address shaky aim:_x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+1. **Proper Technique**: Ensure you are using the correct posture and grip on your mouse. Your arm and wrist should be positioned comfortably and ergonomically to reduce strain._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+2. **Adjust Sensitivity**: Experiment with your mouse sensitivity settings to find a balance that works for you. A sensitivity that is too high can lead to overcorrections and shakiness, while a sensitivity that is too low can make it difficult to track targets smoothly._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
 3. **Practice Tracking**: Engage in tracking scenarios like Smoothbot, PGTI, or Pasu TI to improve your smooth tracking"</t>
   </si>
   <si>
@@ -429,14 +429,14 @@
     <t>What are some good scenarios for CS or VALORANT?</t>
   </si>
   <si>
-    <t>"For improving mouse control and aim in games like VALORANT, there are specific scenarios in aim training platforms like Aim Lab that can be very beneficial. Here are some scenarios that are popular for training in CS:GO and VALORANT:_x000D__x000D_
-_x000D__x000D_
-1. **Gridshot**: This scenario focuses on flicking accuracy and speed. Targets appear on a grid, and you have to quickly flick and shoot them._x000D__x000D_
-_x000D__x000D_
-2. **Spider Shot**: This scenario helps improve your tracking and flicking abilities by shooting moving targets that change direction._x000D__x000D_
-_x000D__x000D_
-3. **Strafing FuglaaXY**: This scenario helps with tracking and target acquisition as the targets move in erratic patterns._x000D__x000D_
-_x000D__x000D_
+    <t>"For improving mouse control and aim in games like VALORANT, there are specific scenarios in aim training platforms like Aim Lab that can be very beneficial. Here are some scenarios that are popular for training in CS:GO and VALORANT:_x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+1. **Gridshot**: This scenario focuses on flicking accuracy and speed. Targets appear on a grid, and you have to quickly flick and shoot them._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+2. **Spider Shot**: This scenario helps improve your tracking and flicking abilities by shooting moving targets that change direction._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+3. **Strafing FuglaaXY**: This scenario helps with tracking and target acquisition as the targets move in erratic patterns._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
 4. **Microshot Speed**: This scenario is great for improving your click-timing and"</t>
   </si>
   <si>
@@ -461,14 +461,14 @@
     <t>What scenarios should I be playing for Ashe or Widowmaker aim?</t>
   </si>
   <si>
-    <t>"For improving your Ashe or Widowmaker aim in Overwatch, you should focus on scenarios that help with precision, flick shots, target acquisition, and micro-corrections. Here are some recommended scenarios in aim training workshops like Kovaak's FPS Aim Trainer or Aim Lab that can help you hone your skills:_x000D__x000D_
-_x000D__x000D_
-1. **Tile Frenzy**: This scenario can help you improve your speed and precision by quickly flicking between targets._x000D__x000D_
-_x000D__x000D_
-2. **1W6T TE**: This scenario is great for practicing tracking and flicking between multiple targets, which can simulate team fights in Overwatch._x000D__x000D_
-_x000D__x000D_
-3. **Thin Aiming Long Invincible**: This scenario focuses on precision and consistency, helping you to land accurate shots on small targets._x000D__x000D_
-_x000D__x000D_
+    <t>"For improving your Ashe or Widowmaker aim in Overwatch, you should focus on scenarios that help with precision, flick shots, target acquisition, and micro-corrections. Here are some recommended scenarios in aim training workshops like Kovaak's FPS Aim Trainer or Aim Lab that can help you hone your skills:_x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+1. **Tile Frenzy**: This scenario can help you improve your speed and precision by quickly flicking between targets._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+2. **1W6T TE**: This scenario is great for practicing tracking and flicking between multiple targets, which can simulate team fights in Overwatch._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+3. **Thin Aiming Long Invincible**: This scenario focuses on precision and consistency, helping you to land accurate shots on small targets._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
 4. **Pasu Tracking"</t>
   </si>
   <si>
@@ -490,16 +490,16 @@
     <t>What are the best scenarios for Sojourn and hitting railgun shots as an Aimlabs player</t>
   </si>
   <si>
-    <t>"For improving your aim with Sojourn's railgun shots in Aim Lab, you can benefit from scenarios that focus on precision tracking and flick shots. Here are some recommended scenarios:_x000D__x000D_
-_x000D__x000D_
-1. **Gridshot Ultimate**: This scenario helps with flick shots and hitting precise shots quickly._x000D__x000D_
-   _x000D__x000D_
-2. **Strafetrack**: It is excellent for practicing tracking while dealing with strafing opponents, which can simulate Sojourn's movement._x000D__x000D_
-_x000D__x000D_
-3. **Spidershot Speed**: This scenario can help improve your speed and accuracy, which is crucial for hitting railgun shots effectively._x000D__x000D_
-_x000D__x000D_
-4. **Microshot Speed**: Enhances your micro-tracking skills, which are essential for hitting precise shots with Sojourn's railgun._x000D__x000D_
-_x000D__x000D_
+    <t>"For improving your aim with Sojourn's railgun shots in Aim Lab, you can benefit from scenarios that focus on precision tracking and flick shots. Here are some recommended scenarios:_x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+1. **Gridshot Ultimate**: This scenario helps with flick shots and hitting precise shots quickly._x000D__x000D__x000D__x000D__x000D_
+   _x000D__x000D__x000D__x000D__x000D_
+2. **Strafetrack**: It is excellent for practicing tracking while dealing with strafing opponents, which can simulate Sojourn's movement._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+3. **Spidershot Speed**: This scenario can help improve your speed and accuracy, which is crucial for hitting railgun shots effectively._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+4. **Microshot Speed**: Enhances your micro-tracking skills, which are essential for hitting precise shots with Sojourn's railgun._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
 5. **Sixshot Classic"</t>
   </si>
   <si>
@@ -581,14 +581,14 @@
     <t>What tips does this app provide for how to get out of a plateau?</t>
   </si>
   <si>
-    <t>"If you are feeling stuck in a plateau in your aim training progress, this app can provide you with various tips and strategies to help you overcome it. Some tips that this app may offer could include:_x000D__x000D_
-_x000D__x000D_
-1. **Try different training routines:** Switching up your training routine can help challenge your skills in new ways and break through the plateau._x000D__x000D_
-  _x000D__x000D_
-2. **Set specific goals:** Setting clear and achievable goals can give you a sense of direction and motivation to push past the plateau._x000D__x000D_
-_x000D__x000D_
-3. **Analyze your performance:** Reviewing your gameplay or training sessions can help you identify areas for improvement and make necessary adjustments._x000D__x000D_
-_x000D__x000D_
+    <t>"If you are feeling stuck in a plateau in your aim training progress, this app can provide you with various tips and strategies to help you overcome it. Some tips that this app may offer could include:_x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+1. **Try different training routines:** Switching up your training routine can help challenge your skills in new ways and break through the plateau._x000D__x000D__x000D__x000D__x000D_
+  _x000D__x000D__x000D__x000D__x000D_
+2. **Set specific goals:** Setting clear and achievable goals can give you a sense of direction and motivation to push past the plateau._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+3. **Analyze your performance:** Reviewing your gameplay or training sessions can help you identify areas for improvement and make necessary adjustments._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
 4. **Seek feedback:** Getting feedback from coaches, peers, or using in-app analysis tools can provide valuable insights to help you progress"</t>
   </si>
   <si>
@@ -601,12 +601,12 @@
     <t>Any tips on how to get better aim in valorant</t>
   </si>
   <si>
-    <t>"Improving your aim in Valorant requires consistent practice and dedication. Here are some tips to help you enhance your aim:_x000D__x000D_
-_x000D__x000D_
-1. **Training Routine**: Follow a structured training routine like the ones mentioned in the text. Consistent practice in various scenarios focusing on micro-corrections, click-timing, flick shots, tracking, and speed switching can help improve different aspects of your aim._x000D__x000D_
-_x000D__x000D_
-2. **Warm-up Before Games**: Always warm up before playing ranked sessions or tournaments. Short, intensive warm-up routines followed by deathmatch games can help you get into the right mindset and improve your aim before diving into serious gameplay._x000D__x000D_
-_x000D__x000D_
+    <t>"Improving your aim in Valorant requires consistent practice and dedication. Here are some tips to help you enhance your aim:_x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+1. **Training Routine**: Follow a structured training routine like the ones mentioned in the text. Consistent practice in various scenarios focusing on micro-corrections, click-timing, flick shots, tracking, and speed switching can help improve different aspects of your aim._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+2. **Warm-up Before Games**: Always warm up before playing ranked sessions or tournaments. Short, intensive warm-up routines followed by deathmatch games can help you get into the right mindset and improve your aim before diving into serious gameplay._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
 3. **Focus on Crosshair Placement**: Keep your crosshair at head level and pre-aim common angles to ensure that your shots"</t>
   </si>
   <si>
@@ -619,14 +619,14 @@
     <t>Any tips on how to fix shot spamming</t>
   </si>
   <si>
-    <t>"To fix shot spamming in dynamic clicking scenarios, it's important to focus on being deliberate with your shots and timing your clicks according to the movement of the targets. Here are some tips to help you avoid shot spamming:_x000D__x000D_
-_x000D__x000D_
-1. **Practice Patience**: Instead of rapidly clicking on targets, take a moment to track their movement and then time your shot when you have a clear shot._x000D__x000D_
-_x000D__x000D_
-2. **Focus on Target Reading**: Pay attention to the movement of targets, especially in your peripheral vision. Anticipate where the target will be and time your shots accordingly._x000D__x000D_
-_x000D__x000D_
-3. **Maintain a Constant Pace**: Avoid fluctuating your clicking speed and try to maintain a steady pace. This will help you manage multiple moving targets more effectively._x000D__x000D_
-_x000D__x000D_
+    <t>"To fix shot spamming in dynamic clicking scenarios, it's important to focus on being deliberate with your shots and timing your clicks according to the movement of the targets. Here are some tips to help you avoid shot spamming:_x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+1. **Practice Patience**: Instead of rapidly clicking on targets, take a moment to track their movement and then time your shot when you have a clear shot._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+2. **Focus on Target Reading**: Pay attention to the movement of targets, especially in your peripheral vision. Anticipate where the target will be and time your shots accordingly._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+3. **Maintain a Constant Pace**: Avoid fluctuating your clicking speed and try to maintain a steady pace. This will help you manage multiple moving targets more effectively._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
 4."</t>
   </si>
   <si>
@@ -1022,15 +1022,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>135</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -1686,7 +1686,11 @@
         <v>173</v>
       </c>
     </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:H46 C47:H47" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>